--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusei\Desktop\rehab_planner_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusei\Desktop\Rehab-Plan-Generator\app\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6375B4FB-8DC7-498A-AF9A-4B389F834A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DF6FAE-01E2-4C0E-B7F9-DEFD8D4552E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="11790" windowWidth="17280" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="様式23_1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="222">
   <si>
     <t>患者氏名</t>
     <rPh sb="3" eb="4">
@@ -730,6 +730,813 @@
   </si>
   <si>
     <t>リハビリテーション実施計画書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意識障害</t>
+    <rPh sb="0" eb="4">
+      <t>イシキショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理学療法</t>
+    <rPh sb="0" eb="4">
+      <t>リガクリョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業療法</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウリョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語療法</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼吸機能障害</t>
+    <rPh sb="0" eb="2">
+      <t>コキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸素療法</t>
+    <rPh sb="0" eb="4">
+      <t>サンソリョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気切</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人工呼吸器</t>
+    <rPh sb="0" eb="5">
+      <t>ジンコウコキュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>循環障害</t>
+    <rPh sb="0" eb="4">
+      <t>ジュンカンショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不整脈</t>
+    <rPh sb="0" eb="3">
+      <t>フセイミャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危険因子</t>
+    <rPh sb="0" eb="4">
+      <t>キケンインシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高血圧症</t>
+    <rPh sb="0" eb="3">
+      <t>コウケツアツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂質異常症</t>
+    <rPh sb="0" eb="5">
+      <t>シシツイジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖尿病</t>
+    <rPh sb="0" eb="3">
+      <t>トウニョウビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喫煙</t>
+    <rPh sb="0" eb="2">
+      <t>キツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肥満</t>
+    <rPh sb="0" eb="2">
+      <t>ヒマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高尿酸血症</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニョウサン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慢性腎臓病</t>
+    <rPh sb="0" eb="2">
+      <t>マンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族歴</t>
+    <rPh sb="0" eb="3">
+      <t>カゾクレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狭心症</t>
+    <rPh sb="0" eb="3">
+      <t>キョウシンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陳旧性心筋梗塞</t>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摂食嚥下障害</t>
+    <rPh sb="0" eb="6">
+      <t>セッショクエンゲショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄養障害</t>
+    <rPh sb="0" eb="4">
+      <t>エイヨウショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>排泄機能障害</t>
+    <rPh sb="0" eb="6">
+      <t>ハイセツキノウショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>褥瘡</t>
+  </si>
+  <si>
+    <t>関節可動域制限</t>
+    <rPh sb="0" eb="7">
+      <t>カンセツカドウイキセイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拘縮・変形</t>
+  </si>
+  <si>
+    <t>筋力低下</t>
+    <rPh sb="0" eb="4">
+      <t>キンリョクテイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動機能障害</t>
+    <rPh sb="0" eb="6">
+      <t>ウンドウキノウショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻痺</t>
+    <rPh sb="0" eb="2">
+      <t>マヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不随意運動</t>
+    <rPh sb="0" eb="3">
+      <t>フズイイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動失調</t>
+    <rPh sb="0" eb="4">
+      <t>ウンドウシッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾊﾟｰｷﾝｿﾆｽﾞﾑ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筋緊張異常</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感覚機能障害</t>
+    <rPh sb="0" eb="2">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キノウショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聴覚</t>
+    <rPh sb="0" eb="2">
+      <t>チョウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視覚</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表在覚</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深部覚</t>
+    <rPh sb="0" eb="3">
+      <t>シンブカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音声発話障害</t>
+    <rPh sb="0" eb="2">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハツワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構音</t>
+    <rPh sb="0" eb="1">
+      <t>カマエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失語</t>
+    <rPh sb="0" eb="1">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吃音</t>
+    <rPh sb="0" eb="2">
+      <t>キツオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高次脳機能障害</t>
+    <rPh sb="0" eb="2">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失行</t>
+    <rPh sb="0" eb="2">
+      <t>シッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失認</t>
+    <rPh sb="0" eb="2">
+      <t>シツニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遂行</t>
+  </si>
+  <si>
+    <t>精神行動障害</t>
+    <rPh sb="0" eb="2">
+      <t>セイシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見当識障害</t>
+    <rPh sb="0" eb="2">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記憶障害</t>
+    <rPh sb="0" eb="4">
+      <t>キオクショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発達障害</t>
+    <rPh sb="0" eb="2">
+      <t>ハッタツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自閉症ｽﾍﾟｸﾄﾗﾑ症</t>
+    <rPh sb="0" eb="2">
+      <t>ジヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習障害</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意欠陥多動性障害</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寝返り</t>
+    <rPh sb="0" eb="2">
+      <t>ネガエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自立</t>
+    <rPh sb="0" eb="2">
+      <t>ジリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部介助</t>
+    <rPh sb="0" eb="4">
+      <t>イチブカイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介助</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非実施</t>
+    <rPh sb="0" eb="3">
+      <t>ヒジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起き上がり</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ち上がり</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座位保持</t>
+    <rPh sb="0" eb="4">
+      <t>ザイホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立位保持</t>
+    <rPh sb="0" eb="2">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助食品</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経管栄養</t>
+    <rPh sb="0" eb="4">
+      <t>ケイカンエイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静脈栄養</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウミャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>末梢</t>
+  </si>
+  <si>
+    <t>中心</t>
+  </si>
+  <si>
+    <t>胃ろう</t>
+  </si>
+  <si>
+    <t>無</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有</t>
+    <rPh sb="0" eb="1">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題なし</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低栄養</t>
+    <rPh sb="0" eb="3">
+      <t>テイエイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低栄養リスク</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>エイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過栄養</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>エイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要介護状態区分等</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウカイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>クブントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請中</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要支援状態区分</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウシエン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジョウタイクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要介護状態区分</t>
+    <rPh sb="0" eb="7">
+      <t>ヨウカイゴジョウタイクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身体障害者手帳</t>
+    <rPh sb="0" eb="2">
+      <t>シンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精神障害者</t>
+    <rPh sb="0" eb="2">
+      <t>セイシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>療育手帳・愛護手帳</t>
+  </si>
+  <si>
+    <t>その他（難病等）</t>
+  </si>
+  <si>
+    <t>予定入院期間</t>
+  </si>
+  <si>
+    <t>退院先</t>
+    <rPh sb="0" eb="3">
+      <t>タイインサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長期的・継続的にケアが必要</t>
+    <rPh sb="0" eb="3">
+      <t>チョウキテキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイゾクテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他(心身機能・構造)</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疼痛</t>
+  </si>
+  <si>
+    <t>その他(音声発話障害)</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハツワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他(基本動作)</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>キホンドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他(栄養状態評価)</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>エイヨウジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1700,115 +2507,115 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$1" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$118" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$119" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$120" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$122" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$121" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$123" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$88" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$90" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$89" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$91" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$93" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$92" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$94" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$96" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$97" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$95" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$98" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$100" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$99" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$102" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$101" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$103" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$105" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$104" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1836,7 +2643,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1880,7 +2687,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1924,7 +2731,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp150.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1968,7 +2775,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp160.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,7 +2819,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp170.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2056,7 +2863,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp180.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2100,7 +2907,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp190.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2144,11 +2951,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp200.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2192,7 +2999,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp210.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2236,7 +3043,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp220.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2280,7 +3087,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2324,7 +3131,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp240.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2368,7 +3175,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp250.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2380,327 +3187,327 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$42" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$39" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$47" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$48" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$46" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$50" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$52" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$53" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$51" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$49" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$54" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$55" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$56" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$57" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$58" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$59" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$61" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$60" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$63" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$65" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$66" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$64" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$62" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$68" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$70" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$71" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$69" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$67" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$73" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$75" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$76" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$74" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$72" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$78" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$80" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$81" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$79" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$77" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$83" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$85" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$86" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$84" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$82" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$87" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$112" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$114" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$115" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$113" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$111" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$116" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$106" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$107" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$108" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$109" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$110" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AZ$117" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2887,8 +3694,8 @@
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>228285</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4866,7 +5673,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>610</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -4952,7 +5759,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>610</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -11917,8 +12724,8 @@
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>228285</xdr:colOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -24562,23 +25369,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2183504-5DCD-B84B-A88C-9BFE8B4D80DD}">
-  <dimension ref="B1:AW93"/>
+  <dimension ref="B1:AZ123"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:Y85"/>
+      <selection activeCell="Y120" sqref="Y120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="49" width="3" customWidth="1"/>
+    <col min="51" max="51" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>113</v>
       </c>
+      <c r="AY1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="33" t="s">
         <v>123</v>
       </c>
@@ -24629,8 +25444,14 @@
       <c r="AU2" s="34"/>
       <c r="AV2" s="34"/>
       <c r="AW2" s="1"/>
+      <c r="AY2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
@@ -24701,8 +25522,14 @@
       <c r="AW3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="AY3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>7</v>
       </c>
@@ -24765,8 +25592,14 @@
       <c r="AW4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="AY4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -24820,8 +25653,14 @@
       <c r="AW5" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="AY5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -24870,8 +25709,14 @@
       <c r="AU6" s="53"/>
       <c r="AV6" s="53"/>
       <c r="AW6" s="54"/>
+      <c r="AY6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
@@ -24926,8 +25771,14 @@
       <c r="AU7" s="34"/>
       <c r="AV7" s="34"/>
       <c r="AW7" s="38"/>
+      <c r="AY7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ7" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="39"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -24976,8 +25827,14 @@
       <c r="AU8" s="40"/>
       <c r="AV8" s="40"/>
       <c r="AW8" s="41"/>
+      <c r="AY8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="42"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -25026,8 +25883,22 @@
       <c r="AU9" s="43"/>
       <c r="AV9" s="43"/>
       <c r="AW9" s="44"/>
+      <c r="AY9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
@@ -25078,8 +25949,14 @@
       <c r="AU11" s="34"/>
       <c r="AV11" s="34"/>
       <c r="AW11" s="38"/>
+      <c r="AY11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -25136,8 +26013,14 @@
       <c r="AW12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AY12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="55"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -25188,8 +26071,14 @@
       <c r="AW13" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="AY13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ13" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
@@ -25244,8 +26133,14 @@
       <c r="AW14" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="AY14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="55"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -25296,8 +26191,14 @@
       <c r="AU15" s="48"/>
       <c r="AV15" s="48"/>
       <c r="AW15" s="57"/>
+      <c r="AY15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
@@ -25354,8 +26255,14 @@
       <c r="AU16" s="59"/>
       <c r="AV16" s="59"/>
       <c r="AW16" s="60"/>
+      <c r="AY16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ16" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="55"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -25406,8 +26313,14 @@
       <c r="AW17" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="AY17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="58" t="s">
         <v>16</v>
       </c>
@@ -25460,8 +26373,14 @@
       <c r="AU18" s="59"/>
       <c r="AV18" s="59"/>
       <c r="AW18" s="60"/>
+      <c r="AY18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="58" t="s">
         <v>16</v>
       </c>
@@ -25514,8 +26433,14 @@
       <c r="AU19" s="48"/>
       <c r="AV19" s="48"/>
       <c r="AW19" s="57"/>
+      <c r="AY19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -25574,8 +26499,14 @@
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
       <c r="AW20" s="18"/>
+      <c r="AY20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ20" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="G21" s="10" t="s">
         <v>80</v>
@@ -25626,8 +26557,14 @@
       <c r="AU21" s="59"/>
       <c r="AV21" s="59"/>
       <c r="AW21" s="60"/>
+      <c r="AY21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ21" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
       <c r="G22" s="10" t="s">
         <v>80</v>
@@ -25678,8 +26615,14 @@
       <c r="AW22" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="AY22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ22" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
       <c r="G23" s="10" t="s">
         <v>80</v>
@@ -25730,8 +26673,14 @@
       <c r="AW23" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="AY23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ23" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="G24" s="10" t="s">
         <v>80</v>
@@ -25782,8 +26731,14 @@
       <c r="AW24" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="AY24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ24" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
       <c r="G25" s="10" t="s">
         <v>80</v>
@@ -25834,8 +26789,14 @@
       <c r="AU25" s="48"/>
       <c r="AV25" s="48"/>
       <c r="AW25" s="57"/>
+      <c r="AY25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ25" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -25890,8 +26851,22 @@
       <c r="AU26" s="62"/>
       <c r="AV26" s="62"/>
       <c r="AW26" s="63"/>
+      <c r="AY26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="35" t="s">
         <v>21</v>
       </c>
@@ -25942,8 +26917,14 @@
       <c r="AU28" s="36"/>
       <c r="AV28" s="36"/>
       <c r="AW28" s="37"/>
+      <c r="AY28" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="64" t="s">
         <v>117</v>
       </c>
@@ -25996,8 +26977,14 @@
       <c r="AU29" s="65"/>
       <c r="AV29" s="65"/>
       <c r="AW29" s="66"/>
+      <c r="AY29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="58" t="s">
         <v>117</v>
       </c>
@@ -26050,8 +27037,14 @@
       <c r="AU30" s="59"/>
       <c r="AV30" s="59"/>
       <c r="AW30" s="60"/>
+      <c r="AY30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="61" t="s">
         <v>117</v>
       </c>
@@ -26106,8 +27099,14 @@
       <c r="AW31" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="AY31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="35" t="s">
         <v>22</v>
       </c>
@@ -26160,8 +27159,14 @@
       <c r="AU32" s="34"/>
       <c r="AV32" s="34"/>
       <c r="AW32" s="38"/>
+      <c r="AY32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="33" t="s">
         <v>24</v>
       </c>
@@ -26214,8 +27219,14 @@
       <c r="AU33" s="48"/>
       <c r="AV33" s="48"/>
       <c r="AW33" s="57"/>
+      <c r="AY33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="2:49" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:52" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="52"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
@@ -26268,8 +27279,14 @@
       <c r="AU34" s="53"/>
       <c r="AV34" s="53"/>
       <c r="AW34" s="54"/>
+      <c r="AY34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="68" t="s">
         <v>28</v>
       </c>
@@ -26328,8 +27345,14 @@
       <c r="AU35" s="85"/>
       <c r="AV35" s="85"/>
       <c r="AW35" s="86"/>
+      <c r="AY35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="72"/>
       <c r="D36" s="73"/>
@@ -26384,8 +27407,14 @@
       <c r="AU36" s="40"/>
       <c r="AV36" s="40"/>
       <c r="AW36" s="41"/>
+      <c r="AY36" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="72"/>
       <c r="D37" s="73"/>
@@ -26440,8 +27469,14 @@
       <c r="AU37" s="40"/>
       <c r="AV37" s="40"/>
       <c r="AW37" s="41"/>
+      <c r="AY37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ37" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="72"/>
       <c r="D38" s="73"/>
@@ -26496,8 +27531,14 @@
       <c r="AU38" s="40"/>
       <c r="AV38" s="40"/>
       <c r="AW38" s="41"/>
+      <c r="AY38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="72"/>
       <c r="D39" s="73"/>
@@ -26550,8 +27591,14 @@
       <c r="AU39" s="40"/>
       <c r="AV39" s="40"/>
       <c r="AW39" s="41"/>
+      <c r="AY39" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="72"/>
       <c r="D40" s="73"/>
@@ -26606,8 +27653,14 @@
       <c r="AU40" s="40"/>
       <c r="AV40" s="40"/>
       <c r="AW40" s="41"/>
+      <c r="AY40" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ40" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="72" t="s">
         <v>37</v>
@@ -26664,8 +27717,14 @@
       <c r="AU41" s="40"/>
       <c r="AV41" s="40"/>
       <c r="AW41" s="41"/>
+      <c r="AY41" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ41" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="72"/>
       <c r="D42" s="73"/>
@@ -26720,8 +27779,14 @@
       <c r="AU42" s="40"/>
       <c r="AV42" s="40"/>
       <c r="AW42" s="41"/>
+      <c r="AY42" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="72" t="s">
         <v>40</v>
@@ -26778,8 +27843,14 @@
       <c r="AU43" s="40"/>
       <c r="AV43" s="40"/>
       <c r="AW43" s="41"/>
+      <c r="AY43" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ43" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="72"/>
       <c r="D44" s="73"/>
@@ -26832,8 +27903,14 @@
       <c r="AU44" s="40"/>
       <c r="AV44" s="40"/>
       <c r="AW44" s="41"/>
+      <c r="AY44" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ44" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="72"/>
       <c r="D45" s="73"/>
@@ -26886,8 +27963,14 @@
       <c r="AU45" s="40"/>
       <c r="AV45" s="40"/>
       <c r="AW45" s="41"/>
+      <c r="AY45" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ45" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="72" t="s">
         <v>43</v>
@@ -26944,8 +28027,14 @@
       <c r="AU46" s="40"/>
       <c r="AV46" s="40"/>
       <c r="AW46" s="41"/>
+      <c r="AY46" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ46" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="72"/>
       <c r="D47" s="73"/>
@@ -26996,8 +28085,14 @@
       <c r="AU47" s="40"/>
       <c r="AV47" s="40"/>
       <c r="AW47" s="41"/>
+      <c r="AY47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ47" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="72"/>
       <c r="D48" s="73"/>
@@ -27048,8 +28143,14 @@
       <c r="AU48" s="40"/>
       <c r="AV48" s="40"/>
       <c r="AW48" s="41"/>
+      <c r="AY48" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ48" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="2:49" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:52" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="35"/>
       <c r="C49" s="99"/>
       <c r="D49" s="96"/>
@@ -27104,8 +28205,14 @@
       <c r="AU49" s="40"/>
       <c r="AV49" s="40"/>
       <c r="AW49" s="41"/>
+      <c r="AY49" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ49" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="69"/>
       <c r="C50" s="90" t="s">
         <v>48</v>
@@ -27172,8 +28279,14 @@
       <c r="AU50" s="40"/>
       <c r="AV50" s="40"/>
       <c r="AW50" s="41"/>
+      <c r="AY50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ50" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="100" t="s">
         <v>49</v>
       </c>
@@ -27230,8 +28343,14 @@
       <c r="AU51" s="40"/>
       <c r="AV51" s="40"/>
       <c r="AW51" s="41"/>
+      <c r="AY51" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ51" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="101"/>
       <c r="C52" s="106"/>
       <c r="D52" s="107"/>
@@ -27284,8 +28403,14 @@
       <c r="AU52" s="40"/>
       <c r="AV52" s="40"/>
       <c r="AW52" s="41"/>
+      <c r="AY52" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ52" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="101"/>
       <c r="C53" s="117" t="s">
         <v>53</v>
@@ -27340,8 +28465,14 @@
       <c r="AU53" s="40"/>
       <c r="AV53" s="40"/>
       <c r="AW53" s="41"/>
+      <c r="AY53" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ53" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="101"/>
       <c r="C54" s="117"/>
       <c r="D54" s="118"/>
@@ -27394,8 +28525,14 @@
       <c r="AU54" s="40"/>
       <c r="AV54" s="40"/>
       <c r="AW54" s="41"/>
+      <c r="AY54" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ54" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="101"/>
       <c r="C55" s="120"/>
       <c r="D55" s="121"/>
@@ -27448,8 +28585,14 @@
       <c r="AU55" s="40"/>
       <c r="AV55" s="40"/>
       <c r="AW55" s="41"/>
+      <c r="AY55" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ55" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="102"/>
       <c r="C56" s="79" t="s">
         <v>57</v>
@@ -27508,8 +28651,14 @@
       <c r="AU56" s="40"/>
       <c r="AV56" s="40"/>
       <c r="AW56" s="41"/>
+      <c r="AY56" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ56" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="35" t="s">
         <v>58</v>
       </c>
@@ -27568,8 +28717,14 @@
       <c r="AU57" s="43"/>
       <c r="AV57" s="43"/>
       <c r="AW57" s="44"/>
+      <c r="AY57" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ57" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -27618,8 +28773,14 @@
       <c r="AU58" s="22"/>
       <c r="AV58" s="22"/>
       <c r="AW58" s="22"/>
+      <c r="AY58" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ58" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="35" t="s">
         <v>107</v>
       </c>
@@ -27670,8 +28831,14 @@
       <c r="AU59" s="36"/>
       <c r="AV59" s="36"/>
       <c r="AW59" s="37"/>
+      <c r="AY59" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ59" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
         <v>106</v>
       </c>
@@ -27734,8 +28901,14 @@
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
       <c r="AW60" s="1"/>
+      <c r="AY60" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ60" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="8" t="s">
         <v>102</v>
       </c>
@@ -27757,8 +28930,14 @@
       </c>
       <c r="AV61" s="22"/>
       <c r="AW61" s="23"/>
+      <c r="AY61" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ61" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="8" t="s">
         <v>101</v>
       </c>
@@ -27777,8 +28956,14 @@
       </c>
       <c r="AV62" s="22"/>
       <c r="AW62" s="23"/>
+      <c r="AY62" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ62" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="8" t="s">
         <v>99</v>
       </c>
@@ -27805,15 +28990,27 @@
       </c>
       <c r="AV63" s="22"/>
       <c r="AW63" s="23"/>
+      <c r="AY63" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ63" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>98</v>
       </c>
       <c r="AV64" s="22"/>
       <c r="AW64" s="23"/>
+      <c r="AY64" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ64" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8" t="s">
         <v>97</v>
       </c>
@@ -27836,8 +29033,14 @@
         <v>92</v>
       </c>
       <c r="AW65" s="7"/>
+      <c r="AY65" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ65" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="6" t="s">
         <v>96</v>
       </c>
@@ -27896,15 +29099,35 @@
       <c r="AU66" s="4"/>
       <c r="AV66" s="24"/>
       <c r="AW66" s="25"/>
+      <c r="AY66" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ66" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W67" s="11" t="s">
         <v>122</v>
       </c>
       <c r="AV67" s="22"/>
       <c r="AW67" s="22"/>
+      <c r="AY67" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ67" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY68" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="35" t="s">
         <v>59</v>
       </c>
@@ -27955,8 +29178,14 @@
       <c r="AU69" s="36"/>
       <c r="AV69" s="36"/>
       <c r="AW69" s="37"/>
+      <c r="AY69" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ69" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="33"/>
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
@@ -28005,8 +29234,14 @@
       <c r="AU70" s="34"/>
       <c r="AV70" s="34"/>
       <c r="AW70" s="38"/>
+      <c r="AY70" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ70" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="45" t="s">
         <v>119</v>
       </c>
@@ -28059,8 +29294,14 @@
       <c r="AU71" s="48"/>
       <c r="AV71" s="48"/>
       <c r="AW71" s="57"/>
+      <c r="AY71" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ71" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="123" t="s">
         <v>120</v>
       </c>
@@ -28119,8 +29360,14 @@
       <c r="AU72" s="53"/>
       <c r="AV72" s="53"/>
       <c r="AW72" s="54"/>
+      <c r="AY72" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ72" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="35" t="s">
         <v>64</v>
       </c>
@@ -28177,8 +29424,14 @@
       <c r="AW73" s="29" t="s">
         <v>6</v>
       </c>
+      <c r="AY73" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ73" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="39"/>
       <c r="C74" s="40"/>
       <c r="D74" s="40"/>
@@ -28228,8 +29481,14 @@
       <c r="AW74" s="27" t="s">
         <v>6</v>
       </c>
+      <c r="AY74" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ74" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="39"/>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
@@ -28278,8 +29537,14 @@
       <c r="AU75" s="48"/>
       <c r="AV75" s="48"/>
       <c r="AW75" s="57"/>
+      <c r="AY75" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ75" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="39"/>
       <c r="C76" s="40"/>
       <c r="D76" s="40"/>
@@ -28328,8 +29593,14 @@
       <c r="AU76" s="48"/>
       <c r="AV76" s="48"/>
       <c r="AW76" s="57"/>
+      <c r="AY76" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ76" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="42"/>
       <c r="C77" s="43"/>
       <c r="D77" s="43"/>
@@ -28378,8 +29649,14 @@
       <c r="AU77" s="53"/>
       <c r="AV77" s="53"/>
       <c r="AW77" s="54"/>
+      <c r="AY77" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ77" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>67</v>
       </c>
@@ -28432,8 +29709,14 @@
       <c r="AU78" s="34"/>
       <c r="AV78" s="34"/>
       <c r="AW78" s="38"/>
+      <c r="AY78" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ78" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="39"/>
       <c r="C79" s="40"/>
       <c r="D79" s="40"/>
@@ -28482,8 +29765,14 @@
       <c r="AU79" s="40"/>
       <c r="AV79" s="40"/>
       <c r="AW79" s="41"/>
+      <c r="AY79" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ79" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="39"/>
       <c r="C80" s="40"/>
       <c r="D80" s="40"/>
@@ -28532,8 +29821,14 @@
       <c r="AU80" s="40"/>
       <c r="AV80" s="40"/>
       <c r="AW80" s="41"/>
+      <c r="AY80" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ80" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="39"/>
       <c r="C81" s="40"/>
       <c r="D81" s="40"/>
@@ -28582,8 +29877,14 @@
       <c r="AU81" s="40"/>
       <c r="AV81" s="40"/>
       <c r="AW81" s="41"/>
+      <c r="AY81" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ81" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="39"/>
       <c r="C82" s="40"/>
       <c r="D82" s="40"/>
@@ -28632,8 +29933,14 @@
       <c r="AU82" s="40"/>
       <c r="AV82" s="40"/>
       <c r="AW82" s="41"/>
+      <c r="AY82" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ82" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="39"/>
       <c r="C83" s="40"/>
       <c r="D83" s="40"/>
@@ -28682,8 +29989,14 @@
       <c r="AU83" s="40"/>
       <c r="AV83" s="40"/>
       <c r="AW83" s="41"/>
+      <c r="AY83" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ83" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="39"/>
       <c r="C84" s="40"/>
       <c r="D84" s="40"/>
@@ -28732,8 +30045,14 @@
       <c r="AU84" s="40"/>
       <c r="AV84" s="40"/>
       <c r="AW84" s="41"/>
+      <c r="AY84" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ84" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="39"/>
       <c r="C85" s="40"/>
       <c r="D85" s="40"/>
@@ -28782,8 +30101,14 @@
       <c r="AU85" s="43"/>
       <c r="AV85" s="43"/>
       <c r="AW85" s="44"/>
+      <c r="AY85" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ85" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="33" t="s">
         <v>69</v>
       </c>
@@ -28850,8 +30175,14 @@
       <c r="AW86" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AY86" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ86" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="55" t="s">
         <v>72</v>
       </c>
@@ -28904,8 +30235,14 @@
       <c r="AU87" s="48"/>
       <c r="AV87" s="48"/>
       <c r="AW87" s="57"/>
+      <c r="AY87" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ87" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="55" t="s">
         <v>74</v>
       </c>
@@ -28960,8 +30297,14 @@
       <c r="AU88" s="48"/>
       <c r="AV88" s="48"/>
       <c r="AW88" s="57"/>
+      <c r="AY88" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ88" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="55" t="s">
         <v>77</v>
       </c>
@@ -29014,8 +30357,14 @@
       <c r="AU89" s="48"/>
       <c r="AV89" s="48"/>
       <c r="AW89" s="57"/>
+      <c r="AY89" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ89" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="55"/>
       <c r="C90" s="48"/>
       <c r="D90" s="48"/>
@@ -29064,8 +30413,14 @@
       <c r="AU90" s="48"/>
       <c r="AV90" s="48"/>
       <c r="AW90" s="57"/>
+      <c r="AY90" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ90" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="55" t="s">
         <v>79</v>
       </c>
@@ -29116,8 +30471,14 @@
       <c r="AU91" s="48"/>
       <c r="AV91" s="48"/>
       <c r="AW91" s="57"/>
+      <c r="AY91" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ91" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="55"/>
       <c r="C92" s="48"/>
       <c r="D92" s="48"/>
@@ -29166,8 +30527,14 @@
       <c r="AU92" s="48"/>
       <c r="AV92" s="48"/>
       <c r="AW92" s="57"/>
+      <c r="AY92" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ92" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="52"/>
       <c r="C93" s="53"/>
       <c r="D93" s="53"/>
@@ -29216,6 +30583,252 @@
       <c r="AU93" s="53"/>
       <c r="AV93" s="53"/>
       <c r="AW93" s="54"/>
+      <c r="AY93" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY94" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY95" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY96" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY97" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY98" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY99" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY100" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY101" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY102" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY103" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY104" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY105" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY106" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY107" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY108" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY109">
+        <v>1</v>
+      </c>
+      <c r="AZ109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY110">
+        <v>2</v>
+      </c>
+      <c r="AZ110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY111" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY112">
+        <v>1</v>
+      </c>
+      <c r="AZ112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY113">
+        <v>2</v>
+      </c>
+      <c r="AZ113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY114">
+        <v>3</v>
+      </c>
+      <c r="AZ114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY115">
+        <v>4</v>
+      </c>
+      <c r="AZ115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY116">
+        <v>5</v>
+      </c>
+      <c r="AZ116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY117" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY118" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY119" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY120" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY121" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY122" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="51:52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY123" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ123" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="280">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusei\Desktop\Rehab-Plan-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C26603-1EBE-4B79-85A5-A42B095D6991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71060392-1900-410F-9A8F-FE243AE2672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2732,7 +2732,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2830,17 +2830,24 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color theme="1"/>
+      <sz val="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3292,7 +3299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3620,21 +3627,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3767,10 +3783,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3821,6 +3849,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3838,87 +3929,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4203,7 +4213,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AW93"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AV2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4416,22 +4428,22 @@
       </c>
     </row>
     <row r="5" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="172"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="179"/>
       <c r="R5" s="90"/>
       <c r="S5" s="91" t="s">
         <v>164</v>
@@ -4483,22 +4495,22 @@
       </c>
     </row>
     <row r="6" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="175"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="182"/>
       <c r="R6" s="100"/>
       <c r="S6" s="101"/>
       <c r="T6" s="101"/>
@@ -4514,7 +4526,7 @@
       <c r="AD6" s="101"/>
       <c r="AE6" s="101"/>
       <c r="AF6" s="101"/>
-      <c r="AG6" s="113"/>
+      <c r="AG6" s="115"/>
       <c r="AH6" s="100"/>
       <c r="AI6" s="101"/>
       <c r="AJ6" s="101"/>
@@ -4530,7 +4542,7 @@
       <c r="AT6" s="101"/>
       <c r="AU6" s="101"/>
       <c r="AV6" s="101"/>
-      <c r="AW6" s="113"/>
+      <c r="AW6" s="115"/>
     </row>
     <row r="7" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="105" t="s">
@@ -4589,104 +4601,104 @@
       <c r="AW7" s="108"/>
     </row>
     <row r="8" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="170"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="182"/>
-      <c r="S8" s="183"/>
-      <c r="T8" s="183"/>
-      <c r="U8" s="183"/>
-      <c r="V8" s="183"/>
-      <c r="W8" s="183"/>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="183"/>
-      <c r="AA8" s="183"/>
-      <c r="AB8" s="183"/>
-      <c r="AC8" s="183"/>
-      <c r="AD8" s="183"/>
-      <c r="AE8" s="183"/>
-      <c r="AF8" s="183"/>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="177"/>
-      <c r="AJ8" s="177"/>
-      <c r="AK8" s="177"/>
-      <c r="AL8" s="177"/>
-      <c r="AM8" s="177"/>
-      <c r="AN8" s="177"/>
-      <c r="AO8" s="177"/>
-      <c r="AP8" s="177"/>
-      <c r="AQ8" s="177"/>
-      <c r="AR8" s="177"/>
-      <c r="AS8" s="177"/>
-      <c r="AT8" s="177"/>
-      <c r="AU8" s="177"/>
-      <c r="AV8" s="177"/>
-      <c r="AW8" s="178"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="179"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="164"/>
+      <c r="AH8" s="183"/>
+      <c r="AI8" s="184"/>
+      <c r="AJ8" s="184"/>
+      <c r="AK8" s="184"/>
+      <c r="AL8" s="184"/>
+      <c r="AM8" s="184"/>
+      <c r="AN8" s="184"/>
+      <c r="AO8" s="184"/>
+      <c r="AP8" s="184"/>
+      <c r="AQ8" s="184"/>
+      <c r="AR8" s="184"/>
+      <c r="AS8" s="184"/>
+      <c r="AT8" s="184"/>
+      <c r="AU8" s="184"/>
+      <c r="AV8" s="184"/>
+      <c r="AW8" s="185"/>
     </row>
     <row r="9" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="174"/>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="186"/>
-      <c r="Y9" s="186"/>
-      <c r="Z9" s="186"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="186"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="179"/>
-      <c r="AI9" s="180"/>
-      <c r="AJ9" s="180"/>
-      <c r="AK9" s="180"/>
-      <c r="AL9" s="180"/>
-      <c r="AM9" s="180"/>
-      <c r="AN9" s="180"/>
-      <c r="AO9" s="180"/>
-      <c r="AP9" s="180"/>
-      <c r="AQ9" s="180"/>
-      <c r="AR9" s="180"/>
-      <c r="AS9" s="180"/>
-      <c r="AT9" s="180"/>
-      <c r="AU9" s="180"/>
-      <c r="AV9" s="180"/>
-      <c r="AW9" s="181"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="196"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="186"/>
+      <c r="AI9" s="187"/>
+      <c r="AJ9" s="187"/>
+      <c r="AK9" s="187"/>
+      <c r="AL9" s="187"/>
+      <c r="AM9" s="187"/>
+      <c r="AN9" s="187"/>
+      <c r="AO9" s="187"/>
+      <c r="AP9" s="187"/>
+      <c r="AQ9" s="187"/>
+      <c r="AR9" s="187"/>
+      <c r="AS9" s="187"/>
+      <c r="AT9" s="187"/>
+      <c r="AU9" s="187"/>
+      <c r="AV9" s="187"/>
+      <c r="AW9" s="188"/>
     </row>
     <row r="11" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="102" t="s">
@@ -4755,13 +4767,13 @@
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
       <c r="Q12" s="45" t="s">
         <v>14</v>
       </c>
@@ -4785,23 +4797,23 @@
       <c r="AE12" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="131"/>
-      <c r="AK12" s="131"/>
-      <c r="AL12" s="131"/>
-      <c r="AM12" s="131"/>
-      <c r="AN12" s="131"/>
-      <c r="AO12" s="131"/>
-      <c r="AP12" s="131"/>
-      <c r="AQ12" s="131"/>
-      <c r="AR12" s="131"/>
-      <c r="AS12" s="131"/>
-      <c r="AT12" s="131"/>
-      <c r="AU12" s="131"/>
-      <c r="AV12" s="131"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="134"/>
+      <c r="AJ12" s="134"/>
+      <c r="AK12" s="134"/>
+      <c r="AL12" s="134"/>
+      <c r="AM12" s="134"/>
+      <c r="AN12" s="134"/>
+      <c r="AO12" s="134"/>
+      <c r="AP12" s="134"/>
+      <c r="AQ12" s="134"/>
+      <c r="AR12" s="134"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="134"/>
+      <c r="AU12" s="134"/>
+      <c r="AV12" s="134"/>
       <c r="AW12" s="79" t="s">
         <v>14</v>
       </c>
@@ -4847,23 +4859,23 @@
       <c r="AE13" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AF13" s="192"/>
-      <c r="AG13" s="192"/>
-      <c r="AH13" s="192"/>
-      <c r="AI13" s="192"/>
-      <c r="AJ13" s="192"/>
-      <c r="AK13" s="192"/>
-      <c r="AL13" s="192"/>
-      <c r="AM13" s="192"/>
-      <c r="AN13" s="192"/>
-      <c r="AO13" s="192"/>
-      <c r="AP13" s="192"/>
-      <c r="AQ13" s="192"/>
-      <c r="AR13" s="192"/>
-      <c r="AS13" s="192"/>
-      <c r="AT13" s="192"/>
-      <c r="AU13" s="192"/>
-      <c r="AV13" s="192"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="193"/>
+      <c r="AH13" s="193"/>
+      <c r="AI13" s="193"/>
+      <c r="AJ13" s="193"/>
+      <c r="AK13" s="193"/>
+      <c r="AL13" s="193"/>
+      <c r="AM13" s="193"/>
+      <c r="AN13" s="193"/>
+      <c r="AO13" s="193"/>
+      <c r="AP13" s="193"/>
+      <c r="AQ13" s="193"/>
+      <c r="AR13" s="193"/>
+      <c r="AS13" s="193"/>
+      <c r="AT13" s="193"/>
+      <c r="AU13" s="193"/>
+      <c r="AV13" s="193"/>
       <c r="AW13" s="80" t="s">
         <v>14</v>
       </c>
@@ -4883,9 +4895,9 @@
       <c r="G14" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
       <c r="K14" s="68" t="s">
         <v>17</v>
       </c>
@@ -4923,23 +4935,23 @@
       <c r="AE14" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AF14" s="193"/>
-      <c r="AG14" s="193"/>
-      <c r="AH14" s="193"/>
-      <c r="AI14" s="193"/>
-      <c r="AJ14" s="193"/>
-      <c r="AK14" s="193"/>
-      <c r="AL14" s="193"/>
-      <c r="AM14" s="193"/>
-      <c r="AN14" s="193"/>
-      <c r="AO14" s="193"/>
-      <c r="AP14" s="193"/>
-      <c r="AQ14" s="193"/>
-      <c r="AR14" s="193"/>
-      <c r="AS14" s="193"/>
-      <c r="AT14" s="193"/>
-      <c r="AU14" s="193"/>
-      <c r="AV14" s="193"/>
+      <c r="AF14" s="192"/>
+      <c r="AG14" s="192"/>
+      <c r="AH14" s="192"/>
+      <c r="AI14" s="192"/>
+      <c r="AJ14" s="192"/>
+      <c r="AK14" s="192"/>
+      <c r="AL14" s="192"/>
+      <c r="AM14" s="192"/>
+      <c r="AN14" s="192"/>
+      <c r="AO14" s="192"/>
+      <c r="AP14" s="192"/>
+      <c r="AQ14" s="192"/>
+      <c r="AR14" s="192"/>
+      <c r="AS14" s="192"/>
+      <c r="AT14" s="192"/>
+      <c r="AU14" s="192"/>
+      <c r="AV14" s="192"/>
       <c r="AW14" s="80" t="s">
         <v>14</v>
       </c>
@@ -5016,9 +5028,9 @@
         <v>78</v>
       </c>
       <c r="F16" s="73"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
       <c r="J16" s="68" t="s">
         <v>18</v>
       </c>
@@ -5128,23 +5140,23 @@
       <c r="AE17" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AF17" s="192"/>
-      <c r="AG17" s="192"/>
-      <c r="AH17" s="192"/>
-      <c r="AI17" s="192"/>
-      <c r="AJ17" s="192"/>
-      <c r="AK17" s="192"/>
-      <c r="AL17" s="192"/>
-      <c r="AM17" s="192"/>
-      <c r="AN17" s="192"/>
-      <c r="AO17" s="192"/>
-      <c r="AP17" s="192"/>
-      <c r="AQ17" s="192"/>
-      <c r="AR17" s="192"/>
-      <c r="AS17" s="192"/>
-      <c r="AT17" s="192"/>
-      <c r="AU17" s="192"/>
-      <c r="AV17" s="192"/>
+      <c r="AF17" s="193"/>
+      <c r="AG17" s="193"/>
+      <c r="AH17" s="193"/>
+      <c r="AI17" s="193"/>
+      <c r="AJ17" s="193"/>
+      <c r="AK17" s="193"/>
+      <c r="AL17" s="193"/>
+      <c r="AM17" s="193"/>
+      <c r="AN17" s="193"/>
+      <c r="AO17" s="193"/>
+      <c r="AP17" s="193"/>
+      <c r="AQ17" s="193"/>
+      <c r="AR17" s="193"/>
+      <c r="AS17" s="193"/>
+      <c r="AT17" s="193"/>
+      <c r="AU17" s="193"/>
+      <c r="AV17" s="193"/>
       <c r="AW17" s="80" t="s">
         <v>14</v>
       </c>
@@ -5387,10 +5399,10 @@
       <c r="AN20" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="AO20" s="195"/>
-      <c r="AP20" s="195"/>
-      <c r="AQ20" s="195"/>
-      <c r="AR20" s="195"/>
+      <c r="AO20" s="191"/>
+      <c r="AP20" s="191"/>
+      <c r="AQ20" s="191"/>
+      <c r="AR20" s="191"/>
       <c r="AS20" s="68" t="s">
         <v>5</v>
       </c>
@@ -5414,23 +5426,23 @@
       <c r="G21" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="193"/>
-      <c r="N21" s="193"/>
-      <c r="O21" s="193"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="193"/>
-      <c r="S21" s="193"/>
-      <c r="T21" s="193"/>
-      <c r="U21" s="193"/>
-      <c r="V21" s="193"/>
-      <c r="W21" s="193"/>
-      <c r="X21" s="193"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="192"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="192"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="192"/>
+      <c r="S21" s="192"/>
+      <c r="T21" s="192"/>
+      <c r="U21" s="192"/>
+      <c r="V21" s="192"/>
+      <c r="W21" s="192"/>
+      <c r="X21" s="192"/>
       <c r="Y21" s="48" t="s">
         <v>14</v>
       </c>
@@ -5500,23 +5512,23 @@
       <c r="G22" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="192"/>
-      <c r="P22" s="192"/>
-      <c r="Q22" s="192"/>
-      <c r="R22" s="192"/>
-      <c r="S22" s="192"/>
-      <c r="T22" s="192"/>
-      <c r="U22" s="192"/>
-      <c r="V22" s="192"/>
-      <c r="W22" s="192"/>
-      <c r="X22" s="192"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="193"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="193"/>
+      <c r="S22" s="193"/>
+      <c r="T22" s="193"/>
+      <c r="U22" s="193"/>
+      <c r="V22" s="193"/>
+      <c r="W22" s="193"/>
+      <c r="X22" s="193"/>
       <c r="Y22" s="48" t="s">
         <v>14</v>
       </c>
@@ -5532,23 +5544,23 @@
       <c r="AE22" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AF22" s="192"/>
-      <c r="AG22" s="192"/>
-      <c r="AH22" s="192"/>
-      <c r="AI22" s="192"/>
-      <c r="AJ22" s="192"/>
-      <c r="AK22" s="192"/>
-      <c r="AL22" s="192"/>
-      <c r="AM22" s="192"/>
-      <c r="AN22" s="192"/>
-      <c r="AO22" s="192"/>
-      <c r="AP22" s="192"/>
-      <c r="AQ22" s="192"/>
-      <c r="AR22" s="192"/>
-      <c r="AS22" s="192"/>
-      <c r="AT22" s="192"/>
-      <c r="AU22" s="192"/>
-      <c r="AV22" s="192"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="193"/>
+      <c r="AH22" s="193"/>
+      <c r="AI22" s="193"/>
+      <c r="AJ22" s="193"/>
+      <c r="AK22" s="193"/>
+      <c r="AL22" s="193"/>
+      <c r="AM22" s="193"/>
+      <c r="AN22" s="193"/>
+      <c r="AO22" s="193"/>
+      <c r="AP22" s="193"/>
+      <c r="AQ22" s="193"/>
+      <c r="AR22" s="193"/>
+      <c r="AS22" s="193"/>
+      <c r="AT22" s="193"/>
+      <c r="AU22" s="193"/>
+      <c r="AV22" s="193"/>
       <c r="AW22" s="80" t="s">
         <v>14</v>
       </c>
@@ -5566,23 +5578,23 @@
       <c r="G23" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
-      <c r="L23" s="193"/>
-      <c r="M23" s="193"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="193"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="193"/>
-      <c r="R23" s="193"/>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="193"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="192"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="192"/>
+      <c r="S23" s="192"/>
+      <c r="T23" s="192"/>
+      <c r="U23" s="192"/>
+      <c r="V23" s="192"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="192"/>
       <c r="Y23" s="48" t="s">
         <v>14</v>
       </c>
@@ -5598,23 +5610,23 @@
       <c r="AE23" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AF23" s="192"/>
-      <c r="AG23" s="192"/>
-      <c r="AH23" s="192"/>
-      <c r="AI23" s="192"/>
-      <c r="AJ23" s="192"/>
-      <c r="AK23" s="192"/>
-      <c r="AL23" s="192"/>
-      <c r="AM23" s="192"/>
-      <c r="AN23" s="192"/>
-      <c r="AO23" s="192"/>
-      <c r="AP23" s="192"/>
-      <c r="AQ23" s="192"/>
-      <c r="AR23" s="192"/>
-      <c r="AS23" s="192"/>
-      <c r="AT23" s="192"/>
-      <c r="AU23" s="192"/>
-      <c r="AV23" s="192"/>
+      <c r="AF23" s="193"/>
+      <c r="AG23" s="193"/>
+      <c r="AH23" s="193"/>
+      <c r="AI23" s="193"/>
+      <c r="AJ23" s="193"/>
+      <c r="AK23" s="193"/>
+      <c r="AL23" s="193"/>
+      <c r="AM23" s="193"/>
+      <c r="AN23" s="193"/>
+      <c r="AO23" s="193"/>
+      <c r="AP23" s="193"/>
+      <c r="AQ23" s="193"/>
+      <c r="AR23" s="193"/>
+      <c r="AS23" s="193"/>
+      <c r="AT23" s="193"/>
+      <c r="AU23" s="193"/>
+      <c r="AV23" s="193"/>
       <c r="AW23" s="80" t="s">
         <v>14</v>
       </c>
@@ -5632,23 +5644,23 @@
       <c r="G24" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
-      <c r="N24" s="192"/>
-      <c r="O24" s="192"/>
-      <c r="P24" s="192"/>
-      <c r="Q24" s="192"/>
-      <c r="R24" s="192"/>
-      <c r="S24" s="192"/>
-      <c r="T24" s="192"/>
-      <c r="U24" s="192"/>
-      <c r="V24" s="192"/>
-      <c r="W24" s="192"/>
-      <c r="X24" s="192"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="193"/>
+      <c r="M24" s="193"/>
+      <c r="N24" s="193"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="193"/>
+      <c r="S24" s="193"/>
+      <c r="T24" s="193"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="193"/>
+      <c r="W24" s="193"/>
+      <c r="X24" s="193"/>
       <c r="Y24" s="48" t="s">
         <v>14</v>
       </c>
@@ -5664,23 +5676,23 @@
       <c r="AE24" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AF24" s="193"/>
-      <c r="AG24" s="193"/>
-      <c r="AH24" s="193"/>
-      <c r="AI24" s="193"/>
-      <c r="AJ24" s="193"/>
-      <c r="AK24" s="193"/>
-      <c r="AL24" s="193"/>
-      <c r="AM24" s="193"/>
-      <c r="AN24" s="193"/>
-      <c r="AO24" s="193"/>
-      <c r="AP24" s="193"/>
-      <c r="AQ24" s="193"/>
-      <c r="AR24" s="193"/>
-      <c r="AS24" s="193"/>
-      <c r="AT24" s="193"/>
-      <c r="AU24" s="193"/>
-      <c r="AV24" s="193"/>
+      <c r="AF24" s="192"/>
+      <c r="AG24" s="192"/>
+      <c r="AH24" s="192"/>
+      <c r="AI24" s="192"/>
+      <c r="AJ24" s="192"/>
+      <c r="AK24" s="192"/>
+      <c r="AL24" s="192"/>
+      <c r="AM24" s="192"/>
+      <c r="AN24" s="192"/>
+      <c r="AO24" s="192"/>
+      <c r="AP24" s="192"/>
+      <c r="AQ24" s="192"/>
+      <c r="AR24" s="192"/>
+      <c r="AS24" s="192"/>
+      <c r="AT24" s="192"/>
+      <c r="AU24" s="192"/>
+      <c r="AV24" s="192"/>
       <c r="AW24" s="80" t="s">
         <v>14</v>
       </c>
@@ -5698,23 +5710,23 @@
       <c r="G25" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="192"/>
-      <c r="P25" s="192"/>
-      <c r="Q25" s="192"/>
-      <c r="R25" s="192"/>
-      <c r="S25" s="192"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="192"/>
-      <c r="V25" s="192"/>
-      <c r="W25" s="192"/>
-      <c r="X25" s="192"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="193"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="193"/>
+      <c r="S25" s="193"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="193"/>
+      <c r="V25" s="193"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="193"/>
       <c r="Y25" s="48" t="s">
         <v>14</v>
       </c>
@@ -5760,23 +5772,23 @@
       <c r="G26" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="196"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="196"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="196"/>
-      <c r="V26" s="196"/>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
       <c r="Y26" s="77" t="s">
         <v>14</v>
       </c>
@@ -6129,24 +6141,24 @@
       <c r="AD31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE31" s="197"/>
-      <c r="AF31" s="197"/>
-      <c r="AG31" s="197"/>
-      <c r="AH31" s="197"/>
-      <c r="AI31" s="197"/>
-      <c r="AJ31" s="197"/>
-      <c r="AK31" s="197"/>
-      <c r="AL31" s="197"/>
-      <c r="AM31" s="197"/>
-      <c r="AN31" s="197"/>
-      <c r="AO31" s="197"/>
-      <c r="AP31" s="197"/>
-      <c r="AQ31" s="197"/>
-      <c r="AR31" s="197"/>
-      <c r="AS31" s="197"/>
-      <c r="AT31" s="197"/>
-      <c r="AU31" s="197"/>
-      <c r="AV31" s="197"/>
+      <c r="AE31" s="189"/>
+      <c r="AF31" s="189"/>
+      <c r="AG31" s="189"/>
+      <c r="AH31" s="189"/>
+      <c r="AI31" s="189"/>
+      <c r="AJ31" s="189"/>
+      <c r="AK31" s="189"/>
+      <c r="AL31" s="189"/>
+      <c r="AM31" s="189"/>
+      <c r="AN31" s="189"/>
+      <c r="AO31" s="189"/>
+      <c r="AP31" s="189"/>
+      <c r="AQ31" s="189"/>
+      <c r="AR31" s="189"/>
+      <c r="AS31" s="189"/>
+      <c r="AT31" s="189"/>
+      <c r="AU31" s="189"/>
+      <c r="AV31" s="189"/>
       <c r="AW31" s="6" t="s">
         <v>14</v>
       </c>
@@ -6183,7 +6195,7 @@
       <c r="AB32" s="103"/>
       <c r="AC32" s="103"/>
       <c r="AD32" s="103"/>
-      <c r="AE32" s="169" t="s">
+      <c r="AE32" s="176" t="s">
         <v>21</v>
       </c>
       <c r="AF32" s="103"/>
@@ -6311,93 +6323,93 @@
       <c r="AT34" s="101"/>
       <c r="AU34" s="101"/>
       <c r="AV34" s="101"/>
-      <c r="AW34" s="113"/>
+      <c r="AW34" s="115"/>
     </row>
     <row r="35" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="160" t="s">
+      <c r="B35" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="162" t="s">
+      <c r="C35" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="164" t="s">
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="165"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="144"/>
-      <c r="P35" s="146" t="s">
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="172"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="144"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="163"/>
-      <c r="U35" s="163"/>
-      <c r="V35" s="145"/>
-      <c r="W35" s="145"/>
-      <c r="X35" s="145"/>
-      <c r="Y35" s="145" t="s">
+      <c r="Q35" s="170"/>
+      <c r="R35" s="147"/>
+      <c r="S35" s="149"/>
+      <c r="T35" s="170"/>
+      <c r="U35" s="170"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="148"/>
+      <c r="Y35" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="145"/>
-      <c r="AA35" s="145"/>
-      <c r="AB35" s="145"/>
-      <c r="AC35" s="145"/>
-      <c r="AD35" s="157"/>
-      <c r="AE35" s="158"/>
-      <c r="AF35" s="158"/>
-      <c r="AG35" s="158"/>
-      <c r="AH35" s="158"/>
-      <c r="AI35" s="158"/>
-      <c r="AJ35" s="158"/>
-      <c r="AK35" s="158"/>
-      <c r="AL35" s="158"/>
-      <c r="AM35" s="158"/>
-      <c r="AN35" s="158"/>
-      <c r="AO35" s="158"/>
-      <c r="AP35" s="158"/>
-      <c r="AQ35" s="158"/>
-      <c r="AR35" s="158"/>
-      <c r="AS35" s="158"/>
-      <c r="AT35" s="158"/>
-      <c r="AU35" s="158"/>
-      <c r="AV35" s="158"/>
-      <c r="AW35" s="159"/>
+      <c r="Z35" s="148"/>
+      <c r="AA35" s="148"/>
+      <c r="AB35" s="148"/>
+      <c r="AC35" s="148"/>
+      <c r="AD35" s="160"/>
+      <c r="AE35" s="161"/>
+      <c r="AF35" s="161"/>
+      <c r="AG35" s="161"/>
+      <c r="AH35" s="161"/>
+      <c r="AI35" s="161"/>
+      <c r="AJ35" s="161"/>
+      <c r="AK35" s="161"/>
+      <c r="AL35" s="161"/>
+      <c r="AM35" s="161"/>
+      <c r="AN35" s="161"/>
+      <c r="AO35" s="161"/>
+      <c r="AP35" s="161"/>
+      <c r="AQ35" s="161"/>
+      <c r="AR35" s="161"/>
+      <c r="AS35" s="161"/>
+      <c r="AT35" s="161"/>
+      <c r="AU35" s="161"/>
+      <c r="AV35" s="161"/>
+      <c r="AW35" s="162"/>
     </row>
     <row r="36" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="105"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="148" t="s">
+      <c r="C36" s="157"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="158"/>
+      <c r="N36" s="158"/>
       <c r="O36" s="105"/>
       <c r="P36" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="155"/>
+      <c r="Q36" s="158"/>
       <c r="R36" s="105"/>
       <c r="S36" s="107"/>
-      <c r="T36" s="155"/>
-      <c r="U36" s="155"/>
+      <c r="T36" s="158"/>
+      <c r="U36" s="158"/>
       <c r="V36" s="106"/>
       <c r="W36" s="106"/>
       <c r="X36" s="106"/>
@@ -6408,52 +6420,52 @@
       <c r="AA36" s="106"/>
       <c r="AB36" s="106"/>
       <c r="AC36" s="106"/>
-      <c r="AD36" s="147"/>
-      <c r="AE36" s="109"/>
-      <c r="AF36" s="109"/>
-      <c r="AG36" s="109"/>
-      <c r="AH36" s="109"/>
-      <c r="AI36" s="109"/>
-      <c r="AJ36" s="109"/>
-      <c r="AK36" s="109"/>
-      <c r="AL36" s="109"/>
-      <c r="AM36" s="109"/>
-      <c r="AN36" s="109"/>
-      <c r="AO36" s="109"/>
-      <c r="AP36" s="109"/>
-      <c r="AQ36" s="109"/>
-      <c r="AR36" s="109"/>
-      <c r="AS36" s="109"/>
-      <c r="AT36" s="109"/>
-      <c r="AU36" s="109"/>
-      <c r="AV36" s="109"/>
-      <c r="AW36" s="110"/>
+      <c r="AD36" s="150"/>
+      <c r="AE36" s="163"/>
+      <c r="AF36" s="163"/>
+      <c r="AG36" s="163"/>
+      <c r="AH36" s="163"/>
+      <c r="AI36" s="163"/>
+      <c r="AJ36" s="163"/>
+      <c r="AK36" s="163"/>
+      <c r="AL36" s="163"/>
+      <c r="AM36" s="163"/>
+      <c r="AN36" s="163"/>
+      <c r="AO36" s="163"/>
+      <c r="AP36" s="163"/>
+      <c r="AQ36" s="163"/>
+      <c r="AR36" s="163"/>
+      <c r="AS36" s="163"/>
+      <c r="AT36" s="163"/>
+      <c r="AU36" s="163"/>
+      <c r="AV36" s="163"/>
+      <c r="AW36" s="164"/>
     </row>
     <row r="37" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="105"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="148" t="s">
+      <c r="C37" s="157"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
       <c r="O37" s="105"/>
       <c r="P37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="155"/>
+      <c r="Q37" s="158"/>
       <c r="R37" s="105"/>
       <c r="S37" s="107"/>
-      <c r="T37" s="155"/>
-      <c r="U37" s="155"/>
+      <c r="T37" s="158"/>
+      <c r="U37" s="158"/>
       <c r="V37" s="106"/>
       <c r="W37" s="106"/>
       <c r="X37" s="106"/>
@@ -6464,52 +6476,52 @@
       <c r="AA37" s="106"/>
       <c r="AB37" s="106"/>
       <c r="AC37" s="106"/>
-      <c r="AD37" s="147"/>
-      <c r="AE37" s="109"/>
-      <c r="AF37" s="109"/>
-      <c r="AG37" s="109"/>
-      <c r="AH37" s="109"/>
-      <c r="AI37" s="109"/>
-      <c r="AJ37" s="109"/>
-      <c r="AK37" s="109"/>
-      <c r="AL37" s="109"/>
-      <c r="AM37" s="109"/>
-      <c r="AN37" s="109"/>
-      <c r="AO37" s="109"/>
-      <c r="AP37" s="109"/>
-      <c r="AQ37" s="109"/>
-      <c r="AR37" s="109"/>
-      <c r="AS37" s="109"/>
-      <c r="AT37" s="109"/>
-      <c r="AU37" s="109"/>
-      <c r="AV37" s="109"/>
-      <c r="AW37" s="110"/>
+      <c r="AD37" s="150"/>
+      <c r="AE37" s="163"/>
+      <c r="AF37" s="163"/>
+      <c r="AG37" s="163"/>
+      <c r="AH37" s="163"/>
+      <c r="AI37" s="163"/>
+      <c r="AJ37" s="163"/>
+      <c r="AK37" s="163"/>
+      <c r="AL37" s="163"/>
+      <c r="AM37" s="163"/>
+      <c r="AN37" s="163"/>
+      <c r="AO37" s="163"/>
+      <c r="AP37" s="163"/>
+      <c r="AQ37" s="163"/>
+      <c r="AR37" s="163"/>
+      <c r="AS37" s="163"/>
+      <c r="AT37" s="163"/>
+      <c r="AU37" s="163"/>
+      <c r="AV37" s="163"/>
+      <c r="AW37" s="164"/>
     </row>
     <row r="38" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="105"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="148" t="s">
+      <c r="C38" s="157"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="158"/>
+      <c r="N38" s="158"/>
       <c r="O38" s="105"/>
       <c r="P38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="155"/>
+      <c r="Q38" s="158"/>
       <c r="R38" s="105"/>
       <c r="S38" s="107"/>
-      <c r="T38" s="155"/>
-      <c r="U38" s="155"/>
+      <c r="T38" s="158"/>
+      <c r="U38" s="158"/>
       <c r="V38" s="106"/>
       <c r="W38" s="106"/>
       <c r="X38" s="106"/>
@@ -6520,52 +6532,52 @@
       <c r="AA38" s="106"/>
       <c r="AB38" s="106"/>
       <c r="AC38" s="106"/>
-      <c r="AD38" s="147"/>
-      <c r="AE38" s="109"/>
-      <c r="AF38" s="109"/>
-      <c r="AG38" s="109"/>
-      <c r="AH38" s="109"/>
-      <c r="AI38" s="109"/>
-      <c r="AJ38" s="109"/>
-      <c r="AK38" s="109"/>
-      <c r="AL38" s="109"/>
-      <c r="AM38" s="109"/>
-      <c r="AN38" s="109"/>
-      <c r="AO38" s="109"/>
-      <c r="AP38" s="109"/>
-      <c r="AQ38" s="109"/>
-      <c r="AR38" s="109"/>
-      <c r="AS38" s="109"/>
-      <c r="AT38" s="109"/>
-      <c r="AU38" s="109"/>
-      <c r="AV38" s="109"/>
-      <c r="AW38" s="110"/>
+      <c r="AD38" s="150"/>
+      <c r="AE38" s="163"/>
+      <c r="AF38" s="163"/>
+      <c r="AG38" s="163"/>
+      <c r="AH38" s="163"/>
+      <c r="AI38" s="163"/>
+      <c r="AJ38" s="163"/>
+      <c r="AK38" s="163"/>
+      <c r="AL38" s="163"/>
+      <c r="AM38" s="163"/>
+      <c r="AN38" s="163"/>
+      <c r="AO38" s="163"/>
+      <c r="AP38" s="163"/>
+      <c r="AQ38" s="163"/>
+      <c r="AR38" s="163"/>
+      <c r="AS38" s="163"/>
+      <c r="AT38" s="163"/>
+      <c r="AU38" s="163"/>
+      <c r="AV38" s="163"/>
+      <c r="AW38" s="164"/>
     </row>
     <row r="39" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="105"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="148" t="s">
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="158"/>
+      <c r="N39" s="158"/>
       <c r="O39" s="105"/>
       <c r="P39" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q39" s="155"/>
+      <c r="Q39" s="158"/>
       <c r="R39" s="105"/>
       <c r="S39" s="107"/>
-      <c r="T39" s="155"/>
-      <c r="U39" s="155"/>
+      <c r="T39" s="158"/>
+      <c r="U39" s="158"/>
       <c r="V39" s="106"/>
       <c r="W39" s="106"/>
       <c r="X39" s="106"/>
@@ -6574,52 +6586,52 @@
       <c r="AA39" s="106"/>
       <c r="AB39" s="106"/>
       <c r="AC39" s="106"/>
-      <c r="AD39" s="147"/>
-      <c r="AE39" s="109"/>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="109"/>
-      <c r="AH39" s="109"/>
-      <c r="AI39" s="109"/>
-      <c r="AJ39" s="109"/>
-      <c r="AK39" s="109"/>
-      <c r="AL39" s="109"/>
-      <c r="AM39" s="109"/>
-      <c r="AN39" s="109"/>
-      <c r="AO39" s="109"/>
-      <c r="AP39" s="109"/>
-      <c r="AQ39" s="109"/>
-      <c r="AR39" s="109"/>
-      <c r="AS39" s="109"/>
-      <c r="AT39" s="109"/>
-      <c r="AU39" s="109"/>
-      <c r="AV39" s="109"/>
-      <c r="AW39" s="110"/>
+      <c r="AD39" s="150"/>
+      <c r="AE39" s="163"/>
+      <c r="AF39" s="163"/>
+      <c r="AG39" s="163"/>
+      <c r="AH39" s="163"/>
+      <c r="AI39" s="163"/>
+      <c r="AJ39" s="163"/>
+      <c r="AK39" s="163"/>
+      <c r="AL39" s="163"/>
+      <c r="AM39" s="163"/>
+      <c r="AN39" s="163"/>
+      <c r="AO39" s="163"/>
+      <c r="AP39" s="163"/>
+      <c r="AQ39" s="163"/>
+      <c r="AR39" s="163"/>
+      <c r="AS39" s="163"/>
+      <c r="AT39" s="163"/>
+      <c r="AU39" s="163"/>
+      <c r="AV39" s="163"/>
+      <c r="AW39" s="164"/>
     </row>
     <row r="40" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="105"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="148" t="s">
+      <c r="C40" s="157"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="155"/>
-      <c r="N40" s="155"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="158"/>
       <c r="O40" s="105"/>
       <c r="P40" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="155"/>
+      <c r="Q40" s="158"/>
       <c r="R40" s="105"/>
       <c r="S40" s="107"/>
-      <c r="T40" s="155"/>
-      <c r="U40" s="155"/>
+      <c r="T40" s="158"/>
+      <c r="U40" s="158"/>
       <c r="V40" s="106"/>
       <c r="W40" s="106"/>
       <c r="X40" s="106"/>
@@ -6630,54 +6642,54 @@
       <c r="AA40" s="106"/>
       <c r="AB40" s="106"/>
       <c r="AC40" s="106"/>
-      <c r="AD40" s="147"/>
-      <c r="AE40" s="109"/>
-      <c r="AF40" s="109"/>
-      <c r="AG40" s="109"/>
-      <c r="AH40" s="109"/>
-      <c r="AI40" s="109"/>
-      <c r="AJ40" s="109"/>
-      <c r="AK40" s="109"/>
-      <c r="AL40" s="109"/>
-      <c r="AM40" s="109"/>
-      <c r="AN40" s="109"/>
-      <c r="AO40" s="109"/>
-      <c r="AP40" s="109"/>
-      <c r="AQ40" s="109"/>
-      <c r="AR40" s="109"/>
-      <c r="AS40" s="109"/>
-      <c r="AT40" s="109"/>
-      <c r="AU40" s="109"/>
-      <c r="AV40" s="109"/>
-      <c r="AW40" s="110"/>
+      <c r="AD40" s="150"/>
+      <c r="AE40" s="163"/>
+      <c r="AF40" s="163"/>
+      <c r="AG40" s="163"/>
+      <c r="AH40" s="163"/>
+      <c r="AI40" s="163"/>
+      <c r="AJ40" s="163"/>
+      <c r="AK40" s="163"/>
+      <c r="AL40" s="163"/>
+      <c r="AM40" s="163"/>
+      <c r="AN40" s="163"/>
+      <c r="AO40" s="163"/>
+      <c r="AP40" s="163"/>
+      <c r="AQ40" s="163"/>
+      <c r="AR40" s="163"/>
+      <c r="AS40" s="163"/>
+      <c r="AT40" s="163"/>
+      <c r="AU40" s="163"/>
+      <c r="AV40" s="163"/>
+      <c r="AW40" s="164"/>
     </row>
     <row r="41" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="105"/>
-      <c r="C41" s="154" t="s">
+      <c r="C41" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="148" t="s">
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="139"/>
+      <c r="M41" s="158"/>
+      <c r="N41" s="158"/>
       <c r="O41" s="105"/>
       <c r="P41" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q41" s="155"/>
+      <c r="Q41" s="158"/>
       <c r="R41" s="105"/>
       <c r="S41" s="107"/>
-      <c r="T41" s="155"/>
-      <c r="U41" s="155"/>
+      <c r="T41" s="158"/>
+      <c r="U41" s="158"/>
       <c r="V41" s="106"/>
       <c r="W41" s="106"/>
       <c r="X41" s="106"/>
@@ -6688,52 +6700,52 @@
       <c r="AA41" s="106"/>
       <c r="AB41" s="106"/>
       <c r="AC41" s="106"/>
-      <c r="AD41" s="147"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="109"/>
-      <c r="AG41" s="109"/>
-      <c r="AH41" s="109"/>
-      <c r="AI41" s="109"/>
-      <c r="AJ41" s="109"/>
-      <c r="AK41" s="109"/>
-      <c r="AL41" s="109"/>
-      <c r="AM41" s="109"/>
-      <c r="AN41" s="109"/>
-      <c r="AO41" s="109"/>
-      <c r="AP41" s="109"/>
-      <c r="AQ41" s="109"/>
-      <c r="AR41" s="109"/>
-      <c r="AS41" s="109"/>
-      <c r="AT41" s="109"/>
-      <c r="AU41" s="109"/>
-      <c r="AV41" s="109"/>
-      <c r="AW41" s="110"/>
+      <c r="AD41" s="150"/>
+      <c r="AE41" s="163"/>
+      <c r="AF41" s="163"/>
+      <c r="AG41" s="163"/>
+      <c r="AH41" s="163"/>
+      <c r="AI41" s="163"/>
+      <c r="AJ41" s="163"/>
+      <c r="AK41" s="163"/>
+      <c r="AL41" s="163"/>
+      <c r="AM41" s="163"/>
+      <c r="AN41" s="163"/>
+      <c r="AO41" s="163"/>
+      <c r="AP41" s="163"/>
+      <c r="AQ41" s="163"/>
+      <c r="AR41" s="163"/>
+      <c r="AS41" s="163"/>
+      <c r="AT41" s="163"/>
+      <c r="AU41" s="163"/>
+      <c r="AV41" s="163"/>
+      <c r="AW41" s="164"/>
     </row>
     <row r="42" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="105"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="148" t="s">
+      <c r="C42" s="157"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
       <c r="O42" s="105"/>
       <c r="P42" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q42" s="155"/>
+      <c r="Q42" s="158"/>
       <c r="R42" s="105"/>
       <c r="S42" s="107"/>
-      <c r="T42" s="155"/>
-      <c r="U42" s="155"/>
+      <c r="T42" s="158"/>
+      <c r="U42" s="158"/>
       <c r="V42" s="106"/>
       <c r="W42" s="106"/>
       <c r="X42" s="106"/>
@@ -6744,54 +6756,54 @@
       <c r="AA42" s="106"/>
       <c r="AB42" s="106"/>
       <c r="AC42" s="106"/>
-      <c r="AD42" s="147"/>
-      <c r="AE42" s="109"/>
-      <c r="AF42" s="109"/>
-      <c r="AG42" s="109"/>
-      <c r="AH42" s="109"/>
-      <c r="AI42" s="109"/>
-      <c r="AJ42" s="109"/>
-      <c r="AK42" s="109"/>
-      <c r="AL42" s="109"/>
-      <c r="AM42" s="109"/>
-      <c r="AN42" s="109"/>
-      <c r="AO42" s="109"/>
-      <c r="AP42" s="109"/>
-      <c r="AQ42" s="109"/>
-      <c r="AR42" s="109"/>
-      <c r="AS42" s="109"/>
-      <c r="AT42" s="109"/>
-      <c r="AU42" s="109"/>
-      <c r="AV42" s="109"/>
-      <c r="AW42" s="110"/>
+      <c r="AD42" s="150"/>
+      <c r="AE42" s="163"/>
+      <c r="AF42" s="163"/>
+      <c r="AG42" s="163"/>
+      <c r="AH42" s="163"/>
+      <c r="AI42" s="163"/>
+      <c r="AJ42" s="163"/>
+      <c r="AK42" s="163"/>
+      <c r="AL42" s="163"/>
+      <c r="AM42" s="163"/>
+      <c r="AN42" s="163"/>
+      <c r="AO42" s="163"/>
+      <c r="AP42" s="163"/>
+      <c r="AQ42" s="163"/>
+      <c r="AR42" s="163"/>
+      <c r="AS42" s="163"/>
+      <c r="AT42" s="163"/>
+      <c r="AU42" s="163"/>
+      <c r="AV42" s="163"/>
+      <c r="AW42" s="164"/>
     </row>
     <row r="43" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="105"/>
-      <c r="C43" s="154" t="s">
+      <c r="C43" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="155"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="166" t="s">
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="168"/>
-      <c r="M43" s="155"/>
-      <c r="N43" s="155"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="174"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="158"/>
+      <c r="N43" s="158"/>
       <c r="O43" s="105"/>
       <c r="P43" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q43" s="155"/>
+      <c r="Q43" s="158"/>
       <c r="R43" s="105"/>
       <c r="S43" s="107"/>
-      <c r="T43" s="155"/>
-      <c r="U43" s="155"/>
+      <c r="T43" s="158"/>
+      <c r="U43" s="158"/>
       <c r="V43" s="106"/>
       <c r="W43" s="106"/>
       <c r="X43" s="106"/>
@@ -6802,52 +6814,52 @@
       <c r="AA43" s="106"/>
       <c r="AB43" s="106"/>
       <c r="AC43" s="106"/>
-      <c r="AD43" s="147"/>
-      <c r="AE43" s="109"/>
-      <c r="AF43" s="109"/>
-      <c r="AG43" s="109"/>
-      <c r="AH43" s="109"/>
-      <c r="AI43" s="109"/>
-      <c r="AJ43" s="109"/>
-      <c r="AK43" s="109"/>
-      <c r="AL43" s="109"/>
-      <c r="AM43" s="109"/>
-      <c r="AN43" s="109"/>
-      <c r="AO43" s="109"/>
-      <c r="AP43" s="109"/>
-      <c r="AQ43" s="109"/>
-      <c r="AR43" s="109"/>
-      <c r="AS43" s="109"/>
-      <c r="AT43" s="109"/>
-      <c r="AU43" s="109"/>
-      <c r="AV43" s="109"/>
-      <c r="AW43" s="110"/>
+      <c r="AD43" s="150"/>
+      <c r="AE43" s="163"/>
+      <c r="AF43" s="163"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="163"/>
+      <c r="AI43" s="163"/>
+      <c r="AJ43" s="163"/>
+      <c r="AK43" s="163"/>
+      <c r="AL43" s="163"/>
+      <c r="AM43" s="163"/>
+      <c r="AN43" s="163"/>
+      <c r="AO43" s="163"/>
+      <c r="AP43" s="163"/>
+      <c r="AQ43" s="163"/>
+      <c r="AR43" s="163"/>
+      <c r="AS43" s="163"/>
+      <c r="AT43" s="163"/>
+      <c r="AU43" s="163"/>
+      <c r="AV43" s="163"/>
+      <c r="AW43" s="164"/>
     </row>
     <row r="44" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="105"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="148" t="s">
+      <c r="C44" s="157"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="136"/>
-      <c r="M44" s="155"/>
-      <c r="N44" s="155"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="158"/>
+      <c r="N44" s="158"/>
       <c r="O44" s="105"/>
       <c r="P44" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q44" s="155"/>
+      <c r="Q44" s="158"/>
       <c r="R44" s="105"/>
       <c r="S44" s="107"/>
-      <c r="T44" s="155"/>
-      <c r="U44" s="155"/>
+      <c r="T44" s="158"/>
+      <c r="U44" s="158"/>
       <c r="V44" s="106"/>
       <c r="W44" s="106"/>
       <c r="X44" s="106"/>
@@ -6856,52 +6868,52 @@
       <c r="AA44" s="106"/>
       <c r="AB44" s="106"/>
       <c r="AC44" s="106"/>
-      <c r="AD44" s="147"/>
-      <c r="AE44" s="109"/>
-      <c r="AF44" s="109"/>
-      <c r="AG44" s="109"/>
-      <c r="AH44" s="109"/>
-      <c r="AI44" s="109"/>
-      <c r="AJ44" s="109"/>
-      <c r="AK44" s="109"/>
-      <c r="AL44" s="109"/>
-      <c r="AM44" s="109"/>
-      <c r="AN44" s="109"/>
-      <c r="AO44" s="109"/>
-      <c r="AP44" s="109"/>
-      <c r="AQ44" s="109"/>
-      <c r="AR44" s="109"/>
-      <c r="AS44" s="109"/>
-      <c r="AT44" s="109"/>
-      <c r="AU44" s="109"/>
-      <c r="AV44" s="109"/>
-      <c r="AW44" s="110"/>
+      <c r="AD44" s="150"/>
+      <c r="AE44" s="163"/>
+      <c r="AF44" s="163"/>
+      <c r="AG44" s="163"/>
+      <c r="AH44" s="163"/>
+      <c r="AI44" s="163"/>
+      <c r="AJ44" s="163"/>
+      <c r="AK44" s="163"/>
+      <c r="AL44" s="163"/>
+      <c r="AM44" s="163"/>
+      <c r="AN44" s="163"/>
+      <c r="AO44" s="163"/>
+      <c r="AP44" s="163"/>
+      <c r="AQ44" s="163"/>
+      <c r="AR44" s="163"/>
+      <c r="AS44" s="163"/>
+      <c r="AT44" s="163"/>
+      <c r="AU44" s="163"/>
+      <c r="AV44" s="163"/>
+      <c r="AW44" s="164"/>
     </row>
     <row r="45" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="105"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="148" t="s">
+      <c r="C45" s="157"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="155"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="158"/>
+      <c r="N45" s="158"/>
       <c r="O45" s="105"/>
       <c r="P45" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q45" s="155"/>
+      <c r="Q45" s="158"/>
       <c r="R45" s="105"/>
       <c r="S45" s="107"/>
-      <c r="T45" s="155"/>
-      <c r="U45" s="155"/>
+      <c r="T45" s="158"/>
+      <c r="U45" s="158"/>
       <c r="V45" s="106"/>
       <c r="W45" s="106"/>
       <c r="X45" s="106"/>
@@ -6910,54 +6922,54 @@
       <c r="AA45" s="106"/>
       <c r="AB45" s="106"/>
       <c r="AC45" s="106"/>
-      <c r="AD45" s="147"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="109"/>
-      <c r="AG45" s="109"/>
-      <c r="AH45" s="109"/>
-      <c r="AI45" s="109"/>
-      <c r="AJ45" s="109"/>
-      <c r="AK45" s="109"/>
-      <c r="AL45" s="109"/>
-      <c r="AM45" s="109"/>
-      <c r="AN45" s="109"/>
-      <c r="AO45" s="109"/>
-      <c r="AP45" s="109"/>
-      <c r="AQ45" s="109"/>
-      <c r="AR45" s="109"/>
-      <c r="AS45" s="109"/>
-      <c r="AT45" s="109"/>
-      <c r="AU45" s="109"/>
-      <c r="AV45" s="109"/>
-      <c r="AW45" s="110"/>
+      <c r="AD45" s="150"/>
+      <c r="AE45" s="163"/>
+      <c r="AF45" s="163"/>
+      <c r="AG45" s="163"/>
+      <c r="AH45" s="163"/>
+      <c r="AI45" s="163"/>
+      <c r="AJ45" s="163"/>
+      <c r="AK45" s="163"/>
+      <c r="AL45" s="163"/>
+      <c r="AM45" s="163"/>
+      <c r="AN45" s="163"/>
+      <c r="AO45" s="163"/>
+      <c r="AP45" s="163"/>
+      <c r="AQ45" s="163"/>
+      <c r="AR45" s="163"/>
+      <c r="AS45" s="163"/>
+      <c r="AT45" s="163"/>
+      <c r="AU45" s="163"/>
+      <c r="AV45" s="163"/>
+      <c r="AW45" s="164"/>
     </row>
     <row r="46" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="105"/>
-      <c r="C46" s="154" t="s">
+      <c r="C46" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="148" t="s">
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="155"/>
-      <c r="N46" s="155"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="158"/>
+      <c r="N46" s="158"/>
       <c r="O46" s="105"/>
       <c r="P46" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q46" s="155"/>
+      <c r="Q46" s="158"/>
       <c r="R46" s="105"/>
       <c r="S46" s="107"/>
-      <c r="T46" s="155"/>
-      <c r="U46" s="155"/>
+      <c r="T46" s="158"/>
+      <c r="U46" s="158"/>
       <c r="V46" s="106"/>
       <c r="W46" s="106"/>
       <c r="X46" s="106"/>
@@ -6968,50 +6980,50 @@
       <c r="AA46" s="106"/>
       <c r="AB46" s="106"/>
       <c r="AC46" s="106"/>
-      <c r="AD46" s="147"/>
-      <c r="AE46" s="109"/>
-      <c r="AF46" s="109"/>
-      <c r="AG46" s="109"/>
-      <c r="AH46" s="109"/>
-      <c r="AI46" s="109"/>
-      <c r="AJ46" s="109"/>
-      <c r="AK46" s="109"/>
-      <c r="AL46" s="109"/>
-      <c r="AM46" s="109"/>
-      <c r="AN46" s="109"/>
-      <c r="AO46" s="109"/>
-      <c r="AP46" s="109"/>
-      <c r="AQ46" s="109"/>
-      <c r="AR46" s="109"/>
-      <c r="AS46" s="109"/>
-      <c r="AT46" s="109"/>
-      <c r="AU46" s="109"/>
-      <c r="AV46" s="109"/>
-      <c r="AW46" s="110"/>
+      <c r="AD46" s="150"/>
+      <c r="AE46" s="163"/>
+      <c r="AF46" s="163"/>
+      <c r="AG46" s="163"/>
+      <c r="AH46" s="163"/>
+      <c r="AI46" s="163"/>
+      <c r="AJ46" s="163"/>
+      <c r="AK46" s="163"/>
+      <c r="AL46" s="163"/>
+      <c r="AM46" s="163"/>
+      <c r="AN46" s="163"/>
+      <c r="AO46" s="163"/>
+      <c r="AP46" s="163"/>
+      <c r="AQ46" s="163"/>
+      <c r="AR46" s="163"/>
+      <c r="AS46" s="163"/>
+      <c r="AT46" s="163"/>
+      <c r="AU46" s="163"/>
+      <c r="AV46" s="163"/>
+      <c r="AW46" s="164"/>
     </row>
     <row r="47" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="105"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="148" t="s">
+      <c r="C47" s="157"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="136"/>
-      <c r="M47" s="155"/>
-      <c r="N47" s="155"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="158"/>
+      <c r="N47" s="158"/>
       <c r="O47" s="105"/>
       <c r="P47" s="107"/>
-      <c r="Q47" s="155"/>
+      <c r="Q47" s="158"/>
       <c r="R47" s="105"/>
       <c r="S47" s="107"/>
-      <c r="T47" s="155"/>
-      <c r="U47" s="155"/>
+      <c r="T47" s="158"/>
+      <c r="U47" s="158"/>
       <c r="V47" s="106"/>
       <c r="W47" s="106"/>
       <c r="X47" s="106"/>
@@ -7020,50 +7032,50 @@
       <c r="AA47" s="106"/>
       <c r="AB47" s="106"/>
       <c r="AC47" s="106"/>
-      <c r="AD47" s="147"/>
-      <c r="AE47" s="109"/>
-      <c r="AF47" s="109"/>
-      <c r="AG47" s="109"/>
-      <c r="AH47" s="109"/>
-      <c r="AI47" s="109"/>
-      <c r="AJ47" s="109"/>
-      <c r="AK47" s="109"/>
-      <c r="AL47" s="109"/>
-      <c r="AM47" s="109"/>
-      <c r="AN47" s="109"/>
-      <c r="AO47" s="109"/>
-      <c r="AP47" s="109"/>
-      <c r="AQ47" s="109"/>
-      <c r="AR47" s="109"/>
-      <c r="AS47" s="109"/>
-      <c r="AT47" s="109"/>
-      <c r="AU47" s="109"/>
-      <c r="AV47" s="109"/>
-      <c r="AW47" s="110"/>
+      <c r="AD47" s="150"/>
+      <c r="AE47" s="163"/>
+      <c r="AF47" s="163"/>
+      <c r="AG47" s="163"/>
+      <c r="AH47" s="163"/>
+      <c r="AI47" s="163"/>
+      <c r="AJ47" s="163"/>
+      <c r="AK47" s="163"/>
+      <c r="AL47" s="163"/>
+      <c r="AM47" s="163"/>
+      <c r="AN47" s="163"/>
+      <c r="AO47" s="163"/>
+      <c r="AP47" s="163"/>
+      <c r="AQ47" s="163"/>
+      <c r="AR47" s="163"/>
+      <c r="AS47" s="163"/>
+      <c r="AT47" s="163"/>
+      <c r="AU47" s="163"/>
+      <c r="AV47" s="163"/>
+      <c r="AW47" s="164"/>
     </row>
     <row r="48" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="105"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="148" t="s">
+      <c r="C48" s="157"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="148"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="155"/>
-      <c r="N48" s="155"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="158"/>
+      <c r="N48" s="158"/>
       <c r="O48" s="105"/>
       <c r="P48" s="107"/>
-      <c r="Q48" s="155"/>
+      <c r="Q48" s="158"/>
       <c r="R48" s="105"/>
       <c r="S48" s="107"/>
-      <c r="T48" s="155"/>
-      <c r="U48" s="155"/>
+      <c r="T48" s="158"/>
+      <c r="U48" s="158"/>
       <c r="V48" s="106"/>
       <c r="W48" s="106"/>
       <c r="X48" s="106"/>
@@ -7072,114 +7084,114 @@
       <c r="AA48" s="106"/>
       <c r="AB48" s="106"/>
       <c r="AC48" s="106"/>
-      <c r="AD48" s="147"/>
-      <c r="AE48" s="109"/>
-      <c r="AF48" s="109"/>
-      <c r="AG48" s="109"/>
-      <c r="AH48" s="109"/>
-      <c r="AI48" s="109"/>
-      <c r="AJ48" s="109"/>
-      <c r="AK48" s="109"/>
-      <c r="AL48" s="109"/>
-      <c r="AM48" s="109"/>
-      <c r="AN48" s="109"/>
-      <c r="AO48" s="109"/>
-      <c r="AP48" s="109"/>
-      <c r="AQ48" s="109"/>
-      <c r="AR48" s="109"/>
-      <c r="AS48" s="109"/>
-      <c r="AT48" s="109"/>
-      <c r="AU48" s="109"/>
-      <c r="AV48" s="109"/>
-      <c r="AW48" s="110"/>
+      <c r="AD48" s="150"/>
+      <c r="AE48" s="163"/>
+      <c r="AF48" s="163"/>
+      <c r="AG48" s="163"/>
+      <c r="AH48" s="163"/>
+      <c r="AI48" s="163"/>
+      <c r="AJ48" s="163"/>
+      <c r="AK48" s="163"/>
+      <c r="AL48" s="163"/>
+      <c r="AM48" s="163"/>
+      <c r="AN48" s="163"/>
+      <c r="AO48" s="163"/>
+      <c r="AP48" s="163"/>
+      <c r="AQ48" s="163"/>
+      <c r="AR48" s="163"/>
+      <c r="AS48" s="163"/>
+      <c r="AT48" s="163"/>
+      <c r="AU48" s="163"/>
+      <c r="AV48" s="163"/>
+      <c r="AW48" s="164"/>
     </row>
     <row r="49" spans="2:49" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="105"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="149" t="s">
+      <c r="C49" s="159"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="153" t="s">
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="Q49" s="151"/>
-      <c r="R49" s="152"/>
-      <c r="S49" s="153"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151"/>
-      <c r="V49" s="138"/>
-      <c r="W49" s="138"/>
-      <c r="X49" s="138"/>
-      <c r="Y49" s="138" t="s">
+      <c r="Q49" s="154"/>
+      <c r="R49" s="155"/>
+      <c r="S49" s="156"/>
+      <c r="T49" s="154"/>
+      <c r="U49" s="154"/>
+      <c r="V49" s="141"/>
+      <c r="W49" s="141"/>
+      <c r="X49" s="141"/>
+      <c r="Y49" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="Z49" s="138"/>
-      <c r="AA49" s="138"/>
-      <c r="AB49" s="138"/>
-      <c r="AC49" s="138"/>
-      <c r="AD49" s="139"/>
-      <c r="AE49" s="109"/>
-      <c r="AF49" s="109"/>
-      <c r="AG49" s="109"/>
-      <c r="AH49" s="109"/>
-      <c r="AI49" s="109"/>
-      <c r="AJ49" s="109"/>
-      <c r="AK49" s="109"/>
-      <c r="AL49" s="109"/>
-      <c r="AM49" s="109"/>
-      <c r="AN49" s="109"/>
-      <c r="AO49" s="109"/>
-      <c r="AP49" s="109"/>
-      <c r="AQ49" s="109"/>
-      <c r="AR49" s="109"/>
-      <c r="AS49" s="109"/>
-      <c r="AT49" s="109"/>
-      <c r="AU49" s="109"/>
-      <c r="AV49" s="109"/>
-      <c r="AW49" s="110"/>
+      <c r="Z49" s="141"/>
+      <c r="AA49" s="141"/>
+      <c r="AB49" s="141"/>
+      <c r="AC49" s="141"/>
+      <c r="AD49" s="142"/>
+      <c r="AE49" s="163"/>
+      <c r="AF49" s="163"/>
+      <c r="AG49" s="163"/>
+      <c r="AH49" s="163"/>
+      <c r="AI49" s="163"/>
+      <c r="AJ49" s="163"/>
+      <c r="AK49" s="163"/>
+      <c r="AL49" s="163"/>
+      <c r="AM49" s="163"/>
+      <c r="AN49" s="163"/>
+      <c r="AO49" s="163"/>
+      <c r="AP49" s="163"/>
+      <c r="AQ49" s="163"/>
+      <c r="AR49" s="163"/>
+      <c r="AS49" s="163"/>
+      <c r="AT49" s="163"/>
+      <c r="AU49" s="163"/>
+      <c r="AV49" s="163"/>
+      <c r="AW49" s="164"/>
     </row>
     <row r="50" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="161"/>
-      <c r="C50" s="140" t="s">
+      <c r="B50" s="168"/>
+      <c r="C50" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142"/>
-      <c r="L50" s="143"/>
-      <c r="M50" s="144">
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="146"/>
+      <c r="M50" s="147">
         <f>SUM(M35:O49)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="145"/>
-      <c r="O50" s="145"/>
-      <c r="P50" s="145" t="s">
+      <c r="N50" s="148"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="Q50" s="145"/>
-      <c r="R50" s="145"/>
-      <c r="S50" s="145">
+      <c r="Q50" s="148"/>
+      <c r="R50" s="148"/>
+      <c r="S50" s="148">
         <f>SUM(S35:U49)</f>
         <v>0</v>
       </c>
-      <c r="T50" s="145"/>
-      <c r="U50" s="146"/>
+      <c r="T50" s="148"/>
+      <c r="U50" s="149"/>
       <c r="V50" s="101">
         <f>SUM(V35:X49)</f>
         <v>0</v>
@@ -7196,36 +7208,36 @@
         <v>0</v>
       </c>
       <c r="AC50" s="101"/>
-      <c r="AD50" s="113"/>
-      <c r="AE50" s="109"/>
-      <c r="AF50" s="109"/>
-      <c r="AG50" s="109"/>
-      <c r="AH50" s="109"/>
-      <c r="AI50" s="109"/>
-      <c r="AJ50" s="109"/>
-      <c r="AK50" s="109"/>
-      <c r="AL50" s="109"/>
-      <c r="AM50" s="109"/>
-      <c r="AN50" s="109"/>
-      <c r="AO50" s="109"/>
-      <c r="AP50" s="109"/>
-      <c r="AQ50" s="109"/>
-      <c r="AR50" s="109"/>
-      <c r="AS50" s="109"/>
-      <c r="AT50" s="109"/>
-      <c r="AU50" s="109"/>
-      <c r="AV50" s="109"/>
-      <c r="AW50" s="110"/>
+      <c r="AD50" s="115"/>
+      <c r="AE50" s="163"/>
+      <c r="AF50" s="163"/>
+      <c r="AG50" s="163"/>
+      <c r="AH50" s="163"/>
+      <c r="AI50" s="163"/>
+      <c r="AJ50" s="163"/>
+      <c r="AK50" s="163"/>
+      <c r="AL50" s="163"/>
+      <c r="AM50" s="163"/>
+      <c r="AN50" s="163"/>
+      <c r="AO50" s="163"/>
+      <c r="AP50" s="163"/>
+      <c r="AQ50" s="163"/>
+      <c r="AR50" s="163"/>
+      <c r="AS50" s="163"/>
+      <c r="AT50" s="163"/>
+      <c r="AU50" s="163"/>
+      <c r="AV50" s="163"/>
+      <c r="AW50" s="164"/>
     </row>
     <row r="51" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="127" t="s">
+      <c r="B51" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="130" t="s">
+      <c r="C51" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="131"/>
-      <c r="E51" s="132"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="104" t="s">
         <v>49</v>
       </c>
@@ -7246,40 +7258,40 @@
       <c r="S51" s="106"/>
       <c r="T51" s="106"/>
       <c r="U51" s="107"/>
-      <c r="V51" s="115"/>
-      <c r="W51" s="115"/>
-      <c r="X51" s="115"/>
-      <c r="Y51" s="115"/>
-      <c r="Z51" s="115"/>
-      <c r="AA51" s="115"/>
-      <c r="AB51" s="115"/>
-      <c r="AC51" s="115"/>
-      <c r="AD51" s="116"/>
-      <c r="AE51" s="109"/>
-      <c r="AF51" s="109"/>
-      <c r="AG51" s="109"/>
-      <c r="AH51" s="109"/>
-      <c r="AI51" s="109"/>
-      <c r="AJ51" s="109"/>
-      <c r="AK51" s="109"/>
-      <c r="AL51" s="109"/>
-      <c r="AM51" s="109"/>
-      <c r="AN51" s="109"/>
-      <c r="AO51" s="109"/>
-      <c r="AP51" s="109"/>
-      <c r="AQ51" s="109"/>
-      <c r="AR51" s="109"/>
-      <c r="AS51" s="109"/>
-      <c r="AT51" s="109"/>
-      <c r="AU51" s="109"/>
-      <c r="AV51" s="109"/>
-      <c r="AW51" s="110"/>
+      <c r="V51" s="118"/>
+      <c r="W51" s="118"/>
+      <c r="X51" s="118"/>
+      <c r="Y51" s="118"/>
+      <c r="Z51" s="118"/>
+      <c r="AA51" s="118"/>
+      <c r="AB51" s="118"/>
+      <c r="AC51" s="118"/>
+      <c r="AD51" s="119"/>
+      <c r="AE51" s="163"/>
+      <c r="AF51" s="163"/>
+      <c r="AG51" s="163"/>
+      <c r="AH51" s="163"/>
+      <c r="AI51" s="163"/>
+      <c r="AJ51" s="163"/>
+      <c r="AK51" s="163"/>
+      <c r="AL51" s="163"/>
+      <c r="AM51" s="163"/>
+      <c r="AN51" s="163"/>
+      <c r="AO51" s="163"/>
+      <c r="AP51" s="163"/>
+      <c r="AQ51" s="163"/>
+      <c r="AR51" s="163"/>
+      <c r="AS51" s="163"/>
+      <c r="AT51" s="163"/>
+      <c r="AU51" s="163"/>
+      <c r="AV51" s="163"/>
+      <c r="AW51" s="164"/>
     </row>
     <row r="52" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="128"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="135"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="104" t="s">
         <v>50</v>
       </c>
@@ -7300,42 +7312,42 @@
       <c r="S52" s="106"/>
       <c r="T52" s="106"/>
       <c r="U52" s="107"/>
-      <c r="V52" s="117"/>
-      <c r="W52" s="117"/>
-      <c r="X52" s="117"/>
-      <c r="Y52" s="117"/>
-      <c r="Z52" s="117"/>
-      <c r="AA52" s="117"/>
-      <c r="AB52" s="117"/>
-      <c r="AC52" s="117"/>
-      <c r="AD52" s="118"/>
-      <c r="AE52" s="109"/>
-      <c r="AF52" s="109"/>
-      <c r="AG52" s="109"/>
-      <c r="AH52" s="109"/>
-      <c r="AI52" s="109"/>
-      <c r="AJ52" s="109"/>
-      <c r="AK52" s="109"/>
-      <c r="AL52" s="109"/>
-      <c r="AM52" s="109"/>
-      <c r="AN52" s="109"/>
-      <c r="AO52" s="109"/>
-      <c r="AP52" s="109"/>
-      <c r="AQ52" s="109"/>
-      <c r="AR52" s="109"/>
-      <c r="AS52" s="109"/>
-      <c r="AT52" s="109"/>
-      <c r="AU52" s="109"/>
-      <c r="AV52" s="109"/>
-      <c r="AW52" s="110"/>
+      <c r="V52" s="120"/>
+      <c r="W52" s="120"/>
+      <c r="X52" s="120"/>
+      <c r="Y52" s="120"/>
+      <c r="Z52" s="120"/>
+      <c r="AA52" s="120"/>
+      <c r="AB52" s="120"/>
+      <c r="AC52" s="120"/>
+      <c r="AD52" s="121"/>
+      <c r="AE52" s="163"/>
+      <c r="AF52" s="163"/>
+      <c r="AG52" s="163"/>
+      <c r="AH52" s="163"/>
+      <c r="AI52" s="163"/>
+      <c r="AJ52" s="163"/>
+      <c r="AK52" s="163"/>
+      <c r="AL52" s="163"/>
+      <c r="AM52" s="163"/>
+      <c r="AN52" s="163"/>
+      <c r="AO52" s="163"/>
+      <c r="AP52" s="163"/>
+      <c r="AQ52" s="163"/>
+      <c r="AR52" s="163"/>
+      <c r="AS52" s="163"/>
+      <c r="AT52" s="163"/>
+      <c r="AU52" s="163"/>
+      <c r="AV52" s="163"/>
+      <c r="AW52" s="164"/>
     </row>
     <row r="53" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="128"/>
-      <c r="C53" s="121" t="s">
+      <c r="B53" s="131"/>
+      <c r="C53" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="122"/>
-      <c r="E53" s="123"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="104" t="s">
         <v>52</v>
       </c>
@@ -7356,40 +7368,40 @@
       <c r="S53" s="106"/>
       <c r="T53" s="106"/>
       <c r="U53" s="107"/>
-      <c r="V53" s="117"/>
-      <c r="W53" s="117"/>
-      <c r="X53" s="117"/>
-      <c r="Y53" s="117"/>
-      <c r="Z53" s="117"/>
-      <c r="AA53" s="117"/>
-      <c r="AB53" s="117"/>
-      <c r="AC53" s="117"/>
-      <c r="AD53" s="118"/>
-      <c r="AE53" s="109"/>
-      <c r="AF53" s="109"/>
-      <c r="AG53" s="109"/>
-      <c r="AH53" s="109"/>
-      <c r="AI53" s="109"/>
-      <c r="AJ53" s="109"/>
-      <c r="AK53" s="109"/>
-      <c r="AL53" s="109"/>
-      <c r="AM53" s="109"/>
-      <c r="AN53" s="109"/>
-      <c r="AO53" s="109"/>
-      <c r="AP53" s="109"/>
-      <c r="AQ53" s="109"/>
-      <c r="AR53" s="109"/>
-      <c r="AS53" s="109"/>
-      <c r="AT53" s="109"/>
-      <c r="AU53" s="109"/>
-      <c r="AV53" s="109"/>
-      <c r="AW53" s="110"/>
+      <c r="V53" s="120"/>
+      <c r="W53" s="120"/>
+      <c r="X53" s="120"/>
+      <c r="Y53" s="120"/>
+      <c r="Z53" s="120"/>
+      <c r="AA53" s="120"/>
+      <c r="AB53" s="120"/>
+      <c r="AC53" s="120"/>
+      <c r="AD53" s="121"/>
+      <c r="AE53" s="163"/>
+      <c r="AF53" s="163"/>
+      <c r="AG53" s="163"/>
+      <c r="AH53" s="163"/>
+      <c r="AI53" s="163"/>
+      <c r="AJ53" s="163"/>
+      <c r="AK53" s="163"/>
+      <c r="AL53" s="163"/>
+      <c r="AM53" s="163"/>
+      <c r="AN53" s="163"/>
+      <c r="AO53" s="163"/>
+      <c r="AP53" s="163"/>
+      <c r="AQ53" s="163"/>
+      <c r="AR53" s="163"/>
+      <c r="AS53" s="163"/>
+      <c r="AT53" s="163"/>
+      <c r="AU53" s="163"/>
+      <c r="AV53" s="163"/>
+      <c r="AW53" s="164"/>
     </row>
     <row r="54" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="128"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="123"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="104" t="s">
         <v>53</v>
       </c>
@@ -7410,40 +7422,40 @@
       <c r="S54" s="106"/>
       <c r="T54" s="106"/>
       <c r="U54" s="107"/>
-      <c r="V54" s="117"/>
-      <c r="W54" s="117"/>
-      <c r="X54" s="117"/>
-      <c r="Y54" s="117"/>
-      <c r="Z54" s="117"/>
-      <c r="AA54" s="117"/>
-      <c r="AB54" s="117"/>
-      <c r="AC54" s="117"/>
-      <c r="AD54" s="118"/>
-      <c r="AE54" s="109"/>
-      <c r="AF54" s="109"/>
-      <c r="AG54" s="109"/>
-      <c r="AH54" s="109"/>
-      <c r="AI54" s="109"/>
-      <c r="AJ54" s="109"/>
-      <c r="AK54" s="109"/>
-      <c r="AL54" s="109"/>
-      <c r="AM54" s="109"/>
-      <c r="AN54" s="109"/>
-      <c r="AO54" s="109"/>
-      <c r="AP54" s="109"/>
-      <c r="AQ54" s="109"/>
-      <c r="AR54" s="109"/>
-      <c r="AS54" s="109"/>
-      <c r="AT54" s="109"/>
-      <c r="AU54" s="109"/>
-      <c r="AV54" s="109"/>
-      <c r="AW54" s="110"/>
+      <c r="V54" s="120"/>
+      <c r="W54" s="120"/>
+      <c r="X54" s="120"/>
+      <c r="Y54" s="120"/>
+      <c r="Z54" s="120"/>
+      <c r="AA54" s="120"/>
+      <c r="AB54" s="120"/>
+      <c r="AC54" s="120"/>
+      <c r="AD54" s="121"/>
+      <c r="AE54" s="163"/>
+      <c r="AF54" s="163"/>
+      <c r="AG54" s="163"/>
+      <c r="AH54" s="163"/>
+      <c r="AI54" s="163"/>
+      <c r="AJ54" s="163"/>
+      <c r="AK54" s="163"/>
+      <c r="AL54" s="163"/>
+      <c r="AM54" s="163"/>
+      <c r="AN54" s="163"/>
+      <c r="AO54" s="163"/>
+      <c r="AP54" s="163"/>
+      <c r="AQ54" s="163"/>
+      <c r="AR54" s="163"/>
+      <c r="AS54" s="163"/>
+      <c r="AT54" s="163"/>
+      <c r="AU54" s="163"/>
+      <c r="AV54" s="163"/>
+      <c r="AW54" s="164"/>
     </row>
     <row r="55" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="128"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="129"/>
       <c r="F55" s="104" t="s">
         <v>54</v>
       </c>
@@ -7464,49 +7476,49 @@
       <c r="S55" s="106"/>
       <c r="T55" s="106"/>
       <c r="U55" s="107"/>
-      <c r="V55" s="117"/>
-      <c r="W55" s="117"/>
-      <c r="X55" s="117"/>
-      <c r="Y55" s="117"/>
-      <c r="Z55" s="117"/>
-      <c r="AA55" s="117"/>
-      <c r="AB55" s="117"/>
-      <c r="AC55" s="117"/>
-      <c r="AD55" s="118"/>
-      <c r="AE55" s="109"/>
-      <c r="AF55" s="109"/>
-      <c r="AG55" s="109"/>
-      <c r="AH55" s="109"/>
-      <c r="AI55" s="109"/>
-      <c r="AJ55" s="109"/>
-      <c r="AK55" s="109"/>
-      <c r="AL55" s="109"/>
-      <c r="AM55" s="109"/>
-      <c r="AN55" s="109"/>
-      <c r="AO55" s="109"/>
-      <c r="AP55" s="109"/>
-      <c r="AQ55" s="109"/>
-      <c r="AR55" s="109"/>
-      <c r="AS55" s="109"/>
-      <c r="AT55" s="109"/>
-      <c r="AU55" s="109"/>
-      <c r="AV55" s="109"/>
-      <c r="AW55" s="110"/>
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="120"/>
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="120"/>
+      <c r="AA55" s="120"/>
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="121"/>
+      <c r="AE55" s="163"/>
+      <c r="AF55" s="163"/>
+      <c r="AG55" s="163"/>
+      <c r="AH55" s="163"/>
+      <c r="AI55" s="163"/>
+      <c r="AJ55" s="163"/>
+      <c r="AK55" s="163"/>
+      <c r="AL55" s="163"/>
+      <c r="AM55" s="163"/>
+      <c r="AN55" s="163"/>
+      <c r="AO55" s="163"/>
+      <c r="AP55" s="163"/>
+      <c r="AQ55" s="163"/>
+      <c r="AR55" s="163"/>
+      <c r="AS55" s="163"/>
+      <c r="AT55" s="163"/>
+      <c r="AU55" s="163"/>
+      <c r="AV55" s="163"/>
+      <c r="AW55" s="164"/>
     </row>
     <row r="56" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="129"/>
-      <c r="C56" s="136" t="s">
+      <c r="B56" s="132"/>
+      <c r="C56" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="137"/>
-      <c r="L56" s="137"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="140"/>
+      <c r="L56" s="140"/>
       <c r="M56" s="105">
         <f>SUM(M51:O55)</f>
         <v>0</v>
@@ -7524,34 +7536,34 @@
       </c>
       <c r="T56" s="106"/>
       <c r="U56" s="107"/>
-      <c r="V56" s="117"/>
-      <c r="W56" s="117"/>
-      <c r="X56" s="117"/>
-      <c r="Y56" s="117"/>
-      <c r="Z56" s="117"/>
-      <c r="AA56" s="117"/>
-      <c r="AB56" s="117"/>
-      <c r="AC56" s="117"/>
-      <c r="AD56" s="118"/>
-      <c r="AE56" s="109"/>
-      <c r="AF56" s="109"/>
-      <c r="AG56" s="109"/>
-      <c r="AH56" s="109"/>
-      <c r="AI56" s="109"/>
-      <c r="AJ56" s="109"/>
-      <c r="AK56" s="109"/>
-      <c r="AL56" s="109"/>
-      <c r="AM56" s="109"/>
-      <c r="AN56" s="109"/>
-      <c r="AO56" s="109"/>
-      <c r="AP56" s="109"/>
-      <c r="AQ56" s="109"/>
-      <c r="AR56" s="109"/>
-      <c r="AS56" s="109"/>
-      <c r="AT56" s="109"/>
-      <c r="AU56" s="109"/>
-      <c r="AV56" s="109"/>
-      <c r="AW56" s="110"/>
+      <c r="V56" s="120"/>
+      <c r="W56" s="120"/>
+      <c r="X56" s="120"/>
+      <c r="Y56" s="120"/>
+      <c r="Z56" s="120"/>
+      <c r="AA56" s="120"/>
+      <c r="AB56" s="120"/>
+      <c r="AC56" s="120"/>
+      <c r="AD56" s="121"/>
+      <c r="AE56" s="163"/>
+      <c r="AF56" s="163"/>
+      <c r="AG56" s="163"/>
+      <c r="AH56" s="163"/>
+      <c r="AI56" s="163"/>
+      <c r="AJ56" s="163"/>
+      <c r="AK56" s="163"/>
+      <c r="AL56" s="163"/>
+      <c r="AM56" s="163"/>
+      <c r="AN56" s="163"/>
+      <c r="AO56" s="163"/>
+      <c r="AP56" s="163"/>
+      <c r="AQ56" s="163"/>
+      <c r="AR56" s="163"/>
+      <c r="AS56" s="163"/>
+      <c r="AT56" s="163"/>
+      <c r="AU56" s="163"/>
+      <c r="AV56" s="163"/>
+      <c r="AW56" s="164"/>
     </row>
     <row r="57" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="105" t="s">
@@ -7584,34 +7596,34 @@
       </c>
       <c r="T57" s="106"/>
       <c r="U57" s="107"/>
-      <c r="V57" s="119"/>
-      <c r="W57" s="119"/>
-      <c r="X57" s="119"/>
-      <c r="Y57" s="119"/>
-      <c r="Z57" s="119"/>
-      <c r="AA57" s="119"/>
-      <c r="AB57" s="119"/>
-      <c r="AC57" s="119"/>
-      <c r="AD57" s="120"/>
-      <c r="AE57" s="111"/>
-      <c r="AF57" s="111"/>
-      <c r="AG57" s="111"/>
-      <c r="AH57" s="111"/>
-      <c r="AI57" s="111"/>
-      <c r="AJ57" s="111"/>
-      <c r="AK57" s="111"/>
-      <c r="AL57" s="111"/>
-      <c r="AM57" s="111"/>
-      <c r="AN57" s="111"/>
-      <c r="AO57" s="111"/>
-      <c r="AP57" s="111"/>
-      <c r="AQ57" s="111"/>
-      <c r="AR57" s="111"/>
-      <c r="AS57" s="111"/>
-      <c r="AT57" s="111"/>
-      <c r="AU57" s="111"/>
-      <c r="AV57" s="111"/>
-      <c r="AW57" s="112"/>
+      <c r="V57" s="122"/>
+      <c r="W57" s="122"/>
+      <c r="X57" s="122"/>
+      <c r="Y57" s="122"/>
+      <c r="Z57" s="122"/>
+      <c r="AA57" s="122"/>
+      <c r="AB57" s="122"/>
+      <c r="AC57" s="122"/>
+      <c r="AD57" s="123"/>
+      <c r="AE57" s="165"/>
+      <c r="AF57" s="165"/>
+      <c r="AG57" s="165"/>
+      <c r="AH57" s="165"/>
+      <c r="AI57" s="165"/>
+      <c r="AJ57" s="165"/>
+      <c r="AK57" s="165"/>
+      <c r="AL57" s="165"/>
+      <c r="AM57" s="165"/>
+      <c r="AN57" s="165"/>
+      <c r="AO57" s="165"/>
+      <c r="AP57" s="165"/>
+      <c r="AQ57" s="165"/>
+      <c r="AR57" s="165"/>
+      <c r="AS57" s="165"/>
+      <c r="AT57" s="165"/>
+      <c r="AU57" s="165"/>
+      <c r="AV57" s="165"/>
+      <c r="AW57" s="166"/>
     </row>
     <row r="58" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="16"/>
@@ -7930,13 +7942,13 @@
       <c r="AM63" t="s">
         <v>78</v>
       </c>
-      <c r="AN63" s="198"/>
-      <c r="AO63" s="198"/>
-      <c r="AP63" s="198"/>
-      <c r="AQ63" s="198"/>
-      <c r="AR63" s="198"/>
-      <c r="AS63" s="198"/>
-      <c r="AT63" s="198"/>
+      <c r="AN63" s="116"/>
+      <c r="AO63" s="116"/>
+      <c r="AP63" s="116"/>
+      <c r="AQ63" s="116"/>
+      <c r="AR63" s="116"/>
+      <c r="AS63" s="116"/>
+      <c r="AT63" s="116"/>
       <c r="AU63" t="s">
         <v>14</v>
       </c>
@@ -8144,7 +8156,7 @@
       <c r="AK70" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="AL70" s="114" t="s">
+      <c r="AL70" s="117" t="s">
         <v>166</v>
       </c>
       <c r="AM70" s="95"/>
@@ -8289,7 +8301,7 @@
       <c r="AB72" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="AC72" s="113"/>
+      <c r="AC72" s="115"/>
       <c r="AD72" s="100"/>
       <c r="AE72" s="101"/>
       <c r="AF72" s="101"/>
@@ -8298,7 +8310,7 @@
       <c r="AI72" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="AJ72" s="113"/>
+      <c r="AJ72" s="115"/>
       <c r="AK72" s="101"/>
       <c r="AL72" s="101"/>
       <c r="AM72" s="101"/>
@@ -8307,13 +8319,13 @@
       </c>
       <c r="AO72" s="101"/>
       <c r="AP72" s="101"/>
-      <c r="AQ72" s="113"/>
+      <c r="AQ72" s="115"/>
       <c r="AR72" s="100"/>
       <c r="AS72" s="101"/>
       <c r="AT72" s="101"/>
       <c r="AU72" s="101"/>
       <c r="AV72" s="101"/>
-      <c r="AW72" s="113"/>
+      <c r="AW72" s="115"/>
     </row>
     <row r="73" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="105" t="s">
@@ -8370,52 +8382,52 @@
       <c r="AS73" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AT73" s="103"/>
-      <c r="AU73" s="103"/>
-      <c r="AV73" s="103"/>
+      <c r="AT73" s="203"/>
+      <c r="AU73" s="203"/>
+      <c r="AV73" s="203"/>
       <c r="AW73" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="199"/>
-      <c r="C74" s="200"/>
-      <c r="D74" s="200"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="200"/>
-      <c r="G74" s="200"/>
-      <c r="H74" s="200"/>
-      <c r="I74" s="200"/>
-      <c r="J74" s="200"/>
-      <c r="K74" s="200"/>
-      <c r="L74" s="200"/>
-      <c r="M74" s="200"/>
-      <c r="N74" s="200"/>
-      <c r="O74" s="200"/>
-      <c r="P74" s="200"/>
-      <c r="Q74" s="200"/>
-      <c r="R74" s="200"/>
-      <c r="S74" s="200"/>
-      <c r="T74" s="200"/>
-      <c r="U74" s="200"/>
-      <c r="V74" s="200"/>
-      <c r="W74" s="200"/>
-      <c r="X74" s="200"/>
-      <c r="Y74" s="201"/>
-      <c r="Z74" s="199"/>
-      <c r="AA74" s="200"/>
-      <c r="AB74" s="200"/>
-      <c r="AC74" s="200"/>
-      <c r="AD74" s="200"/>
-      <c r="AE74" s="200"/>
-      <c r="AF74" s="200"/>
-      <c r="AG74" s="200"/>
-      <c r="AH74" s="200"/>
-      <c r="AI74" s="200"/>
-      <c r="AJ74" s="200"/>
-      <c r="AK74" s="200"/>
-      <c r="AL74" s="200"/>
-      <c r="AM74" s="200"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="110"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="110"/>
+      <c r="L74" s="110"/>
+      <c r="M74" s="110"/>
+      <c r="N74" s="110"/>
+      <c r="O74" s="110"/>
+      <c r="P74" s="110"/>
+      <c r="Q74" s="110"/>
+      <c r="R74" s="110"/>
+      <c r="S74" s="110"/>
+      <c r="T74" s="110"/>
+      <c r="U74" s="110"/>
+      <c r="V74" s="110"/>
+      <c r="W74" s="110"/>
+      <c r="X74" s="110"/>
+      <c r="Y74" s="111"/>
+      <c r="Z74" s="109"/>
+      <c r="AA74" s="110"/>
+      <c r="AB74" s="110"/>
+      <c r="AC74" s="110"/>
+      <c r="AD74" s="110"/>
+      <c r="AE74" s="110"/>
+      <c r="AF74" s="110"/>
+      <c r="AG74" s="110"/>
+      <c r="AH74" s="110"/>
+      <c r="AI74" s="110"/>
+      <c r="AJ74" s="110"/>
+      <c r="AK74" s="110"/>
+      <c r="AL74" s="110"/>
+      <c r="AM74" s="110"/>
       <c r="AN74" s="9" t="s">
         <v>164</v>
       </c>
@@ -8425,54 +8437,54 @@
       <c r="AQ74" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AR74" s="91"/>
-      <c r="AS74" s="91"/>
-      <c r="AT74" s="91"/>
-      <c r="AU74" s="91"/>
-      <c r="AV74" s="91"/>
+      <c r="AR74" s="116"/>
+      <c r="AS74" s="116"/>
+      <c r="AT74" s="116"/>
+      <c r="AU74" s="116"/>
+      <c r="AV74" s="116"/>
       <c r="AW74" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="199"/>
-      <c r="C75" s="200"/>
-      <c r="D75" s="200"/>
-      <c r="E75" s="200"/>
-      <c r="F75" s="200"/>
-      <c r="G75" s="200"/>
-      <c r="H75" s="200"/>
-      <c r="I75" s="200"/>
-      <c r="J75" s="200"/>
-      <c r="K75" s="200"/>
-      <c r="L75" s="200"/>
-      <c r="M75" s="200"/>
-      <c r="N75" s="200"/>
-      <c r="O75" s="200"/>
-      <c r="P75" s="200"/>
-      <c r="Q75" s="200"/>
-      <c r="R75" s="200"/>
-      <c r="S75" s="200"/>
-      <c r="T75" s="200"/>
-      <c r="U75" s="200"/>
-      <c r="V75" s="200"/>
-      <c r="W75" s="200"/>
-      <c r="X75" s="200"/>
-      <c r="Y75" s="201"/>
-      <c r="Z75" s="199"/>
-      <c r="AA75" s="200"/>
-      <c r="AB75" s="200"/>
-      <c r="AC75" s="200"/>
-      <c r="AD75" s="200"/>
-      <c r="AE75" s="200"/>
-      <c r="AF75" s="200"/>
-      <c r="AG75" s="200"/>
-      <c r="AH75" s="200"/>
-      <c r="AI75" s="200"/>
-      <c r="AJ75" s="200"/>
-      <c r="AK75" s="200"/>
-      <c r="AL75" s="200"/>
-      <c r="AM75" s="200"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="110"/>
+      <c r="K75" s="110"/>
+      <c r="L75" s="110"/>
+      <c r="M75" s="110"/>
+      <c r="N75" s="110"/>
+      <c r="O75" s="110"/>
+      <c r="P75" s="110"/>
+      <c r="Q75" s="110"/>
+      <c r="R75" s="110"/>
+      <c r="S75" s="110"/>
+      <c r="T75" s="110"/>
+      <c r="U75" s="110"/>
+      <c r="V75" s="110"/>
+      <c r="W75" s="110"/>
+      <c r="X75" s="110"/>
+      <c r="Y75" s="111"/>
+      <c r="Z75" s="109"/>
+      <c r="AA75" s="110"/>
+      <c r="AB75" s="110"/>
+      <c r="AC75" s="110"/>
+      <c r="AD75" s="110"/>
+      <c r="AE75" s="110"/>
+      <c r="AF75" s="110"/>
+      <c r="AG75" s="110"/>
+      <c r="AH75" s="110"/>
+      <c r="AI75" s="110"/>
+      <c r="AJ75" s="110"/>
+      <c r="AK75" s="110"/>
+      <c r="AL75" s="110"/>
+      <c r="AM75" s="110"/>
       <c r="AN75" s="9" t="s">
         <v>164</v>
       </c>
@@ -8482,44 +8494,44 @@
       <c r="AW75" s="6"/>
     </row>
     <row r="76" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="199"/>
-      <c r="C76" s="200"/>
-      <c r="D76" s="200"/>
-      <c r="E76" s="200"/>
-      <c r="F76" s="200"/>
-      <c r="G76" s="200"/>
-      <c r="H76" s="200"/>
-      <c r="I76" s="200"/>
-      <c r="J76" s="200"/>
-      <c r="K76" s="200"/>
-      <c r="L76" s="200"/>
-      <c r="M76" s="200"/>
-      <c r="N76" s="200"/>
-      <c r="O76" s="200"/>
-      <c r="P76" s="200"/>
-      <c r="Q76" s="200"/>
-      <c r="R76" s="200"/>
-      <c r="S76" s="200"/>
-      <c r="T76" s="200"/>
-      <c r="U76" s="200"/>
-      <c r="V76" s="200"/>
-      <c r="W76" s="200"/>
-      <c r="X76" s="200"/>
-      <c r="Y76" s="201"/>
-      <c r="Z76" s="199"/>
-      <c r="AA76" s="200"/>
-      <c r="AB76" s="200"/>
-      <c r="AC76" s="200"/>
-      <c r="AD76" s="200"/>
-      <c r="AE76" s="200"/>
-      <c r="AF76" s="200"/>
-      <c r="AG76" s="200"/>
-      <c r="AH76" s="200"/>
-      <c r="AI76" s="200"/>
-      <c r="AJ76" s="200"/>
-      <c r="AK76" s="200"/>
-      <c r="AL76" s="200"/>
-      <c r="AM76" s="200"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
+      <c r="I76" s="110"/>
+      <c r="J76" s="110"/>
+      <c r="K76" s="110"/>
+      <c r="L76" s="110"/>
+      <c r="M76" s="110"/>
+      <c r="N76" s="110"/>
+      <c r="O76" s="110"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="110"/>
+      <c r="R76" s="110"/>
+      <c r="S76" s="110"/>
+      <c r="T76" s="110"/>
+      <c r="U76" s="110"/>
+      <c r="V76" s="110"/>
+      <c r="W76" s="110"/>
+      <c r="X76" s="110"/>
+      <c r="Y76" s="111"/>
+      <c r="Z76" s="109"/>
+      <c r="AA76" s="110"/>
+      <c r="AB76" s="110"/>
+      <c r="AC76" s="110"/>
+      <c r="AD76" s="110"/>
+      <c r="AE76" s="110"/>
+      <c r="AF76" s="110"/>
+      <c r="AG76" s="110"/>
+      <c r="AH76" s="110"/>
+      <c r="AI76" s="110"/>
+      <c r="AJ76" s="110"/>
+      <c r="AK76" s="110"/>
+      <c r="AL76" s="110"/>
+      <c r="AM76" s="110"/>
       <c r="AN76" s="91"/>
       <c r="AO76" s="91"/>
       <c r="AP76" s="91"/>
@@ -8532,44 +8544,44 @@
       <c r="AW76" s="94"/>
     </row>
     <row r="77" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="202"/>
-      <c r="C77" s="203"/>
-      <c r="D77" s="203"/>
-      <c r="E77" s="203"/>
-      <c r="F77" s="203"/>
-      <c r="G77" s="203"/>
-      <c r="H77" s="203"/>
-      <c r="I77" s="203"/>
-      <c r="J77" s="203"/>
-      <c r="K77" s="203"/>
-      <c r="L77" s="203"/>
-      <c r="M77" s="203"/>
-      <c r="N77" s="203"/>
-      <c r="O77" s="203"/>
-      <c r="P77" s="203"/>
-      <c r="Q77" s="203"/>
-      <c r="R77" s="203"/>
-      <c r="S77" s="203"/>
-      <c r="T77" s="203"/>
-      <c r="U77" s="203"/>
-      <c r="V77" s="203"/>
-      <c r="W77" s="203"/>
-      <c r="X77" s="203"/>
-      <c r="Y77" s="204"/>
-      <c r="Z77" s="202"/>
-      <c r="AA77" s="203"/>
-      <c r="AB77" s="203"/>
-      <c r="AC77" s="203"/>
-      <c r="AD77" s="203"/>
-      <c r="AE77" s="203"/>
-      <c r="AF77" s="203"/>
-      <c r="AG77" s="203"/>
-      <c r="AH77" s="203"/>
-      <c r="AI77" s="203"/>
-      <c r="AJ77" s="203"/>
-      <c r="AK77" s="203"/>
-      <c r="AL77" s="203"/>
-      <c r="AM77" s="203"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="113"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="113"/>
+      <c r="K77" s="113"/>
+      <c r="L77" s="113"/>
+      <c r="M77" s="113"/>
+      <c r="N77" s="113"/>
+      <c r="O77" s="113"/>
+      <c r="P77" s="113"/>
+      <c r="Q77" s="113"/>
+      <c r="R77" s="113"/>
+      <c r="S77" s="113"/>
+      <c r="T77" s="113"/>
+      <c r="U77" s="113"/>
+      <c r="V77" s="113"/>
+      <c r="W77" s="113"/>
+      <c r="X77" s="113"/>
+      <c r="Y77" s="114"/>
+      <c r="Z77" s="112"/>
+      <c r="AA77" s="113"/>
+      <c r="AB77" s="113"/>
+      <c r="AC77" s="113"/>
+      <c r="AD77" s="113"/>
+      <c r="AE77" s="113"/>
+      <c r="AF77" s="113"/>
+      <c r="AG77" s="113"/>
+      <c r="AH77" s="113"/>
+      <c r="AI77" s="113"/>
+      <c r="AJ77" s="113"/>
+      <c r="AK77" s="113"/>
+      <c r="AL77" s="113"/>
+      <c r="AM77" s="113"/>
       <c r="AN77" s="101"/>
       <c r="AO77" s="101"/>
       <c r="AP77" s="101"/>
@@ -8579,7 +8591,7 @@
       <c r="AT77" s="101"/>
       <c r="AU77" s="101"/>
       <c r="AV77" s="101"/>
-      <c r="AW77" s="113"/>
+      <c r="AW77" s="115"/>
     </row>
     <row r="78" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="105" t="s">
@@ -8636,354 +8648,354 @@
       <c r="AW78" s="108"/>
     </row>
     <row r="79" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="199"/>
-      <c r="C79" s="200"/>
-      <c r="D79" s="200"/>
-      <c r="E79" s="200"/>
-      <c r="F79" s="200"/>
-      <c r="G79" s="200"/>
-      <c r="H79" s="200"/>
-      <c r="I79" s="200"/>
-      <c r="J79" s="200"/>
-      <c r="K79" s="200"/>
-      <c r="L79" s="200"/>
-      <c r="M79" s="200"/>
-      <c r="N79" s="200"/>
-      <c r="O79" s="200"/>
-      <c r="P79" s="200"/>
-      <c r="Q79" s="200"/>
-      <c r="R79" s="200"/>
-      <c r="S79" s="200"/>
-      <c r="T79" s="200"/>
-      <c r="U79" s="200"/>
-      <c r="V79" s="200"/>
-      <c r="W79" s="200"/>
-      <c r="X79" s="200"/>
-      <c r="Y79" s="201"/>
-      <c r="Z79" s="199"/>
-      <c r="AA79" s="200"/>
-      <c r="AB79" s="200"/>
-      <c r="AC79" s="200"/>
-      <c r="AD79" s="200"/>
-      <c r="AE79" s="200"/>
-      <c r="AF79" s="200"/>
-      <c r="AG79" s="200"/>
-      <c r="AH79" s="200"/>
-      <c r="AI79" s="200"/>
-      <c r="AJ79" s="200"/>
-      <c r="AK79" s="200"/>
-      <c r="AL79" s="200"/>
-      <c r="AM79" s="200"/>
-      <c r="AN79" s="200"/>
-      <c r="AO79" s="200"/>
-      <c r="AP79" s="200"/>
-      <c r="AQ79" s="200"/>
-      <c r="AR79" s="200"/>
-      <c r="AS79" s="200"/>
-      <c r="AT79" s="200"/>
-      <c r="AU79" s="200"/>
-      <c r="AV79" s="200"/>
-      <c r="AW79" s="201"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="110"/>
+      <c r="L79" s="110"/>
+      <c r="M79" s="110"/>
+      <c r="N79" s="110"/>
+      <c r="O79" s="110"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="110"/>
+      <c r="R79" s="110"/>
+      <c r="S79" s="110"/>
+      <c r="T79" s="110"/>
+      <c r="U79" s="110"/>
+      <c r="V79" s="110"/>
+      <c r="W79" s="110"/>
+      <c r="X79" s="110"/>
+      <c r="Y79" s="111"/>
+      <c r="Z79" s="204"/>
+      <c r="AA79" s="205"/>
+      <c r="AB79" s="205"/>
+      <c r="AC79" s="205"/>
+      <c r="AD79" s="205"/>
+      <c r="AE79" s="205"/>
+      <c r="AF79" s="205"/>
+      <c r="AG79" s="205"/>
+      <c r="AH79" s="205"/>
+      <c r="AI79" s="205"/>
+      <c r="AJ79" s="205"/>
+      <c r="AK79" s="205"/>
+      <c r="AL79" s="205"/>
+      <c r="AM79" s="205"/>
+      <c r="AN79" s="205"/>
+      <c r="AO79" s="205"/>
+      <c r="AP79" s="205"/>
+      <c r="AQ79" s="205"/>
+      <c r="AR79" s="205"/>
+      <c r="AS79" s="205"/>
+      <c r="AT79" s="205"/>
+      <c r="AU79" s="205"/>
+      <c r="AV79" s="205"/>
+      <c r="AW79" s="206"/>
     </row>
     <row r="80" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="199"/>
-      <c r="C80" s="200"/>
-      <c r="D80" s="200"/>
-      <c r="E80" s="200"/>
-      <c r="F80" s="200"/>
-      <c r="G80" s="200"/>
-      <c r="H80" s="200"/>
-      <c r="I80" s="200"/>
-      <c r="J80" s="200"/>
-      <c r="K80" s="200"/>
-      <c r="L80" s="200"/>
-      <c r="M80" s="200"/>
-      <c r="N80" s="200"/>
-      <c r="O80" s="200"/>
-      <c r="P80" s="200"/>
-      <c r="Q80" s="200"/>
-      <c r="R80" s="200"/>
-      <c r="S80" s="200"/>
-      <c r="T80" s="200"/>
-      <c r="U80" s="200"/>
-      <c r="V80" s="200"/>
-      <c r="W80" s="200"/>
-      <c r="X80" s="200"/>
-      <c r="Y80" s="201"/>
-      <c r="Z80" s="199"/>
-      <c r="AA80" s="200"/>
-      <c r="AB80" s="200"/>
-      <c r="AC80" s="200"/>
-      <c r="AD80" s="200"/>
-      <c r="AE80" s="200"/>
-      <c r="AF80" s="200"/>
-      <c r="AG80" s="200"/>
-      <c r="AH80" s="200"/>
-      <c r="AI80" s="200"/>
-      <c r="AJ80" s="200"/>
-      <c r="AK80" s="200"/>
-      <c r="AL80" s="200"/>
-      <c r="AM80" s="200"/>
-      <c r="AN80" s="200"/>
-      <c r="AO80" s="200"/>
-      <c r="AP80" s="200"/>
-      <c r="AQ80" s="200"/>
-      <c r="AR80" s="200"/>
-      <c r="AS80" s="200"/>
-      <c r="AT80" s="200"/>
-      <c r="AU80" s="200"/>
-      <c r="AV80" s="200"/>
-      <c r="AW80" s="201"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="110"/>
+      <c r="L80" s="110"/>
+      <c r="M80" s="110"/>
+      <c r="N80" s="110"/>
+      <c r="O80" s="110"/>
+      <c r="P80" s="110"/>
+      <c r="Q80" s="110"/>
+      <c r="R80" s="110"/>
+      <c r="S80" s="110"/>
+      <c r="T80" s="110"/>
+      <c r="U80" s="110"/>
+      <c r="V80" s="110"/>
+      <c r="W80" s="110"/>
+      <c r="X80" s="110"/>
+      <c r="Y80" s="111"/>
+      <c r="Z80" s="204"/>
+      <c r="AA80" s="205"/>
+      <c r="AB80" s="205"/>
+      <c r="AC80" s="205"/>
+      <c r="AD80" s="205"/>
+      <c r="AE80" s="205"/>
+      <c r="AF80" s="205"/>
+      <c r="AG80" s="205"/>
+      <c r="AH80" s="205"/>
+      <c r="AI80" s="205"/>
+      <c r="AJ80" s="205"/>
+      <c r="AK80" s="205"/>
+      <c r="AL80" s="205"/>
+      <c r="AM80" s="205"/>
+      <c r="AN80" s="205"/>
+      <c r="AO80" s="205"/>
+      <c r="AP80" s="205"/>
+      <c r="AQ80" s="205"/>
+      <c r="AR80" s="205"/>
+      <c r="AS80" s="205"/>
+      <c r="AT80" s="205"/>
+      <c r="AU80" s="205"/>
+      <c r="AV80" s="205"/>
+      <c r="AW80" s="206"/>
     </row>
     <row r="81" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="199"/>
-      <c r="C81" s="200"/>
-      <c r="D81" s="200"/>
-      <c r="E81" s="200"/>
-      <c r="F81" s="200"/>
-      <c r="G81" s="200"/>
-      <c r="H81" s="200"/>
-      <c r="I81" s="200"/>
-      <c r="J81" s="200"/>
-      <c r="K81" s="200"/>
-      <c r="L81" s="200"/>
-      <c r="M81" s="200"/>
-      <c r="N81" s="200"/>
-      <c r="O81" s="200"/>
-      <c r="P81" s="200"/>
-      <c r="Q81" s="200"/>
-      <c r="R81" s="200"/>
-      <c r="S81" s="200"/>
-      <c r="T81" s="200"/>
-      <c r="U81" s="200"/>
-      <c r="V81" s="200"/>
-      <c r="W81" s="200"/>
-      <c r="X81" s="200"/>
-      <c r="Y81" s="201"/>
-      <c r="Z81" s="199"/>
-      <c r="AA81" s="200"/>
-      <c r="AB81" s="200"/>
-      <c r="AC81" s="200"/>
-      <c r="AD81" s="200"/>
-      <c r="AE81" s="200"/>
-      <c r="AF81" s="200"/>
-      <c r="AG81" s="200"/>
-      <c r="AH81" s="200"/>
-      <c r="AI81" s="200"/>
-      <c r="AJ81" s="200"/>
-      <c r="AK81" s="200"/>
-      <c r="AL81" s="200"/>
-      <c r="AM81" s="200"/>
-      <c r="AN81" s="200"/>
-      <c r="AO81" s="200"/>
-      <c r="AP81" s="200"/>
-      <c r="AQ81" s="200"/>
-      <c r="AR81" s="200"/>
-      <c r="AS81" s="200"/>
-      <c r="AT81" s="200"/>
-      <c r="AU81" s="200"/>
-      <c r="AV81" s="200"/>
-      <c r="AW81" s="201"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="110"/>
+      <c r="G81" s="110"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="110"/>
+      <c r="K81" s="110"/>
+      <c r="L81" s="110"/>
+      <c r="M81" s="110"/>
+      <c r="N81" s="110"/>
+      <c r="O81" s="110"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="110"/>
+      <c r="R81" s="110"/>
+      <c r="S81" s="110"/>
+      <c r="T81" s="110"/>
+      <c r="U81" s="110"/>
+      <c r="V81" s="110"/>
+      <c r="W81" s="110"/>
+      <c r="X81" s="110"/>
+      <c r="Y81" s="111"/>
+      <c r="Z81" s="204"/>
+      <c r="AA81" s="205"/>
+      <c r="AB81" s="205"/>
+      <c r="AC81" s="205"/>
+      <c r="AD81" s="205"/>
+      <c r="AE81" s="205"/>
+      <c r="AF81" s="205"/>
+      <c r="AG81" s="205"/>
+      <c r="AH81" s="205"/>
+      <c r="AI81" s="205"/>
+      <c r="AJ81" s="205"/>
+      <c r="AK81" s="205"/>
+      <c r="AL81" s="205"/>
+      <c r="AM81" s="205"/>
+      <c r="AN81" s="205"/>
+      <c r="AO81" s="205"/>
+      <c r="AP81" s="205"/>
+      <c r="AQ81" s="205"/>
+      <c r="AR81" s="205"/>
+      <c r="AS81" s="205"/>
+      <c r="AT81" s="205"/>
+      <c r="AU81" s="205"/>
+      <c r="AV81" s="205"/>
+      <c r="AW81" s="206"/>
     </row>
     <row r="82" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="199"/>
-      <c r="C82" s="200"/>
-      <c r="D82" s="200"/>
-      <c r="E82" s="200"/>
-      <c r="F82" s="200"/>
-      <c r="G82" s="200"/>
-      <c r="H82" s="200"/>
-      <c r="I82" s="200"/>
-      <c r="J82" s="200"/>
-      <c r="K82" s="200"/>
-      <c r="L82" s="200"/>
-      <c r="M82" s="200"/>
-      <c r="N82" s="200"/>
-      <c r="O82" s="200"/>
-      <c r="P82" s="200"/>
-      <c r="Q82" s="200"/>
-      <c r="R82" s="200"/>
-      <c r="S82" s="200"/>
-      <c r="T82" s="200"/>
-      <c r="U82" s="200"/>
-      <c r="V82" s="200"/>
-      <c r="W82" s="200"/>
-      <c r="X82" s="200"/>
-      <c r="Y82" s="201"/>
-      <c r="Z82" s="199"/>
-      <c r="AA82" s="200"/>
-      <c r="AB82" s="200"/>
-      <c r="AC82" s="200"/>
-      <c r="AD82" s="200"/>
-      <c r="AE82" s="200"/>
-      <c r="AF82" s="200"/>
-      <c r="AG82" s="200"/>
-      <c r="AH82" s="200"/>
-      <c r="AI82" s="200"/>
-      <c r="AJ82" s="200"/>
-      <c r="AK82" s="200"/>
-      <c r="AL82" s="200"/>
-      <c r="AM82" s="200"/>
-      <c r="AN82" s="200"/>
-      <c r="AO82" s="200"/>
-      <c r="AP82" s="200"/>
-      <c r="AQ82" s="200"/>
-      <c r="AR82" s="200"/>
-      <c r="AS82" s="200"/>
-      <c r="AT82" s="200"/>
-      <c r="AU82" s="200"/>
-      <c r="AV82" s="200"/>
-      <c r="AW82" s="201"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="110"/>
+      <c r="K82" s="110"/>
+      <c r="L82" s="110"/>
+      <c r="M82" s="110"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="110"/>
+      <c r="P82" s="110"/>
+      <c r="Q82" s="110"/>
+      <c r="R82" s="110"/>
+      <c r="S82" s="110"/>
+      <c r="T82" s="110"/>
+      <c r="U82" s="110"/>
+      <c r="V82" s="110"/>
+      <c r="W82" s="110"/>
+      <c r="X82" s="110"/>
+      <c r="Y82" s="111"/>
+      <c r="Z82" s="204"/>
+      <c r="AA82" s="205"/>
+      <c r="AB82" s="205"/>
+      <c r="AC82" s="205"/>
+      <c r="AD82" s="205"/>
+      <c r="AE82" s="205"/>
+      <c r="AF82" s="205"/>
+      <c r="AG82" s="205"/>
+      <c r="AH82" s="205"/>
+      <c r="AI82" s="205"/>
+      <c r="AJ82" s="205"/>
+      <c r="AK82" s="205"/>
+      <c r="AL82" s="205"/>
+      <c r="AM82" s="205"/>
+      <c r="AN82" s="205"/>
+      <c r="AO82" s="205"/>
+      <c r="AP82" s="205"/>
+      <c r="AQ82" s="205"/>
+      <c r="AR82" s="205"/>
+      <c r="AS82" s="205"/>
+      <c r="AT82" s="205"/>
+      <c r="AU82" s="205"/>
+      <c r="AV82" s="205"/>
+      <c r="AW82" s="206"/>
     </row>
     <row r="83" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="199"/>
-      <c r="C83" s="200"/>
-      <c r="D83" s="200"/>
-      <c r="E83" s="200"/>
-      <c r="F83" s="200"/>
-      <c r="G83" s="200"/>
-      <c r="H83" s="200"/>
-      <c r="I83" s="200"/>
-      <c r="J83" s="200"/>
-      <c r="K83" s="200"/>
-      <c r="L83" s="200"/>
-      <c r="M83" s="200"/>
-      <c r="N83" s="200"/>
-      <c r="O83" s="200"/>
-      <c r="P83" s="200"/>
-      <c r="Q83" s="200"/>
-      <c r="R83" s="200"/>
-      <c r="S83" s="200"/>
-      <c r="T83" s="200"/>
-      <c r="U83" s="200"/>
-      <c r="V83" s="200"/>
-      <c r="W83" s="200"/>
-      <c r="X83" s="200"/>
-      <c r="Y83" s="201"/>
-      <c r="Z83" s="199"/>
-      <c r="AA83" s="200"/>
-      <c r="AB83" s="200"/>
-      <c r="AC83" s="200"/>
-      <c r="AD83" s="200"/>
-      <c r="AE83" s="200"/>
-      <c r="AF83" s="200"/>
-      <c r="AG83" s="200"/>
-      <c r="AH83" s="200"/>
-      <c r="AI83" s="200"/>
-      <c r="AJ83" s="200"/>
-      <c r="AK83" s="200"/>
-      <c r="AL83" s="200"/>
-      <c r="AM83" s="200"/>
-      <c r="AN83" s="200"/>
-      <c r="AO83" s="200"/>
-      <c r="AP83" s="200"/>
-      <c r="AQ83" s="200"/>
-      <c r="AR83" s="200"/>
-      <c r="AS83" s="200"/>
-      <c r="AT83" s="200"/>
-      <c r="AU83" s="200"/>
-      <c r="AV83" s="200"/>
-      <c r="AW83" s="201"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="110"/>
+      <c r="G83" s="110"/>
+      <c r="H83" s="110"/>
+      <c r="I83" s="110"/>
+      <c r="J83" s="110"/>
+      <c r="K83" s="110"/>
+      <c r="L83" s="110"/>
+      <c r="M83" s="110"/>
+      <c r="N83" s="110"/>
+      <c r="O83" s="110"/>
+      <c r="P83" s="110"/>
+      <c r="Q83" s="110"/>
+      <c r="R83" s="110"/>
+      <c r="S83" s="110"/>
+      <c r="T83" s="110"/>
+      <c r="U83" s="110"/>
+      <c r="V83" s="110"/>
+      <c r="W83" s="110"/>
+      <c r="X83" s="110"/>
+      <c r="Y83" s="111"/>
+      <c r="Z83" s="204"/>
+      <c r="AA83" s="205"/>
+      <c r="AB83" s="205"/>
+      <c r="AC83" s="205"/>
+      <c r="AD83" s="205"/>
+      <c r="AE83" s="205"/>
+      <c r="AF83" s="205"/>
+      <c r="AG83" s="205"/>
+      <c r="AH83" s="205"/>
+      <c r="AI83" s="205"/>
+      <c r="AJ83" s="205"/>
+      <c r="AK83" s="205"/>
+      <c r="AL83" s="205"/>
+      <c r="AM83" s="205"/>
+      <c r="AN83" s="205"/>
+      <c r="AO83" s="205"/>
+      <c r="AP83" s="205"/>
+      <c r="AQ83" s="205"/>
+      <c r="AR83" s="205"/>
+      <c r="AS83" s="205"/>
+      <c r="AT83" s="205"/>
+      <c r="AU83" s="205"/>
+      <c r="AV83" s="205"/>
+      <c r="AW83" s="206"/>
     </row>
     <row r="84" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="199"/>
-      <c r="C84" s="200"/>
-      <c r="D84" s="200"/>
-      <c r="E84" s="200"/>
-      <c r="F84" s="200"/>
-      <c r="G84" s="200"/>
-      <c r="H84" s="200"/>
-      <c r="I84" s="200"/>
-      <c r="J84" s="200"/>
-      <c r="K84" s="200"/>
-      <c r="L84" s="200"/>
-      <c r="M84" s="200"/>
-      <c r="N84" s="200"/>
-      <c r="O84" s="200"/>
-      <c r="P84" s="200"/>
-      <c r="Q84" s="200"/>
-      <c r="R84" s="200"/>
-      <c r="S84" s="200"/>
-      <c r="T84" s="200"/>
-      <c r="U84" s="200"/>
-      <c r="V84" s="200"/>
-      <c r="W84" s="200"/>
-      <c r="X84" s="200"/>
-      <c r="Y84" s="201"/>
-      <c r="Z84" s="199"/>
-      <c r="AA84" s="200"/>
-      <c r="AB84" s="200"/>
-      <c r="AC84" s="200"/>
-      <c r="AD84" s="200"/>
-      <c r="AE84" s="200"/>
-      <c r="AF84" s="200"/>
-      <c r="AG84" s="200"/>
-      <c r="AH84" s="200"/>
-      <c r="AI84" s="200"/>
-      <c r="AJ84" s="200"/>
-      <c r="AK84" s="200"/>
-      <c r="AL84" s="200"/>
-      <c r="AM84" s="200"/>
-      <c r="AN84" s="200"/>
-      <c r="AO84" s="200"/>
-      <c r="AP84" s="200"/>
-      <c r="AQ84" s="200"/>
-      <c r="AR84" s="200"/>
-      <c r="AS84" s="200"/>
-      <c r="AT84" s="200"/>
-      <c r="AU84" s="200"/>
-      <c r="AV84" s="200"/>
-      <c r="AW84" s="201"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="110"/>
+      <c r="E84" s="110"/>
+      <c r="F84" s="110"/>
+      <c r="G84" s="110"/>
+      <c r="H84" s="110"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="110"/>
+      <c r="K84" s="110"/>
+      <c r="L84" s="110"/>
+      <c r="M84" s="110"/>
+      <c r="N84" s="110"/>
+      <c r="O84" s="110"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="110"/>
+      <c r="R84" s="110"/>
+      <c r="S84" s="110"/>
+      <c r="T84" s="110"/>
+      <c r="U84" s="110"/>
+      <c r="V84" s="110"/>
+      <c r="W84" s="110"/>
+      <c r="X84" s="110"/>
+      <c r="Y84" s="111"/>
+      <c r="Z84" s="204"/>
+      <c r="AA84" s="205"/>
+      <c r="AB84" s="205"/>
+      <c r="AC84" s="205"/>
+      <c r="AD84" s="205"/>
+      <c r="AE84" s="205"/>
+      <c r="AF84" s="205"/>
+      <c r="AG84" s="205"/>
+      <c r="AH84" s="205"/>
+      <c r="AI84" s="205"/>
+      <c r="AJ84" s="205"/>
+      <c r="AK84" s="205"/>
+      <c r="AL84" s="205"/>
+      <c r="AM84" s="205"/>
+      <c r="AN84" s="205"/>
+      <c r="AO84" s="205"/>
+      <c r="AP84" s="205"/>
+      <c r="AQ84" s="205"/>
+      <c r="AR84" s="205"/>
+      <c r="AS84" s="205"/>
+      <c r="AT84" s="205"/>
+      <c r="AU84" s="205"/>
+      <c r="AV84" s="205"/>
+      <c r="AW84" s="206"/>
     </row>
     <row r="85" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="199"/>
-      <c r="C85" s="200"/>
-      <c r="D85" s="200"/>
-      <c r="E85" s="200"/>
-      <c r="F85" s="200"/>
-      <c r="G85" s="200"/>
-      <c r="H85" s="200"/>
-      <c r="I85" s="200"/>
-      <c r="J85" s="200"/>
-      <c r="K85" s="200"/>
-      <c r="L85" s="200"/>
-      <c r="M85" s="200"/>
-      <c r="N85" s="200"/>
-      <c r="O85" s="200"/>
-      <c r="P85" s="200"/>
-      <c r="Q85" s="200"/>
-      <c r="R85" s="200"/>
-      <c r="S85" s="200"/>
-      <c r="T85" s="200"/>
-      <c r="U85" s="200"/>
-      <c r="V85" s="200"/>
-      <c r="W85" s="200"/>
-      <c r="X85" s="200"/>
-      <c r="Y85" s="201"/>
-      <c r="Z85" s="202"/>
-      <c r="AA85" s="203"/>
-      <c r="AB85" s="203"/>
-      <c r="AC85" s="203"/>
-      <c r="AD85" s="203"/>
-      <c r="AE85" s="203"/>
-      <c r="AF85" s="203"/>
-      <c r="AG85" s="203"/>
-      <c r="AH85" s="203"/>
-      <c r="AI85" s="203"/>
-      <c r="AJ85" s="203"/>
-      <c r="AK85" s="203"/>
-      <c r="AL85" s="203"/>
-      <c r="AM85" s="203"/>
-      <c r="AN85" s="203"/>
-      <c r="AO85" s="203"/>
-      <c r="AP85" s="203"/>
-      <c r="AQ85" s="203"/>
-      <c r="AR85" s="203"/>
-      <c r="AS85" s="203"/>
-      <c r="AT85" s="203"/>
-      <c r="AU85" s="203"/>
-      <c r="AV85" s="203"/>
-      <c r="AW85" s="204"/>
+      <c r="B85" s="109"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="110"/>
+      <c r="E85" s="110"/>
+      <c r="F85" s="110"/>
+      <c r="G85" s="110"/>
+      <c r="H85" s="110"/>
+      <c r="I85" s="110"/>
+      <c r="J85" s="110"/>
+      <c r="K85" s="110"/>
+      <c r="L85" s="110"/>
+      <c r="M85" s="110"/>
+      <c r="N85" s="110"/>
+      <c r="O85" s="110"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
+      <c r="R85" s="110"/>
+      <c r="S85" s="110"/>
+      <c r="T85" s="110"/>
+      <c r="U85" s="110"/>
+      <c r="V85" s="110"/>
+      <c r="W85" s="110"/>
+      <c r="X85" s="110"/>
+      <c r="Y85" s="111"/>
+      <c r="Z85" s="207"/>
+      <c r="AA85" s="208"/>
+      <c r="AB85" s="208"/>
+      <c r="AC85" s="208"/>
+      <c r="AD85" s="208"/>
+      <c r="AE85" s="208"/>
+      <c r="AF85" s="208"/>
+      <c r="AG85" s="208"/>
+      <c r="AH85" s="208"/>
+      <c r="AI85" s="208"/>
+      <c r="AJ85" s="208"/>
+      <c r="AK85" s="208"/>
+      <c r="AL85" s="208"/>
+      <c r="AM85" s="208"/>
+      <c r="AN85" s="208"/>
+      <c r="AO85" s="208"/>
+      <c r="AP85" s="208"/>
+      <c r="AQ85" s="208"/>
+      <c r="AR85" s="208"/>
+      <c r="AS85" s="208"/>
+      <c r="AT85" s="208"/>
+      <c r="AU85" s="208"/>
+      <c r="AV85" s="208"/>
+      <c r="AW85" s="209"/>
     </row>
     <row r="86" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="102" t="s">
@@ -9421,11 +9433,15 @@
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="AF22:AV22"/>
-    <mergeCell ref="AF23:AV23"/>
-    <mergeCell ref="AF24:AV24"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="H23:X23"/>
+    <mergeCell ref="H24:X24"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="R8:AG9"/>
+    <mergeCell ref="AF13:AV13"/>
+    <mergeCell ref="AF14:AV14"/>
     <mergeCell ref="AG5:AG6"/>
     <mergeCell ref="T5:V6"/>
     <mergeCell ref="Y5:AA6"/>
@@ -9435,15 +9451,6 @@
     <mergeCell ref="AT5:AU5"/>
     <mergeCell ref="AH6:AW6"/>
     <mergeCell ref="H22:X22"/>
-    <mergeCell ref="H23:X23"/>
-    <mergeCell ref="H24:X24"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="R8:AG9"/>
-    <mergeCell ref="AF13:AV13"/>
-    <mergeCell ref="AF14:AV14"/>
     <mergeCell ref="B2:AV2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:Q3"/>
@@ -9466,6 +9473,8 @@
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="V4:AG4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="B32:AD32"/>
     <mergeCell ref="AE32:AW34"/>
     <mergeCell ref="B33:L34"/>
@@ -9487,6 +9496,9 @@
     <mergeCell ref="H21:X21"/>
     <mergeCell ref="H25:X25"/>
     <mergeCell ref="H26:X26"/>
+    <mergeCell ref="AF22:AV22"/>
+    <mergeCell ref="AF23:AV23"/>
+    <mergeCell ref="AF24:AV24"/>
     <mergeCell ref="B35:B50"/>
     <mergeCell ref="C35:E40"/>
     <mergeCell ref="F35:L35"/>
@@ -9721,56 +9733,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="188" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="189"/>
-      <c r="AE1" s="189"/>
-      <c r="AF1" s="189"/>
-      <c r="AG1" s="189"/>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="189"/>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="189"/>
-      <c r="AN1" s="189"/>
-      <c r="AO1" s="189"/>
-      <c r="AP1" s="189"/>
-      <c r="AQ1" s="189"/>
-      <c r="AR1" s="189"/>
-      <c r="AS1" s="189"/>
-      <c r="AT1" s="190"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198"/>
+      <c r="AL1" s="198"/>
+      <c r="AM1" s="198"/>
+      <c r="AN1" s="198"/>
+      <c r="AO1" s="198"/>
+      <c r="AP1" s="198"/>
+      <c r="AQ1" s="198"/>
+      <c r="AR1" s="198"/>
+      <c r="AS1" s="198"/>
+      <c r="AT1" s="199"/>
     </row>
     <row r="2" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="90" t="s">
@@ -9804,27 +9816,27 @@
       <c r="W2" s="45"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="206"/>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="161"/>
+      <c r="AD2" s="161"/>
+      <c r="AE2" s="161"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="161"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="161"/>
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="161"/>
+      <c r="AP2" s="161"/>
+      <c r="AQ2" s="161"/>
+      <c r="AR2" s="161"/>
+      <c r="AS2" s="161"/>
+      <c r="AT2" s="162"/>
     </row>
     <row r="3" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="90"/>
@@ -9869,34 +9881,34 @@
         <v>218</v>
       </c>
       <c r="T3" s="48"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
       <c r="Y3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="200"/>
-      <c r="AB3" s="200"/>
-      <c r="AC3" s="200"/>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="200"/>
-      <c r="AG3" s="200"/>
-      <c r="AH3" s="200"/>
-      <c r="AI3" s="200"/>
-      <c r="AJ3" s="200"/>
-      <c r="AK3" s="200"/>
-      <c r="AL3" s="200"/>
-      <c r="AM3" s="200"/>
-      <c r="AN3" s="200"/>
-      <c r="AO3" s="200"/>
-      <c r="AP3" s="200"/>
-      <c r="AQ3" s="200"/>
-      <c r="AR3" s="200"/>
-      <c r="AS3" s="200"/>
-      <c r="AT3" s="201"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163"/>
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="163"/>
+      <c r="AS3" s="163"/>
+      <c r="AT3" s="164"/>
     </row>
     <row r="4" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="90"/>
@@ -9928,27 +9940,27 @@
       <c r="W4" s="48"/>
       <c r="X4" s="48"/>
       <c r="Y4" s="48"/>
-      <c r="Z4" s="199"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200"/>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="200"/>
-      <c r="AF4" s="200"/>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="200"/>
-      <c r="AI4" s="200"/>
-      <c r="AJ4" s="200"/>
-      <c r="AK4" s="200"/>
-      <c r="AL4" s="200"/>
-      <c r="AM4" s="200"/>
-      <c r="AN4" s="200"/>
-      <c r="AO4" s="200"/>
-      <c r="AP4" s="200"/>
-      <c r="AQ4" s="200"/>
-      <c r="AR4" s="200"/>
-      <c r="AS4" s="200"/>
-      <c r="AT4" s="201"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="164"/>
     </row>
     <row r="5" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="90"/>
@@ -9994,33 +10006,33 @@
         <v>218</v>
       </c>
       <c r="U5" s="49"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192"/>
-      <c r="X5" s="192"/>
+      <c r="V5" s="193"/>
+      <c r="W5" s="193"/>
+      <c r="X5" s="193"/>
       <c r="Y5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="199"/>
-      <c r="AA5" s="200"/>
-      <c r="AB5" s="200"/>
-      <c r="AC5" s="200"/>
-      <c r="AD5" s="200"/>
-      <c r="AE5" s="200"/>
-      <c r="AF5" s="200"/>
-      <c r="AG5" s="200"/>
-      <c r="AH5" s="200"/>
-      <c r="AI5" s="200"/>
-      <c r="AJ5" s="200"/>
-      <c r="AK5" s="200"/>
-      <c r="AL5" s="200"/>
-      <c r="AM5" s="200"/>
-      <c r="AN5" s="200"/>
-      <c r="AO5" s="200"/>
-      <c r="AP5" s="200"/>
-      <c r="AQ5" s="200"/>
-      <c r="AR5" s="200"/>
-      <c r="AS5" s="200"/>
-      <c r="AT5" s="201"/>
+      <c r="Z5" s="195"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="163"/>
+      <c r="AH5" s="163"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
+      <c r="AK5" s="163"/>
+      <c r="AL5" s="163"/>
+      <c r="AM5" s="163"/>
+      <c r="AN5" s="163"/>
+      <c r="AO5" s="163"/>
+      <c r="AP5" s="163"/>
+      <c r="AQ5" s="163"/>
+      <c r="AR5" s="163"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="164"/>
     </row>
     <row r="6" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="90"/>
@@ -10054,27 +10066,27 @@
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
       <c r="Y6" s="48"/>
-      <c r="Z6" s="199"/>
-      <c r="AA6" s="200"/>
-      <c r="AB6" s="200"/>
-      <c r="AC6" s="200"/>
-      <c r="AD6" s="200"/>
-      <c r="AE6" s="200"/>
-      <c r="AF6" s="200"/>
-      <c r="AG6" s="200"/>
-      <c r="AH6" s="200"/>
-      <c r="AI6" s="200"/>
-      <c r="AJ6" s="200"/>
-      <c r="AK6" s="200"/>
-      <c r="AL6" s="200"/>
-      <c r="AM6" s="200"/>
-      <c r="AN6" s="200"/>
-      <c r="AO6" s="200"/>
-      <c r="AP6" s="200"/>
-      <c r="AQ6" s="200"/>
-      <c r="AR6" s="200"/>
-      <c r="AS6" s="200"/>
-      <c r="AT6" s="201"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="163"/>
+      <c r="AL6" s="163"/>
+      <c r="AM6" s="163"/>
+      <c r="AN6" s="163"/>
+      <c r="AO6" s="163"/>
+      <c r="AP6" s="163"/>
+      <c r="AQ6" s="163"/>
+      <c r="AR6" s="163"/>
+      <c r="AS6" s="163"/>
+      <c r="AT6" s="164"/>
     </row>
     <row r="7" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="90"/>
@@ -10106,27 +10118,27 @@
       <c r="W7" s="48"/>
       <c r="X7" s="48"/>
       <c r="Y7" s="48"/>
-      <c r="Z7" s="199"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="200"/>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="200"/>
-      <c r="AJ7" s="200"/>
-      <c r="AK7" s="200"/>
-      <c r="AL7" s="200"/>
-      <c r="AM7" s="200"/>
-      <c r="AN7" s="200"/>
-      <c r="AO7" s="200"/>
-      <c r="AP7" s="200"/>
-      <c r="AQ7" s="200"/>
-      <c r="AR7" s="200"/>
-      <c r="AS7" s="200"/>
-      <c r="AT7" s="201"/>
+      <c r="Z7" s="195"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="163"/>
+      <c r="AK7" s="163"/>
+      <c r="AL7" s="163"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
+      <c r="AO7" s="163"/>
+      <c r="AP7" s="163"/>
+      <c r="AQ7" s="163"/>
+      <c r="AR7" s="163"/>
+      <c r="AS7" s="163"/>
+      <c r="AT7" s="164"/>
     </row>
     <row r="8" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="90"/>
@@ -10172,33 +10184,33 @@
         <v>218</v>
       </c>
       <c r="U8" s="49"/>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192"/>
-      <c r="X8" s="192"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
       <c r="Y8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="199"/>
-      <c r="AA8" s="200"/>
-      <c r="AB8" s="200"/>
-      <c r="AC8" s="200"/>
-      <c r="AD8" s="200"/>
-      <c r="AE8" s="200"/>
-      <c r="AF8" s="200"/>
-      <c r="AG8" s="200"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="200"/>
-      <c r="AJ8" s="200"/>
-      <c r="AK8" s="200"/>
-      <c r="AL8" s="200"/>
-      <c r="AM8" s="200"/>
-      <c r="AN8" s="200"/>
-      <c r="AO8" s="200"/>
-      <c r="AP8" s="200"/>
-      <c r="AQ8" s="200"/>
-      <c r="AR8" s="200"/>
-      <c r="AS8" s="200"/>
-      <c r="AT8" s="201"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="163"/>
+      <c r="AK8" s="163"/>
+      <c r="AL8" s="163"/>
+      <c r="AM8" s="163"/>
+      <c r="AN8" s="163"/>
+      <c r="AO8" s="163"/>
+      <c r="AP8" s="163"/>
+      <c r="AQ8" s="163"/>
+      <c r="AR8" s="163"/>
+      <c r="AS8" s="163"/>
+      <c r="AT8" s="164"/>
     </row>
     <row r="9" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="90"/>
@@ -10218,10 +10230,10 @@
       <c r="I9" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
       <c r="N9" s="48" t="s">
         <v>14</v>
       </c>
@@ -10235,34 +10247,34 @@
       <c r="R9" s="48"/>
       <c r="S9" s="48"/>
       <c r="T9" s="48"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
       <c r="Y9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="199"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="200"/>
-      <c r="AD9" s="200"/>
-      <c r="AE9" s="200"/>
-      <c r="AF9" s="200"/>
-      <c r="AG9" s="200"/>
-      <c r="AH9" s="200"/>
-      <c r="AI9" s="200"/>
-      <c r="AJ9" s="200"/>
-      <c r="AK9" s="200"/>
-      <c r="AL9" s="200"/>
-      <c r="AM9" s="200"/>
-      <c r="AN9" s="200"/>
-      <c r="AO9" s="200"/>
-      <c r="AP9" s="200"/>
-      <c r="AQ9" s="200"/>
-      <c r="AR9" s="200"/>
-      <c r="AS9" s="200"/>
-      <c r="AT9" s="201"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="163"/>
+      <c r="AI9" s="163"/>
+      <c r="AJ9" s="163"/>
+      <c r="AK9" s="163"/>
+      <c r="AL9" s="163"/>
+      <c r="AM9" s="163"/>
+      <c r="AN9" s="163"/>
+      <c r="AO9" s="163"/>
+      <c r="AP9" s="163"/>
+      <c r="AQ9" s="163"/>
+      <c r="AR9" s="163"/>
+      <c r="AS9" s="163"/>
+      <c r="AT9" s="164"/>
     </row>
     <row r="10" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="90"/>
@@ -10280,45 +10292,45 @@
       <c r="I10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="192"/>
-      <c r="O10" s="192"/>
-      <c r="P10" s="192"/>
-      <c r="Q10" s="192"/>
-      <c r="R10" s="192"/>
-      <c r="S10" s="192"/>
-      <c r="T10" s="192"/>
-      <c r="U10" s="192"/>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192"/>
-      <c r="X10" s="192"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="193"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="193"/>
       <c r="Y10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="199"/>
-      <c r="AA10" s="200"/>
-      <c r="AB10" s="200"/>
-      <c r="AC10" s="200"/>
-      <c r="AD10" s="200"/>
-      <c r="AE10" s="200"/>
-      <c r="AF10" s="200"/>
-      <c r="AG10" s="200"/>
-      <c r="AH10" s="200"/>
-      <c r="AI10" s="200"/>
-      <c r="AJ10" s="200"/>
-      <c r="AK10" s="200"/>
-      <c r="AL10" s="200"/>
-      <c r="AM10" s="200"/>
-      <c r="AN10" s="200"/>
-      <c r="AO10" s="200"/>
-      <c r="AP10" s="200"/>
-      <c r="AQ10" s="200"/>
-      <c r="AR10" s="200"/>
-      <c r="AS10" s="200"/>
-      <c r="AT10" s="201"/>
+      <c r="Z10" s="195"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="163"/>
+      <c r="AI10" s="163"/>
+      <c r="AJ10" s="163"/>
+      <c r="AK10" s="163"/>
+      <c r="AL10" s="163"/>
+      <c r="AM10" s="163"/>
+      <c r="AN10" s="163"/>
+      <c r="AO10" s="163"/>
+      <c r="AP10" s="163"/>
+      <c r="AQ10" s="163"/>
+      <c r="AR10" s="163"/>
+      <c r="AS10" s="163"/>
+      <c r="AT10" s="164"/>
     </row>
     <row r="11" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="90"/>
@@ -10336,50 +10348,50 @@
       <c r="I11" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="192"/>
-      <c r="R11" s="192"/>
-      <c r="S11" s="192"/>
-      <c r="T11" s="192"/>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192"/>
-      <c r="X11" s="192"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
+      <c r="M11" s="193"/>
+      <c r="N11" s="193"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="193"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="193"/>
+      <c r="S11" s="193"/>
+      <c r="T11" s="193"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="193"/>
       <c r="Y11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="199"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="200"/>
-      <c r="AE11" s="200"/>
-      <c r="AF11" s="200"/>
-      <c r="AG11" s="200"/>
-      <c r="AH11" s="200"/>
-      <c r="AI11" s="200"/>
-      <c r="AJ11" s="200"/>
-      <c r="AK11" s="200"/>
-      <c r="AL11" s="200"/>
-      <c r="AM11" s="200"/>
-      <c r="AN11" s="200"/>
-      <c r="AO11" s="200"/>
-      <c r="AP11" s="200"/>
-      <c r="AQ11" s="200"/>
-      <c r="AR11" s="200"/>
-      <c r="AS11" s="200"/>
-      <c r="AT11" s="201"/>
+      <c r="Z11" s="195"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="163"/>
+      <c r="AI11" s="163"/>
+      <c r="AJ11" s="163"/>
+      <c r="AK11" s="163"/>
+      <c r="AL11" s="163"/>
+      <c r="AM11" s="163"/>
+      <c r="AN11" s="163"/>
+      <c r="AO11" s="163"/>
+      <c r="AP11" s="163"/>
+      <c r="AQ11" s="163"/>
+      <c r="AR11" s="163"/>
+      <c r="AS11" s="163"/>
+      <c r="AT11" s="164"/>
     </row>
     <row r="12" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="66" t="s">
         <v>164</v>
       </c>
@@ -10392,45 +10404,45 @@
       <c r="I12" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
       <c r="Y12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Z12" s="202"/>
-      <c r="AA12" s="203"/>
-      <c r="AB12" s="203"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="203"/>
-      <c r="AE12" s="203"/>
-      <c r="AF12" s="203"/>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="203"/>
-      <c r="AI12" s="203"/>
-      <c r="AJ12" s="203"/>
-      <c r="AK12" s="203"/>
-      <c r="AL12" s="203"/>
-      <c r="AM12" s="203"/>
-      <c r="AN12" s="203"/>
-      <c r="AO12" s="203"/>
-      <c r="AP12" s="203"/>
-      <c r="AQ12" s="203"/>
-      <c r="AR12" s="203"/>
-      <c r="AS12" s="203"/>
-      <c r="AT12" s="204"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="165"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="165"/>
+      <c r="AJ12" s="165"/>
+      <c r="AK12" s="165"/>
+      <c r="AL12" s="165"/>
+      <c r="AM12" s="165"/>
+      <c r="AN12" s="165"/>
+      <c r="AO12" s="165"/>
+      <c r="AP12" s="165"/>
+      <c r="AQ12" s="165"/>
+      <c r="AR12" s="165"/>
+      <c r="AS12" s="165"/>
+      <c r="AT12" s="166"/>
     </row>
     <row r="13" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="102" t="s">
@@ -10464,27 +10476,27 @@
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="87"/>
-      <c r="Z13" s="205"/>
-      <c r="AA13" s="206"/>
-      <c r="AB13" s="206"/>
-      <c r="AC13" s="206"/>
-      <c r="AD13" s="206"/>
-      <c r="AE13" s="206"/>
-      <c r="AF13" s="206"/>
-      <c r="AG13" s="206"/>
-      <c r="AH13" s="206"/>
-      <c r="AI13" s="206"/>
-      <c r="AJ13" s="206"/>
-      <c r="AK13" s="206"/>
-      <c r="AL13" s="206"/>
-      <c r="AM13" s="206"/>
-      <c r="AN13" s="206"/>
-      <c r="AO13" s="206"/>
-      <c r="AP13" s="206"/>
-      <c r="AQ13" s="206"/>
-      <c r="AR13" s="206"/>
-      <c r="AS13" s="206"/>
-      <c r="AT13" s="207"/>
+      <c r="Z13" s="200"/>
+      <c r="AA13" s="161"/>
+      <c r="AB13" s="161"/>
+      <c r="AC13" s="161"/>
+      <c r="AD13" s="161"/>
+      <c r="AE13" s="161"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="161"/>
+      <c r="AJ13" s="161"/>
+      <c r="AK13" s="161"/>
+      <c r="AL13" s="161"/>
+      <c r="AM13" s="161"/>
+      <c r="AN13" s="161"/>
+      <c r="AO13" s="161"/>
+      <c r="AP13" s="161"/>
+      <c r="AQ13" s="161"/>
+      <c r="AR13" s="161"/>
+      <c r="AS13" s="161"/>
+      <c r="AT13" s="162"/>
     </row>
     <row r="14" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="90"/>
@@ -10522,31 +10534,31 @@
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
       <c r="U14" s="39"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
       <c r="Y14" s="87"/>
-      <c r="Z14" s="199"/>
-      <c r="AA14" s="200"/>
-      <c r="AB14" s="200"/>
-      <c r="AC14" s="200"/>
-      <c r="AD14" s="200"/>
-      <c r="AE14" s="200"/>
-      <c r="AF14" s="200"/>
-      <c r="AG14" s="200"/>
-      <c r="AH14" s="200"/>
-      <c r="AI14" s="200"/>
-      <c r="AJ14" s="200"/>
-      <c r="AK14" s="200"/>
-      <c r="AL14" s="200"/>
-      <c r="AM14" s="200"/>
-      <c r="AN14" s="200"/>
-      <c r="AO14" s="200"/>
-      <c r="AP14" s="200"/>
-      <c r="AQ14" s="200"/>
-      <c r="AR14" s="200"/>
-      <c r="AS14" s="200"/>
-      <c r="AT14" s="201"/>
+      <c r="Z14" s="195"/>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="163"/>
+      <c r="AC14" s="163"/>
+      <c r="AD14" s="163"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="163"/>
+      <c r="AG14" s="163"/>
+      <c r="AH14" s="163"/>
+      <c r="AI14" s="163"/>
+      <c r="AJ14" s="163"/>
+      <c r="AK14" s="163"/>
+      <c r="AL14" s="163"/>
+      <c r="AM14" s="163"/>
+      <c r="AN14" s="163"/>
+      <c r="AO14" s="163"/>
+      <c r="AP14" s="163"/>
+      <c r="AQ14" s="163"/>
+      <c r="AR14" s="163"/>
+      <c r="AS14" s="163"/>
+      <c r="AT14" s="164"/>
     </row>
     <row r="15" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="90"/>
@@ -10584,27 +10596,27 @@
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="87"/>
-      <c r="Z15" s="199"/>
-      <c r="AA15" s="200"/>
-      <c r="AB15" s="200"/>
-      <c r="AC15" s="200"/>
-      <c r="AD15" s="200"/>
-      <c r="AE15" s="200"/>
-      <c r="AF15" s="200"/>
-      <c r="AG15" s="200"/>
-      <c r="AH15" s="200"/>
-      <c r="AI15" s="200"/>
-      <c r="AJ15" s="200"/>
-      <c r="AK15" s="200"/>
-      <c r="AL15" s="200"/>
-      <c r="AM15" s="200"/>
-      <c r="AN15" s="200"/>
-      <c r="AO15" s="200"/>
-      <c r="AP15" s="200"/>
-      <c r="AQ15" s="200"/>
-      <c r="AR15" s="200"/>
-      <c r="AS15" s="200"/>
-      <c r="AT15" s="201"/>
+      <c r="Z15" s="195"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="163"/>
+      <c r="AI15" s="163"/>
+      <c r="AJ15" s="163"/>
+      <c r="AK15" s="163"/>
+      <c r="AL15" s="163"/>
+      <c r="AM15" s="163"/>
+      <c r="AN15" s="163"/>
+      <c r="AO15" s="163"/>
+      <c r="AP15" s="163"/>
+      <c r="AQ15" s="163"/>
+      <c r="AR15" s="163"/>
+      <c r="AS15" s="163"/>
+      <c r="AT15" s="164"/>
     </row>
     <row r="16" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="90"/>
@@ -10636,27 +10648,27 @@
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
       <c r="Y16" s="87"/>
-      <c r="Z16" s="199"/>
-      <c r="AA16" s="200"/>
-      <c r="AB16" s="200"/>
-      <c r="AC16" s="200"/>
-      <c r="AD16" s="200"/>
-      <c r="AE16" s="200"/>
-      <c r="AF16" s="200"/>
-      <c r="AG16" s="200"/>
-      <c r="AH16" s="200"/>
-      <c r="AI16" s="200"/>
-      <c r="AJ16" s="200"/>
-      <c r="AK16" s="200"/>
-      <c r="AL16" s="200"/>
-      <c r="AM16" s="200"/>
-      <c r="AN16" s="200"/>
-      <c r="AO16" s="200"/>
-      <c r="AP16" s="200"/>
-      <c r="AQ16" s="200"/>
-      <c r="AR16" s="200"/>
-      <c r="AS16" s="200"/>
-      <c r="AT16" s="201"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
+      <c r="AC16" s="163"/>
+      <c r="AD16" s="163"/>
+      <c r="AE16" s="163"/>
+      <c r="AF16" s="163"/>
+      <c r="AG16" s="163"/>
+      <c r="AH16" s="163"/>
+      <c r="AI16" s="163"/>
+      <c r="AJ16" s="163"/>
+      <c r="AK16" s="163"/>
+      <c r="AL16" s="163"/>
+      <c r="AM16" s="163"/>
+      <c r="AN16" s="163"/>
+      <c r="AO16" s="163"/>
+      <c r="AP16" s="163"/>
+      <c r="AQ16" s="163"/>
+      <c r="AR16" s="163"/>
+      <c r="AS16" s="163"/>
+      <c r="AT16" s="164"/>
     </row>
     <row r="17" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="90"/>
@@ -10694,31 +10706,31 @@
       <c r="S17" s="39"/>
       <c r="T17" s="39"/>
       <c r="U17" s="39"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
       <c r="Y17" s="87"/>
-      <c r="Z17" s="199"/>
-      <c r="AA17" s="200"/>
-      <c r="AB17" s="200"/>
-      <c r="AC17" s="200"/>
-      <c r="AD17" s="200"/>
-      <c r="AE17" s="200"/>
-      <c r="AF17" s="200"/>
-      <c r="AG17" s="200"/>
-      <c r="AH17" s="200"/>
-      <c r="AI17" s="200"/>
-      <c r="AJ17" s="200"/>
-      <c r="AK17" s="200"/>
-      <c r="AL17" s="200"/>
-      <c r="AM17" s="200"/>
-      <c r="AN17" s="200"/>
-      <c r="AO17" s="200"/>
-      <c r="AP17" s="200"/>
-      <c r="AQ17" s="200"/>
-      <c r="AR17" s="200"/>
-      <c r="AS17" s="200"/>
-      <c r="AT17" s="201"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="163"/>
+      <c r="AB17" s="163"/>
+      <c r="AC17" s="163"/>
+      <c r="AD17" s="163"/>
+      <c r="AE17" s="163"/>
+      <c r="AF17" s="163"/>
+      <c r="AG17" s="163"/>
+      <c r="AH17" s="163"/>
+      <c r="AI17" s="163"/>
+      <c r="AJ17" s="163"/>
+      <c r="AK17" s="163"/>
+      <c r="AL17" s="163"/>
+      <c r="AM17" s="163"/>
+      <c r="AN17" s="163"/>
+      <c r="AO17" s="163"/>
+      <c r="AP17" s="163"/>
+      <c r="AQ17" s="163"/>
+      <c r="AR17" s="163"/>
+      <c r="AS17" s="163"/>
+      <c r="AT17" s="164"/>
     </row>
     <row r="18" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="90"/>
@@ -10740,11 +10752,11 @@
       <c r="K18" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
       <c r="Q18" s="39" t="s">
         <v>14</v>
       </c>
@@ -10756,27 +10768,27 @@
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="87"/>
-      <c r="Z18" s="199"/>
-      <c r="AA18" s="200"/>
-      <c r="AB18" s="200"/>
-      <c r="AC18" s="200"/>
-      <c r="AD18" s="200"/>
-      <c r="AE18" s="200"/>
-      <c r="AF18" s="200"/>
-      <c r="AG18" s="200"/>
-      <c r="AH18" s="200"/>
-      <c r="AI18" s="200"/>
-      <c r="AJ18" s="200"/>
-      <c r="AK18" s="200"/>
-      <c r="AL18" s="200"/>
-      <c r="AM18" s="200"/>
-      <c r="AN18" s="200"/>
-      <c r="AO18" s="200"/>
-      <c r="AP18" s="200"/>
-      <c r="AQ18" s="200"/>
-      <c r="AR18" s="200"/>
-      <c r="AS18" s="200"/>
-      <c r="AT18" s="201"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
+      <c r="AD18" s="163"/>
+      <c r="AE18" s="163"/>
+      <c r="AF18" s="163"/>
+      <c r="AG18" s="163"/>
+      <c r="AH18" s="163"/>
+      <c r="AI18" s="163"/>
+      <c r="AJ18" s="163"/>
+      <c r="AK18" s="163"/>
+      <c r="AL18" s="163"/>
+      <c r="AM18" s="163"/>
+      <c r="AN18" s="163"/>
+      <c r="AO18" s="163"/>
+      <c r="AP18" s="163"/>
+      <c r="AQ18" s="163"/>
+      <c r="AR18" s="163"/>
+      <c r="AS18" s="163"/>
+      <c r="AT18" s="164"/>
     </row>
     <row r="19" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="90"/>
@@ -10808,27 +10820,27 @@
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="87"/>
-      <c r="Z19" s="199"/>
-      <c r="AA19" s="200"/>
-      <c r="AB19" s="200"/>
-      <c r="AC19" s="200"/>
-      <c r="AD19" s="200"/>
-      <c r="AE19" s="200"/>
-      <c r="AF19" s="200"/>
-      <c r="AG19" s="200"/>
-      <c r="AH19" s="200"/>
-      <c r="AI19" s="200"/>
-      <c r="AJ19" s="200"/>
-      <c r="AK19" s="200"/>
-      <c r="AL19" s="200"/>
-      <c r="AM19" s="200"/>
-      <c r="AN19" s="200"/>
-      <c r="AO19" s="200"/>
-      <c r="AP19" s="200"/>
-      <c r="AQ19" s="200"/>
-      <c r="AR19" s="200"/>
-      <c r="AS19" s="200"/>
-      <c r="AT19" s="201"/>
+      <c r="Z19" s="195"/>
+      <c r="AA19" s="163"/>
+      <c r="AB19" s="163"/>
+      <c r="AC19" s="163"/>
+      <c r="AD19" s="163"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="163"/>
+      <c r="AG19" s="163"/>
+      <c r="AH19" s="163"/>
+      <c r="AI19" s="163"/>
+      <c r="AJ19" s="163"/>
+      <c r="AK19" s="163"/>
+      <c r="AL19" s="163"/>
+      <c r="AM19" s="163"/>
+      <c r="AN19" s="163"/>
+      <c r="AO19" s="163"/>
+      <c r="AP19" s="163"/>
+      <c r="AQ19" s="163"/>
+      <c r="AR19" s="163"/>
+      <c r="AS19" s="163"/>
+      <c r="AT19" s="164"/>
     </row>
     <row r="20" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="90"/>
@@ -10866,31 +10878,31 @@
       <c r="S20" s="39"/>
       <c r="T20" s="39"/>
       <c r="U20" s="39"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
       <c r="Y20" s="87"/>
-      <c r="Z20" s="199"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="200"/>
-      <c r="AC20" s="200"/>
-      <c r="AD20" s="200"/>
-      <c r="AE20" s="200"/>
-      <c r="AF20" s="200"/>
-      <c r="AG20" s="200"/>
-      <c r="AH20" s="200"/>
-      <c r="AI20" s="200"/>
-      <c r="AJ20" s="200"/>
-      <c r="AK20" s="200"/>
-      <c r="AL20" s="200"/>
-      <c r="AM20" s="200"/>
-      <c r="AN20" s="200"/>
-      <c r="AO20" s="200"/>
-      <c r="AP20" s="200"/>
-      <c r="AQ20" s="200"/>
-      <c r="AR20" s="200"/>
-      <c r="AS20" s="200"/>
-      <c r="AT20" s="201"/>
+      <c r="Z20" s="195"/>
+      <c r="AA20" s="163"/>
+      <c r="AB20" s="163"/>
+      <c r="AC20" s="163"/>
+      <c r="AD20" s="163"/>
+      <c r="AE20" s="163"/>
+      <c r="AF20" s="163"/>
+      <c r="AG20" s="163"/>
+      <c r="AH20" s="163"/>
+      <c r="AI20" s="163"/>
+      <c r="AJ20" s="163"/>
+      <c r="AK20" s="163"/>
+      <c r="AL20" s="163"/>
+      <c r="AM20" s="163"/>
+      <c r="AN20" s="163"/>
+      <c r="AO20" s="163"/>
+      <c r="AP20" s="163"/>
+      <c r="AQ20" s="163"/>
+      <c r="AR20" s="163"/>
+      <c r="AS20" s="163"/>
+      <c r="AT20" s="164"/>
     </row>
     <row r="21" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="90"/>
@@ -10912,11 +10924,11 @@
       <c r="K21" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="192"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="193"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="193"/>
       <c r="Q21" s="39" t="s">
         <v>14</v>
       </c>
@@ -10928,27 +10940,27 @@
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="87"/>
-      <c r="Z21" s="199"/>
-      <c r="AA21" s="200"/>
-      <c r="AB21" s="200"/>
-      <c r="AC21" s="200"/>
-      <c r="AD21" s="200"/>
-      <c r="AE21" s="200"/>
-      <c r="AF21" s="200"/>
-      <c r="AG21" s="200"/>
-      <c r="AH21" s="200"/>
-      <c r="AI21" s="200"/>
-      <c r="AJ21" s="200"/>
-      <c r="AK21" s="200"/>
-      <c r="AL21" s="200"/>
-      <c r="AM21" s="200"/>
-      <c r="AN21" s="200"/>
-      <c r="AO21" s="200"/>
-      <c r="AP21" s="200"/>
-      <c r="AQ21" s="200"/>
-      <c r="AR21" s="200"/>
-      <c r="AS21" s="200"/>
-      <c r="AT21" s="201"/>
+      <c r="Z21" s="195"/>
+      <c r="AA21" s="163"/>
+      <c r="AB21" s="163"/>
+      <c r="AC21" s="163"/>
+      <c r="AD21" s="163"/>
+      <c r="AE21" s="163"/>
+      <c r="AF21" s="163"/>
+      <c r="AG21" s="163"/>
+      <c r="AH21" s="163"/>
+      <c r="AI21" s="163"/>
+      <c r="AJ21" s="163"/>
+      <c r="AK21" s="163"/>
+      <c r="AL21" s="163"/>
+      <c r="AM21" s="163"/>
+      <c r="AN21" s="163"/>
+      <c r="AO21" s="163"/>
+      <c r="AP21" s="163"/>
+      <c r="AQ21" s="163"/>
+      <c r="AR21" s="163"/>
+      <c r="AS21" s="163"/>
+      <c r="AT21" s="164"/>
     </row>
     <row r="22" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="90"/>
@@ -10980,27 +10992,27 @@
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="87"/>
-      <c r="Z22" s="199"/>
-      <c r="AA22" s="200"/>
-      <c r="AB22" s="200"/>
-      <c r="AC22" s="200"/>
-      <c r="AD22" s="200"/>
-      <c r="AE22" s="200"/>
-      <c r="AF22" s="200"/>
-      <c r="AG22" s="200"/>
-      <c r="AH22" s="200"/>
-      <c r="AI22" s="200"/>
-      <c r="AJ22" s="200"/>
-      <c r="AK22" s="200"/>
-      <c r="AL22" s="200"/>
-      <c r="AM22" s="200"/>
-      <c r="AN22" s="200"/>
-      <c r="AO22" s="200"/>
-      <c r="AP22" s="200"/>
-      <c r="AQ22" s="200"/>
-      <c r="AR22" s="200"/>
-      <c r="AS22" s="200"/>
-      <c r="AT22" s="201"/>
+      <c r="Z22" s="195"/>
+      <c r="AA22" s="163"/>
+      <c r="AB22" s="163"/>
+      <c r="AC22" s="163"/>
+      <c r="AD22" s="163"/>
+      <c r="AE22" s="163"/>
+      <c r="AF22" s="163"/>
+      <c r="AG22" s="163"/>
+      <c r="AH22" s="163"/>
+      <c r="AI22" s="163"/>
+      <c r="AJ22" s="163"/>
+      <c r="AK22" s="163"/>
+      <c r="AL22" s="163"/>
+      <c r="AM22" s="163"/>
+      <c r="AN22" s="163"/>
+      <c r="AO22" s="163"/>
+      <c r="AP22" s="163"/>
+      <c r="AQ22" s="163"/>
+      <c r="AR22" s="163"/>
+      <c r="AS22" s="163"/>
+      <c r="AT22" s="164"/>
     </row>
     <row r="23" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="90"/>
@@ -11038,31 +11050,31 @@
       <c r="S23" s="39"/>
       <c r="T23" s="39"/>
       <c r="U23" s="39"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
       <c r="Y23" s="87"/>
-      <c r="Z23" s="199"/>
-      <c r="AA23" s="200"/>
-      <c r="AB23" s="200"/>
-      <c r="AC23" s="200"/>
-      <c r="AD23" s="200"/>
-      <c r="AE23" s="200"/>
-      <c r="AF23" s="200"/>
-      <c r="AG23" s="200"/>
-      <c r="AH23" s="200"/>
-      <c r="AI23" s="200"/>
-      <c r="AJ23" s="200"/>
-      <c r="AK23" s="200"/>
-      <c r="AL23" s="200"/>
-      <c r="AM23" s="200"/>
-      <c r="AN23" s="200"/>
-      <c r="AO23" s="200"/>
-      <c r="AP23" s="200"/>
-      <c r="AQ23" s="200"/>
-      <c r="AR23" s="200"/>
-      <c r="AS23" s="200"/>
-      <c r="AT23" s="201"/>
+      <c r="Z23" s="195"/>
+      <c r="AA23" s="163"/>
+      <c r="AB23" s="163"/>
+      <c r="AC23" s="163"/>
+      <c r="AD23" s="163"/>
+      <c r="AE23" s="163"/>
+      <c r="AF23" s="163"/>
+      <c r="AG23" s="163"/>
+      <c r="AH23" s="163"/>
+      <c r="AI23" s="163"/>
+      <c r="AJ23" s="163"/>
+      <c r="AK23" s="163"/>
+      <c r="AL23" s="163"/>
+      <c r="AM23" s="163"/>
+      <c r="AN23" s="163"/>
+      <c r="AO23" s="163"/>
+      <c r="AP23" s="163"/>
+      <c r="AQ23" s="163"/>
+      <c r="AR23" s="163"/>
+      <c r="AS23" s="163"/>
+      <c r="AT23" s="164"/>
     </row>
     <row r="24" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="90"/>
@@ -11081,11 +11093,11 @@
       <c r="H24" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="193"/>
+      <c r="M24" s="193"/>
       <c r="N24" s="39" t="s">
         <v>14</v>
       </c>
@@ -11100,27 +11112,27 @@
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
       <c r="Y24" s="87"/>
-      <c r="Z24" s="199"/>
-      <c r="AA24" s="200"/>
-      <c r="AB24" s="200"/>
-      <c r="AC24" s="200"/>
-      <c r="AD24" s="200"/>
-      <c r="AE24" s="200"/>
-      <c r="AF24" s="200"/>
-      <c r="AG24" s="200"/>
-      <c r="AH24" s="200"/>
-      <c r="AI24" s="200"/>
-      <c r="AJ24" s="200"/>
-      <c r="AK24" s="200"/>
-      <c r="AL24" s="200"/>
-      <c r="AM24" s="200"/>
-      <c r="AN24" s="200"/>
-      <c r="AO24" s="200"/>
-      <c r="AP24" s="200"/>
-      <c r="AQ24" s="200"/>
-      <c r="AR24" s="200"/>
-      <c r="AS24" s="200"/>
-      <c r="AT24" s="201"/>
+      <c r="Z24" s="195"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="163"/>
+      <c r="AC24" s="163"/>
+      <c r="AD24" s="163"/>
+      <c r="AE24" s="163"/>
+      <c r="AF24" s="163"/>
+      <c r="AG24" s="163"/>
+      <c r="AH24" s="163"/>
+      <c r="AI24" s="163"/>
+      <c r="AJ24" s="163"/>
+      <c r="AK24" s="163"/>
+      <c r="AL24" s="163"/>
+      <c r="AM24" s="163"/>
+      <c r="AN24" s="163"/>
+      <c r="AO24" s="163"/>
+      <c r="AP24" s="163"/>
+      <c r="AQ24" s="163"/>
+      <c r="AR24" s="163"/>
+      <c r="AS24" s="163"/>
+      <c r="AT24" s="164"/>
     </row>
     <row r="25" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="90"/>
@@ -11152,27 +11164,27 @@
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="87"/>
-      <c r="Z25" s="199"/>
-      <c r="AA25" s="200"/>
-      <c r="AB25" s="200"/>
-      <c r="AC25" s="200"/>
-      <c r="AD25" s="200"/>
-      <c r="AE25" s="200"/>
-      <c r="AF25" s="200"/>
-      <c r="AG25" s="200"/>
-      <c r="AH25" s="200"/>
-      <c r="AI25" s="200"/>
-      <c r="AJ25" s="200"/>
-      <c r="AK25" s="200"/>
-      <c r="AL25" s="200"/>
-      <c r="AM25" s="200"/>
-      <c r="AN25" s="200"/>
-      <c r="AO25" s="200"/>
-      <c r="AP25" s="200"/>
-      <c r="AQ25" s="200"/>
-      <c r="AR25" s="200"/>
-      <c r="AS25" s="200"/>
-      <c r="AT25" s="201"/>
+      <c r="Z25" s="195"/>
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="163"/>
+      <c r="AC25" s="163"/>
+      <c r="AD25" s="163"/>
+      <c r="AE25" s="163"/>
+      <c r="AF25" s="163"/>
+      <c r="AG25" s="163"/>
+      <c r="AH25" s="163"/>
+      <c r="AI25" s="163"/>
+      <c r="AJ25" s="163"/>
+      <c r="AK25" s="163"/>
+      <c r="AL25" s="163"/>
+      <c r="AM25" s="163"/>
+      <c r="AN25" s="163"/>
+      <c r="AO25" s="163"/>
+      <c r="AP25" s="163"/>
+      <c r="AQ25" s="163"/>
+      <c r="AR25" s="163"/>
+      <c r="AS25" s="163"/>
+      <c r="AT25" s="164"/>
     </row>
     <row r="26" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="90"/>
@@ -11210,31 +11222,31 @@
       <c r="S26" s="39"/>
       <c r="T26" s="39"/>
       <c r="U26" s="39"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
       <c r="Y26" s="87"/>
-      <c r="Z26" s="199"/>
-      <c r="AA26" s="200"/>
-      <c r="AB26" s="200"/>
-      <c r="AC26" s="200"/>
-      <c r="AD26" s="200"/>
-      <c r="AE26" s="200"/>
-      <c r="AF26" s="200"/>
-      <c r="AG26" s="200"/>
-      <c r="AH26" s="200"/>
-      <c r="AI26" s="200"/>
-      <c r="AJ26" s="200"/>
-      <c r="AK26" s="200"/>
-      <c r="AL26" s="200"/>
-      <c r="AM26" s="200"/>
-      <c r="AN26" s="200"/>
-      <c r="AO26" s="200"/>
-      <c r="AP26" s="200"/>
-      <c r="AQ26" s="200"/>
-      <c r="AR26" s="200"/>
-      <c r="AS26" s="200"/>
-      <c r="AT26" s="201"/>
+      <c r="Z26" s="195"/>
+      <c r="AA26" s="163"/>
+      <c r="AB26" s="163"/>
+      <c r="AC26" s="163"/>
+      <c r="AD26" s="163"/>
+      <c r="AE26" s="163"/>
+      <c r="AF26" s="163"/>
+      <c r="AG26" s="163"/>
+      <c r="AH26" s="163"/>
+      <c r="AI26" s="163"/>
+      <c r="AJ26" s="163"/>
+      <c r="AK26" s="163"/>
+      <c r="AL26" s="163"/>
+      <c r="AM26" s="163"/>
+      <c r="AN26" s="163"/>
+      <c r="AO26" s="163"/>
+      <c r="AP26" s="163"/>
+      <c r="AQ26" s="163"/>
+      <c r="AR26" s="163"/>
+      <c r="AS26" s="163"/>
+      <c r="AT26" s="164"/>
     </row>
     <row r="27" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="90"/>
@@ -11253,11 +11265,11 @@
       <c r="H27" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="193"/>
       <c r="N27" s="39" t="s">
         <v>14</v>
       </c>
@@ -11272,27 +11284,27 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
       <c r="Y27" s="87"/>
-      <c r="Z27" s="199"/>
-      <c r="AA27" s="200"/>
-      <c r="AB27" s="200"/>
-      <c r="AC27" s="200"/>
-      <c r="AD27" s="200"/>
-      <c r="AE27" s="200"/>
-      <c r="AF27" s="200"/>
-      <c r="AG27" s="200"/>
-      <c r="AH27" s="200"/>
-      <c r="AI27" s="200"/>
-      <c r="AJ27" s="200"/>
-      <c r="AK27" s="200"/>
-      <c r="AL27" s="200"/>
-      <c r="AM27" s="200"/>
-      <c r="AN27" s="200"/>
-      <c r="AO27" s="200"/>
-      <c r="AP27" s="200"/>
-      <c r="AQ27" s="200"/>
-      <c r="AR27" s="200"/>
-      <c r="AS27" s="200"/>
-      <c r="AT27" s="201"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="163"/>
+      <c r="AC27" s="163"/>
+      <c r="AD27" s="163"/>
+      <c r="AE27" s="163"/>
+      <c r="AF27" s="163"/>
+      <c r="AG27" s="163"/>
+      <c r="AH27" s="163"/>
+      <c r="AI27" s="163"/>
+      <c r="AJ27" s="163"/>
+      <c r="AK27" s="163"/>
+      <c r="AL27" s="163"/>
+      <c r="AM27" s="163"/>
+      <c r="AN27" s="163"/>
+      <c r="AO27" s="163"/>
+      <c r="AP27" s="163"/>
+      <c r="AQ27" s="163"/>
+      <c r="AR27" s="163"/>
+      <c r="AS27" s="163"/>
+      <c r="AT27" s="164"/>
     </row>
     <row r="28" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="90"/>
@@ -11324,27 +11336,27 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="87"/>
-      <c r="Z28" s="199"/>
-      <c r="AA28" s="200"/>
-      <c r="AB28" s="200"/>
-      <c r="AC28" s="200"/>
-      <c r="AD28" s="200"/>
-      <c r="AE28" s="200"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="200"/>
-      <c r="AH28" s="200"/>
-      <c r="AI28" s="200"/>
-      <c r="AJ28" s="200"/>
-      <c r="AK28" s="200"/>
-      <c r="AL28" s="200"/>
-      <c r="AM28" s="200"/>
-      <c r="AN28" s="200"/>
-      <c r="AO28" s="200"/>
-      <c r="AP28" s="200"/>
-      <c r="AQ28" s="200"/>
-      <c r="AR28" s="200"/>
-      <c r="AS28" s="200"/>
-      <c r="AT28" s="201"/>
+      <c r="Z28" s="195"/>
+      <c r="AA28" s="163"/>
+      <c r="AB28" s="163"/>
+      <c r="AC28" s="163"/>
+      <c r="AD28" s="163"/>
+      <c r="AE28" s="163"/>
+      <c r="AF28" s="163"/>
+      <c r="AG28" s="163"/>
+      <c r="AH28" s="163"/>
+      <c r="AI28" s="163"/>
+      <c r="AJ28" s="163"/>
+      <c r="AK28" s="163"/>
+      <c r="AL28" s="163"/>
+      <c r="AM28" s="163"/>
+      <c r="AN28" s="163"/>
+      <c r="AO28" s="163"/>
+      <c r="AP28" s="163"/>
+      <c r="AQ28" s="163"/>
+      <c r="AR28" s="163"/>
+      <c r="AS28" s="163"/>
+      <c r="AT28" s="164"/>
     </row>
     <row r="29" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="90"/>
@@ -11396,27 +11408,27 @@
         <v>14</v>
       </c>
       <c r="Y29" s="87"/>
-      <c r="Z29" s="199"/>
-      <c r="AA29" s="200"/>
-      <c r="AB29" s="200"/>
-      <c r="AC29" s="200"/>
-      <c r="AD29" s="200"/>
-      <c r="AE29" s="200"/>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="200"/>
-      <c r="AH29" s="200"/>
-      <c r="AI29" s="200"/>
-      <c r="AJ29" s="200"/>
-      <c r="AK29" s="200"/>
-      <c r="AL29" s="200"/>
-      <c r="AM29" s="200"/>
-      <c r="AN29" s="200"/>
-      <c r="AO29" s="200"/>
-      <c r="AP29" s="200"/>
-      <c r="AQ29" s="200"/>
-      <c r="AR29" s="200"/>
-      <c r="AS29" s="200"/>
-      <c r="AT29" s="201"/>
+      <c r="Z29" s="195"/>
+      <c r="AA29" s="163"/>
+      <c r="AB29" s="163"/>
+      <c r="AC29" s="163"/>
+      <c r="AD29" s="163"/>
+      <c r="AE29" s="163"/>
+      <c r="AF29" s="163"/>
+      <c r="AG29" s="163"/>
+      <c r="AH29" s="163"/>
+      <c r="AI29" s="163"/>
+      <c r="AJ29" s="163"/>
+      <c r="AK29" s="163"/>
+      <c r="AL29" s="163"/>
+      <c r="AM29" s="163"/>
+      <c r="AN29" s="163"/>
+      <c r="AO29" s="163"/>
+      <c r="AP29" s="163"/>
+      <c r="AQ29" s="163"/>
+      <c r="AR29" s="163"/>
+      <c r="AS29" s="163"/>
+      <c r="AT29" s="164"/>
     </row>
     <row r="30" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="90"/>
@@ -11453,38 +11465,38 @@
         <v>254</v>
       </c>
       <c r="P30" s="49"/>
-      <c r="Q30" s="192"/>
-      <c r="R30" s="192"/>
-      <c r="S30" s="192"/>
-      <c r="T30" s="192"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="192"/>
+      <c r="Q30" s="193"/>
+      <c r="R30" s="193"/>
+      <c r="S30" s="193"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
+      <c r="V30" s="193"/>
       <c r="W30" s="39" t="s">
         <v>85</v>
       </c>
       <c r="X30" s="39"/>
       <c r="Y30" s="87"/>
-      <c r="Z30" s="199"/>
-      <c r="AA30" s="200"/>
-      <c r="AB30" s="200"/>
-      <c r="AC30" s="200"/>
-      <c r="AD30" s="200"/>
-      <c r="AE30" s="200"/>
-      <c r="AF30" s="200"/>
-      <c r="AG30" s="200"/>
-      <c r="AH30" s="200"/>
-      <c r="AI30" s="200"/>
-      <c r="AJ30" s="200"/>
-      <c r="AK30" s="200"/>
-      <c r="AL30" s="200"/>
-      <c r="AM30" s="200"/>
-      <c r="AN30" s="200"/>
-      <c r="AO30" s="200"/>
-      <c r="AP30" s="200"/>
-      <c r="AQ30" s="200"/>
-      <c r="AR30" s="200"/>
-      <c r="AS30" s="200"/>
-      <c r="AT30" s="201"/>
+      <c r="Z30" s="195"/>
+      <c r="AA30" s="163"/>
+      <c r="AB30" s="163"/>
+      <c r="AC30" s="163"/>
+      <c r="AD30" s="163"/>
+      <c r="AE30" s="163"/>
+      <c r="AF30" s="163"/>
+      <c r="AG30" s="163"/>
+      <c r="AH30" s="163"/>
+      <c r="AI30" s="163"/>
+      <c r="AJ30" s="163"/>
+      <c r="AK30" s="163"/>
+      <c r="AL30" s="163"/>
+      <c r="AM30" s="163"/>
+      <c r="AN30" s="163"/>
+      <c r="AO30" s="163"/>
+      <c r="AP30" s="163"/>
+      <c r="AQ30" s="163"/>
+      <c r="AR30" s="163"/>
+      <c r="AS30" s="163"/>
+      <c r="AT30" s="164"/>
     </row>
     <row r="31" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="90"/>
@@ -11516,27 +11528,27 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
       <c r="Y31" s="87"/>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="200"/>
-      <c r="AB31" s="200"/>
-      <c r="AC31" s="200"/>
-      <c r="AD31" s="200"/>
-      <c r="AE31" s="200"/>
-      <c r="AF31" s="200"/>
-      <c r="AG31" s="200"/>
-      <c r="AH31" s="200"/>
-      <c r="AI31" s="200"/>
-      <c r="AJ31" s="200"/>
-      <c r="AK31" s="200"/>
-      <c r="AL31" s="200"/>
-      <c r="AM31" s="200"/>
-      <c r="AN31" s="200"/>
-      <c r="AO31" s="200"/>
-      <c r="AP31" s="200"/>
-      <c r="AQ31" s="200"/>
-      <c r="AR31" s="200"/>
-      <c r="AS31" s="200"/>
-      <c r="AT31" s="201"/>
+      <c r="Z31" s="195"/>
+      <c r="AA31" s="163"/>
+      <c r="AB31" s="163"/>
+      <c r="AC31" s="163"/>
+      <c r="AD31" s="163"/>
+      <c r="AE31" s="163"/>
+      <c r="AF31" s="163"/>
+      <c r="AG31" s="163"/>
+      <c r="AH31" s="163"/>
+      <c r="AI31" s="163"/>
+      <c r="AJ31" s="163"/>
+      <c r="AK31" s="163"/>
+      <c r="AL31" s="163"/>
+      <c r="AM31" s="163"/>
+      <c r="AN31" s="163"/>
+      <c r="AO31" s="163"/>
+      <c r="AP31" s="163"/>
+      <c r="AQ31" s="163"/>
+      <c r="AR31" s="163"/>
+      <c r="AS31" s="163"/>
+      <c r="AT31" s="164"/>
     </row>
     <row r="32" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="90"/>
@@ -11574,31 +11586,31 @@
       <c r="S32" s="39"/>
       <c r="T32" s="39"/>
       <c r="U32" s="39"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="125"/>
       <c r="Y32" s="87"/>
-      <c r="Z32" s="199"/>
-      <c r="AA32" s="200"/>
-      <c r="AB32" s="200"/>
-      <c r="AC32" s="200"/>
-      <c r="AD32" s="200"/>
-      <c r="AE32" s="200"/>
-      <c r="AF32" s="200"/>
-      <c r="AG32" s="200"/>
-      <c r="AH32" s="200"/>
-      <c r="AI32" s="200"/>
-      <c r="AJ32" s="200"/>
-      <c r="AK32" s="200"/>
-      <c r="AL32" s="200"/>
-      <c r="AM32" s="200"/>
-      <c r="AN32" s="200"/>
-      <c r="AO32" s="200"/>
-      <c r="AP32" s="200"/>
-      <c r="AQ32" s="200"/>
-      <c r="AR32" s="200"/>
-      <c r="AS32" s="200"/>
-      <c r="AT32" s="201"/>
+      <c r="Z32" s="195"/>
+      <c r="AA32" s="163"/>
+      <c r="AB32" s="163"/>
+      <c r="AC32" s="163"/>
+      <c r="AD32" s="163"/>
+      <c r="AE32" s="163"/>
+      <c r="AF32" s="163"/>
+      <c r="AG32" s="163"/>
+      <c r="AH32" s="163"/>
+      <c r="AI32" s="163"/>
+      <c r="AJ32" s="163"/>
+      <c r="AK32" s="163"/>
+      <c r="AL32" s="163"/>
+      <c r="AM32" s="163"/>
+      <c r="AN32" s="163"/>
+      <c r="AO32" s="163"/>
+      <c r="AP32" s="163"/>
+      <c r="AQ32" s="163"/>
+      <c r="AR32" s="163"/>
+      <c r="AS32" s="163"/>
+      <c r="AT32" s="164"/>
     </row>
     <row r="33" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="90"/>
@@ -11640,27 +11652,27 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
       <c r="Y33" s="87"/>
-      <c r="Z33" s="199"/>
-      <c r="AA33" s="200"/>
-      <c r="AB33" s="200"/>
-      <c r="AC33" s="200"/>
-      <c r="AD33" s="200"/>
-      <c r="AE33" s="200"/>
-      <c r="AF33" s="200"/>
-      <c r="AG33" s="200"/>
-      <c r="AH33" s="200"/>
-      <c r="AI33" s="200"/>
-      <c r="AJ33" s="200"/>
-      <c r="AK33" s="200"/>
-      <c r="AL33" s="200"/>
-      <c r="AM33" s="200"/>
-      <c r="AN33" s="200"/>
-      <c r="AO33" s="200"/>
-      <c r="AP33" s="200"/>
-      <c r="AQ33" s="200"/>
-      <c r="AR33" s="200"/>
-      <c r="AS33" s="200"/>
-      <c r="AT33" s="201"/>
+      <c r="Z33" s="195"/>
+      <c r="AA33" s="163"/>
+      <c r="AB33" s="163"/>
+      <c r="AC33" s="163"/>
+      <c r="AD33" s="163"/>
+      <c r="AE33" s="163"/>
+      <c r="AF33" s="163"/>
+      <c r="AG33" s="163"/>
+      <c r="AH33" s="163"/>
+      <c r="AI33" s="163"/>
+      <c r="AJ33" s="163"/>
+      <c r="AK33" s="163"/>
+      <c r="AL33" s="163"/>
+      <c r="AM33" s="163"/>
+      <c r="AN33" s="163"/>
+      <c r="AO33" s="163"/>
+      <c r="AP33" s="163"/>
+      <c r="AQ33" s="163"/>
+      <c r="AR33" s="163"/>
+      <c r="AS33" s="163"/>
+      <c r="AT33" s="164"/>
     </row>
     <row r="34" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="90"/>
@@ -11677,11 +11689,11 @@
       <c r="H34" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="192"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="193"/>
+      <c r="K34" s="193"/>
+      <c r="L34" s="193"/>
+      <c r="M34" s="193"/>
       <c r="N34" s="39" t="s">
         <v>14</v>
       </c>
@@ -11696,27 +11708,27 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
       <c r="Y34" s="87"/>
-      <c r="Z34" s="199"/>
-      <c r="AA34" s="200"/>
-      <c r="AB34" s="200"/>
-      <c r="AC34" s="200"/>
-      <c r="AD34" s="200"/>
-      <c r="AE34" s="200"/>
-      <c r="AF34" s="200"/>
-      <c r="AG34" s="200"/>
-      <c r="AH34" s="200"/>
-      <c r="AI34" s="200"/>
-      <c r="AJ34" s="200"/>
-      <c r="AK34" s="200"/>
-      <c r="AL34" s="200"/>
-      <c r="AM34" s="200"/>
-      <c r="AN34" s="200"/>
-      <c r="AO34" s="200"/>
-      <c r="AP34" s="200"/>
-      <c r="AQ34" s="200"/>
-      <c r="AR34" s="200"/>
-      <c r="AS34" s="200"/>
-      <c r="AT34" s="201"/>
+      <c r="Z34" s="195"/>
+      <c r="AA34" s="163"/>
+      <c r="AB34" s="163"/>
+      <c r="AC34" s="163"/>
+      <c r="AD34" s="163"/>
+      <c r="AE34" s="163"/>
+      <c r="AF34" s="163"/>
+      <c r="AG34" s="163"/>
+      <c r="AH34" s="163"/>
+      <c r="AI34" s="163"/>
+      <c r="AJ34" s="163"/>
+      <c r="AK34" s="163"/>
+      <c r="AL34" s="163"/>
+      <c r="AM34" s="163"/>
+      <c r="AN34" s="163"/>
+      <c r="AO34" s="163"/>
+      <c r="AP34" s="163"/>
+      <c r="AQ34" s="163"/>
+      <c r="AR34" s="163"/>
+      <c r="AS34" s="163"/>
+      <c r="AT34" s="164"/>
     </row>
     <row r="35" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="90"/>
@@ -11756,27 +11768,27 @@
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="87"/>
-      <c r="Z35" s="199"/>
-      <c r="AA35" s="200"/>
-      <c r="AB35" s="200"/>
-      <c r="AC35" s="200"/>
-      <c r="AD35" s="200"/>
-      <c r="AE35" s="200"/>
-      <c r="AF35" s="200"/>
-      <c r="AG35" s="200"/>
-      <c r="AH35" s="200"/>
-      <c r="AI35" s="200"/>
-      <c r="AJ35" s="200"/>
-      <c r="AK35" s="200"/>
-      <c r="AL35" s="200"/>
-      <c r="AM35" s="200"/>
-      <c r="AN35" s="200"/>
-      <c r="AO35" s="200"/>
-      <c r="AP35" s="200"/>
-      <c r="AQ35" s="200"/>
-      <c r="AR35" s="200"/>
-      <c r="AS35" s="200"/>
-      <c r="AT35" s="201"/>
+      <c r="Z35" s="195"/>
+      <c r="AA35" s="163"/>
+      <c r="AB35" s="163"/>
+      <c r="AC35" s="163"/>
+      <c r="AD35" s="163"/>
+      <c r="AE35" s="163"/>
+      <c r="AF35" s="163"/>
+      <c r="AG35" s="163"/>
+      <c r="AH35" s="163"/>
+      <c r="AI35" s="163"/>
+      <c r="AJ35" s="163"/>
+      <c r="AK35" s="163"/>
+      <c r="AL35" s="163"/>
+      <c r="AM35" s="163"/>
+      <c r="AN35" s="163"/>
+      <c r="AO35" s="163"/>
+      <c r="AP35" s="163"/>
+      <c r="AQ35" s="163"/>
+      <c r="AR35" s="163"/>
+      <c r="AS35" s="163"/>
+      <c r="AT35" s="164"/>
     </row>
     <row r="36" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="90"/>
@@ -11816,27 +11828,27 @@
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="87"/>
-      <c r="Z36" s="199"/>
-      <c r="AA36" s="200"/>
-      <c r="AB36" s="200"/>
-      <c r="AC36" s="200"/>
-      <c r="AD36" s="200"/>
-      <c r="AE36" s="200"/>
-      <c r="AF36" s="200"/>
-      <c r="AG36" s="200"/>
-      <c r="AH36" s="200"/>
-      <c r="AI36" s="200"/>
-      <c r="AJ36" s="200"/>
-      <c r="AK36" s="200"/>
-      <c r="AL36" s="200"/>
-      <c r="AM36" s="200"/>
-      <c r="AN36" s="200"/>
-      <c r="AO36" s="200"/>
-      <c r="AP36" s="200"/>
-      <c r="AQ36" s="200"/>
-      <c r="AR36" s="200"/>
-      <c r="AS36" s="200"/>
-      <c r="AT36" s="201"/>
+      <c r="Z36" s="195"/>
+      <c r="AA36" s="163"/>
+      <c r="AB36" s="163"/>
+      <c r="AC36" s="163"/>
+      <c r="AD36" s="163"/>
+      <c r="AE36" s="163"/>
+      <c r="AF36" s="163"/>
+      <c r="AG36" s="163"/>
+      <c r="AH36" s="163"/>
+      <c r="AI36" s="163"/>
+      <c r="AJ36" s="163"/>
+      <c r="AK36" s="163"/>
+      <c r="AL36" s="163"/>
+      <c r="AM36" s="163"/>
+      <c r="AN36" s="163"/>
+      <c r="AO36" s="163"/>
+      <c r="AP36" s="163"/>
+      <c r="AQ36" s="163"/>
+      <c r="AR36" s="163"/>
+      <c r="AS36" s="163"/>
+      <c r="AT36" s="164"/>
     </row>
     <row r="37" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="90"/>
@@ -11876,27 +11888,27 @@
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
       <c r="Y37" s="87"/>
-      <c r="Z37" s="199"/>
-      <c r="AA37" s="200"/>
-      <c r="AB37" s="200"/>
-      <c r="AC37" s="200"/>
-      <c r="AD37" s="200"/>
-      <c r="AE37" s="200"/>
-      <c r="AF37" s="200"/>
-      <c r="AG37" s="200"/>
-      <c r="AH37" s="200"/>
-      <c r="AI37" s="200"/>
-      <c r="AJ37" s="200"/>
-      <c r="AK37" s="200"/>
-      <c r="AL37" s="200"/>
-      <c r="AM37" s="200"/>
-      <c r="AN37" s="200"/>
-      <c r="AO37" s="200"/>
-      <c r="AP37" s="200"/>
-      <c r="AQ37" s="200"/>
-      <c r="AR37" s="200"/>
-      <c r="AS37" s="200"/>
-      <c r="AT37" s="201"/>
+      <c r="Z37" s="195"/>
+      <c r="AA37" s="163"/>
+      <c r="AB37" s="163"/>
+      <c r="AC37" s="163"/>
+      <c r="AD37" s="163"/>
+      <c r="AE37" s="163"/>
+      <c r="AF37" s="163"/>
+      <c r="AG37" s="163"/>
+      <c r="AH37" s="163"/>
+      <c r="AI37" s="163"/>
+      <c r="AJ37" s="163"/>
+      <c r="AK37" s="163"/>
+      <c r="AL37" s="163"/>
+      <c r="AM37" s="163"/>
+      <c r="AN37" s="163"/>
+      <c r="AO37" s="163"/>
+      <c r="AP37" s="163"/>
+      <c r="AQ37" s="163"/>
+      <c r="AR37" s="163"/>
+      <c r="AS37" s="163"/>
+      <c r="AT37" s="164"/>
     </row>
     <row r="38" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="90"/>
@@ -11934,27 +11946,27 @@
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
       <c r="Y38" s="87"/>
-      <c r="Z38" s="199"/>
-      <c r="AA38" s="200"/>
-      <c r="AB38" s="200"/>
-      <c r="AC38" s="200"/>
-      <c r="AD38" s="200"/>
-      <c r="AE38" s="200"/>
-      <c r="AF38" s="200"/>
-      <c r="AG38" s="200"/>
-      <c r="AH38" s="200"/>
-      <c r="AI38" s="200"/>
-      <c r="AJ38" s="200"/>
-      <c r="AK38" s="200"/>
-      <c r="AL38" s="200"/>
-      <c r="AM38" s="200"/>
-      <c r="AN38" s="200"/>
-      <c r="AO38" s="200"/>
-      <c r="AP38" s="200"/>
-      <c r="AQ38" s="200"/>
-      <c r="AR38" s="200"/>
-      <c r="AS38" s="200"/>
-      <c r="AT38" s="201"/>
+      <c r="Z38" s="195"/>
+      <c r="AA38" s="163"/>
+      <c r="AB38" s="163"/>
+      <c r="AC38" s="163"/>
+      <c r="AD38" s="163"/>
+      <c r="AE38" s="163"/>
+      <c r="AF38" s="163"/>
+      <c r="AG38" s="163"/>
+      <c r="AH38" s="163"/>
+      <c r="AI38" s="163"/>
+      <c r="AJ38" s="163"/>
+      <c r="AK38" s="163"/>
+      <c r="AL38" s="163"/>
+      <c r="AM38" s="163"/>
+      <c r="AN38" s="163"/>
+      <c r="AO38" s="163"/>
+      <c r="AP38" s="163"/>
+      <c r="AQ38" s="163"/>
+      <c r="AR38" s="163"/>
+      <c r="AS38" s="163"/>
+      <c r="AT38" s="164"/>
     </row>
     <row r="39" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="90"/>
@@ -11992,27 +12004,27 @@
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
       <c r="Y39" s="87"/>
-      <c r="Z39" s="199"/>
-      <c r="AA39" s="200"/>
-      <c r="AB39" s="200"/>
-      <c r="AC39" s="200"/>
-      <c r="AD39" s="200"/>
-      <c r="AE39" s="200"/>
-      <c r="AF39" s="200"/>
-      <c r="AG39" s="200"/>
-      <c r="AH39" s="200"/>
-      <c r="AI39" s="200"/>
-      <c r="AJ39" s="200"/>
-      <c r="AK39" s="200"/>
-      <c r="AL39" s="200"/>
-      <c r="AM39" s="200"/>
-      <c r="AN39" s="200"/>
-      <c r="AO39" s="200"/>
-      <c r="AP39" s="200"/>
-      <c r="AQ39" s="200"/>
-      <c r="AR39" s="200"/>
-      <c r="AS39" s="200"/>
-      <c r="AT39" s="201"/>
+      <c r="Z39" s="195"/>
+      <c r="AA39" s="163"/>
+      <c r="AB39" s="163"/>
+      <c r="AC39" s="163"/>
+      <c r="AD39" s="163"/>
+      <c r="AE39" s="163"/>
+      <c r="AF39" s="163"/>
+      <c r="AG39" s="163"/>
+      <c r="AH39" s="163"/>
+      <c r="AI39" s="163"/>
+      <c r="AJ39" s="163"/>
+      <c r="AK39" s="163"/>
+      <c r="AL39" s="163"/>
+      <c r="AM39" s="163"/>
+      <c r="AN39" s="163"/>
+      <c r="AO39" s="163"/>
+      <c r="AP39" s="163"/>
+      <c r="AQ39" s="163"/>
+      <c r="AR39" s="163"/>
+      <c r="AS39" s="163"/>
+      <c r="AT39" s="164"/>
     </row>
     <row r="40" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="90"/>
@@ -12044,27 +12056,27 @@
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
       <c r="Y40" s="87"/>
-      <c r="Z40" s="199"/>
-      <c r="AA40" s="200"/>
-      <c r="AB40" s="200"/>
-      <c r="AC40" s="200"/>
-      <c r="AD40" s="200"/>
-      <c r="AE40" s="200"/>
-      <c r="AF40" s="200"/>
-      <c r="AG40" s="200"/>
-      <c r="AH40" s="200"/>
-      <c r="AI40" s="200"/>
-      <c r="AJ40" s="200"/>
-      <c r="AK40" s="200"/>
-      <c r="AL40" s="200"/>
-      <c r="AM40" s="200"/>
-      <c r="AN40" s="200"/>
-      <c r="AO40" s="200"/>
-      <c r="AP40" s="200"/>
-      <c r="AQ40" s="200"/>
-      <c r="AR40" s="200"/>
-      <c r="AS40" s="200"/>
-      <c r="AT40" s="201"/>
+      <c r="Z40" s="195"/>
+      <c r="AA40" s="163"/>
+      <c r="AB40" s="163"/>
+      <c r="AC40" s="163"/>
+      <c r="AD40" s="163"/>
+      <c r="AE40" s="163"/>
+      <c r="AF40" s="163"/>
+      <c r="AG40" s="163"/>
+      <c r="AH40" s="163"/>
+      <c r="AI40" s="163"/>
+      <c r="AJ40" s="163"/>
+      <c r="AK40" s="163"/>
+      <c r="AL40" s="163"/>
+      <c r="AM40" s="163"/>
+      <c r="AN40" s="163"/>
+      <c r="AO40" s="163"/>
+      <c r="AP40" s="163"/>
+      <c r="AQ40" s="163"/>
+      <c r="AR40" s="163"/>
+      <c r="AS40" s="163"/>
+      <c r="AT40" s="164"/>
     </row>
     <row r="41" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="90"/>
@@ -12100,37 +12112,37 @@
       <c r="Q41" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="R41" s="192"/>
-      <c r="S41" s="192"/>
-      <c r="T41" s="192"/>
-      <c r="U41" s="192"/>
-      <c r="V41" s="192"/>
+      <c r="R41" s="193"/>
+      <c r="S41" s="193"/>
+      <c r="T41" s="193"/>
+      <c r="U41" s="193"/>
+      <c r="V41" s="193"/>
       <c r="W41" s="39" t="s">
         <v>14</v>
       </c>
       <c r="X41" s="39"/>
       <c r="Y41" s="87"/>
-      <c r="Z41" s="199"/>
-      <c r="AA41" s="200"/>
-      <c r="AB41" s="200"/>
-      <c r="AC41" s="200"/>
-      <c r="AD41" s="200"/>
-      <c r="AE41" s="200"/>
-      <c r="AF41" s="200"/>
-      <c r="AG41" s="200"/>
-      <c r="AH41" s="200"/>
-      <c r="AI41" s="200"/>
-      <c r="AJ41" s="200"/>
-      <c r="AK41" s="200"/>
-      <c r="AL41" s="200"/>
-      <c r="AM41" s="200"/>
-      <c r="AN41" s="200"/>
-      <c r="AO41" s="200"/>
-      <c r="AP41" s="200"/>
-      <c r="AQ41" s="200"/>
-      <c r="AR41" s="200"/>
-      <c r="AS41" s="200"/>
-      <c r="AT41" s="201"/>
+      <c r="Z41" s="195"/>
+      <c r="AA41" s="163"/>
+      <c r="AB41" s="163"/>
+      <c r="AC41" s="163"/>
+      <c r="AD41" s="163"/>
+      <c r="AE41" s="163"/>
+      <c r="AF41" s="163"/>
+      <c r="AG41" s="163"/>
+      <c r="AH41" s="163"/>
+      <c r="AI41" s="163"/>
+      <c r="AJ41" s="163"/>
+      <c r="AK41" s="163"/>
+      <c r="AL41" s="163"/>
+      <c r="AM41" s="163"/>
+      <c r="AN41" s="163"/>
+      <c r="AO41" s="163"/>
+      <c r="AP41" s="163"/>
+      <c r="AQ41" s="163"/>
+      <c r="AR41" s="163"/>
+      <c r="AS41" s="163"/>
+      <c r="AT41" s="164"/>
     </row>
     <row r="42" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="90"/>
@@ -12162,27 +12174,27 @@
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
       <c r="Y42" s="87"/>
-      <c r="Z42" s="199"/>
-      <c r="AA42" s="200"/>
-      <c r="AB42" s="200"/>
-      <c r="AC42" s="200"/>
-      <c r="AD42" s="200"/>
-      <c r="AE42" s="200"/>
-      <c r="AF42" s="200"/>
-      <c r="AG42" s="200"/>
-      <c r="AH42" s="200"/>
-      <c r="AI42" s="200"/>
-      <c r="AJ42" s="200"/>
-      <c r="AK42" s="200"/>
-      <c r="AL42" s="200"/>
-      <c r="AM42" s="200"/>
-      <c r="AN42" s="200"/>
-      <c r="AO42" s="200"/>
-      <c r="AP42" s="200"/>
-      <c r="AQ42" s="200"/>
-      <c r="AR42" s="200"/>
-      <c r="AS42" s="200"/>
-      <c r="AT42" s="201"/>
+      <c r="Z42" s="195"/>
+      <c r="AA42" s="163"/>
+      <c r="AB42" s="163"/>
+      <c r="AC42" s="163"/>
+      <c r="AD42" s="163"/>
+      <c r="AE42" s="163"/>
+      <c r="AF42" s="163"/>
+      <c r="AG42" s="163"/>
+      <c r="AH42" s="163"/>
+      <c r="AI42" s="163"/>
+      <c r="AJ42" s="163"/>
+      <c r="AK42" s="163"/>
+      <c r="AL42" s="163"/>
+      <c r="AM42" s="163"/>
+      <c r="AN42" s="163"/>
+      <c r="AO42" s="163"/>
+      <c r="AP42" s="163"/>
+      <c r="AQ42" s="163"/>
+      <c r="AR42" s="163"/>
+      <c r="AS42" s="163"/>
+      <c r="AT42" s="164"/>
     </row>
     <row r="43" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="90"/>
@@ -12218,37 +12230,37 @@
       <c r="Q43" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="R43" s="192"/>
-      <c r="S43" s="192"/>
-      <c r="T43" s="192"/>
-      <c r="U43" s="192"/>
-      <c r="V43" s="192"/>
+      <c r="R43" s="193"/>
+      <c r="S43" s="193"/>
+      <c r="T43" s="193"/>
+      <c r="U43" s="193"/>
+      <c r="V43" s="193"/>
       <c r="W43" s="39" t="s">
         <v>14</v>
       </c>
       <c r="X43" s="39"/>
       <c r="Y43" s="87"/>
-      <c r="Z43" s="199"/>
-      <c r="AA43" s="200"/>
-      <c r="AB43" s="200"/>
-      <c r="AC43" s="200"/>
-      <c r="AD43" s="200"/>
-      <c r="AE43" s="200"/>
-      <c r="AF43" s="200"/>
-      <c r="AG43" s="200"/>
-      <c r="AH43" s="200"/>
-      <c r="AI43" s="200"/>
-      <c r="AJ43" s="200"/>
-      <c r="AK43" s="200"/>
-      <c r="AL43" s="200"/>
-      <c r="AM43" s="200"/>
-      <c r="AN43" s="200"/>
-      <c r="AO43" s="200"/>
-      <c r="AP43" s="200"/>
-      <c r="AQ43" s="200"/>
-      <c r="AR43" s="200"/>
-      <c r="AS43" s="200"/>
-      <c r="AT43" s="201"/>
+      <c r="Z43" s="195"/>
+      <c r="AA43" s="163"/>
+      <c r="AB43" s="163"/>
+      <c r="AC43" s="163"/>
+      <c r="AD43" s="163"/>
+      <c r="AE43" s="163"/>
+      <c r="AF43" s="163"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="163"/>
+      <c r="AI43" s="163"/>
+      <c r="AJ43" s="163"/>
+      <c r="AK43" s="163"/>
+      <c r="AL43" s="163"/>
+      <c r="AM43" s="163"/>
+      <c r="AN43" s="163"/>
+      <c r="AO43" s="163"/>
+      <c r="AP43" s="163"/>
+      <c r="AQ43" s="163"/>
+      <c r="AR43" s="163"/>
+      <c r="AS43" s="163"/>
+      <c r="AT43" s="164"/>
     </row>
     <row r="44" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="90"/>
@@ -12280,27 +12292,27 @@
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
       <c r="Y44" s="87"/>
-      <c r="Z44" s="199"/>
-      <c r="AA44" s="200"/>
-      <c r="AB44" s="200"/>
-      <c r="AC44" s="200"/>
-      <c r="AD44" s="200"/>
-      <c r="AE44" s="200"/>
-      <c r="AF44" s="200"/>
-      <c r="AG44" s="200"/>
-      <c r="AH44" s="200"/>
-      <c r="AI44" s="200"/>
-      <c r="AJ44" s="200"/>
-      <c r="AK44" s="200"/>
-      <c r="AL44" s="200"/>
-      <c r="AM44" s="200"/>
-      <c r="AN44" s="200"/>
-      <c r="AO44" s="200"/>
-      <c r="AP44" s="200"/>
-      <c r="AQ44" s="200"/>
-      <c r="AR44" s="200"/>
-      <c r="AS44" s="200"/>
-      <c r="AT44" s="201"/>
+      <c r="Z44" s="195"/>
+      <c r="AA44" s="163"/>
+      <c r="AB44" s="163"/>
+      <c r="AC44" s="163"/>
+      <c r="AD44" s="163"/>
+      <c r="AE44" s="163"/>
+      <c r="AF44" s="163"/>
+      <c r="AG44" s="163"/>
+      <c r="AH44" s="163"/>
+      <c r="AI44" s="163"/>
+      <c r="AJ44" s="163"/>
+      <c r="AK44" s="163"/>
+      <c r="AL44" s="163"/>
+      <c r="AM44" s="163"/>
+      <c r="AN44" s="163"/>
+      <c r="AO44" s="163"/>
+      <c r="AP44" s="163"/>
+      <c r="AQ44" s="163"/>
+      <c r="AR44" s="163"/>
+      <c r="AS44" s="163"/>
+      <c r="AT44" s="164"/>
     </row>
     <row r="45" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="90"/>
@@ -12338,27 +12350,27 @@
       <c r="W45" s="39"/>
       <c r="X45" s="39"/>
       <c r="Y45" s="87"/>
-      <c r="Z45" s="199"/>
-      <c r="AA45" s="200"/>
-      <c r="AB45" s="200"/>
-      <c r="AC45" s="200"/>
-      <c r="AD45" s="200"/>
-      <c r="AE45" s="200"/>
-      <c r="AF45" s="200"/>
-      <c r="AG45" s="200"/>
-      <c r="AH45" s="200"/>
-      <c r="AI45" s="200"/>
-      <c r="AJ45" s="200"/>
-      <c r="AK45" s="200"/>
-      <c r="AL45" s="200"/>
-      <c r="AM45" s="200"/>
-      <c r="AN45" s="200"/>
-      <c r="AO45" s="200"/>
-      <c r="AP45" s="200"/>
-      <c r="AQ45" s="200"/>
-      <c r="AR45" s="200"/>
-      <c r="AS45" s="200"/>
-      <c r="AT45" s="201"/>
+      <c r="Z45" s="195"/>
+      <c r="AA45" s="163"/>
+      <c r="AB45" s="163"/>
+      <c r="AC45" s="163"/>
+      <c r="AD45" s="163"/>
+      <c r="AE45" s="163"/>
+      <c r="AF45" s="163"/>
+      <c r="AG45" s="163"/>
+      <c r="AH45" s="163"/>
+      <c r="AI45" s="163"/>
+      <c r="AJ45" s="163"/>
+      <c r="AK45" s="163"/>
+      <c r="AL45" s="163"/>
+      <c r="AM45" s="163"/>
+      <c r="AN45" s="163"/>
+      <c r="AO45" s="163"/>
+      <c r="AP45" s="163"/>
+      <c r="AQ45" s="163"/>
+      <c r="AR45" s="163"/>
+      <c r="AS45" s="163"/>
+      <c r="AT45" s="164"/>
     </row>
     <row r="46" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="90"/>
@@ -12390,27 +12402,27 @@
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
       <c r="Y46" s="87"/>
-      <c r="Z46" s="199"/>
-      <c r="AA46" s="200"/>
-      <c r="AB46" s="200"/>
-      <c r="AC46" s="200"/>
-      <c r="AD46" s="200"/>
-      <c r="AE46" s="200"/>
-      <c r="AF46" s="200"/>
-      <c r="AG46" s="200"/>
-      <c r="AH46" s="200"/>
-      <c r="AI46" s="200"/>
-      <c r="AJ46" s="200"/>
-      <c r="AK46" s="200"/>
-      <c r="AL46" s="200"/>
-      <c r="AM46" s="200"/>
-      <c r="AN46" s="200"/>
-      <c r="AO46" s="200"/>
-      <c r="AP46" s="200"/>
-      <c r="AQ46" s="200"/>
-      <c r="AR46" s="200"/>
-      <c r="AS46" s="200"/>
-      <c r="AT46" s="201"/>
+      <c r="Z46" s="195"/>
+      <c r="AA46" s="163"/>
+      <c r="AB46" s="163"/>
+      <c r="AC46" s="163"/>
+      <c r="AD46" s="163"/>
+      <c r="AE46" s="163"/>
+      <c r="AF46" s="163"/>
+      <c r="AG46" s="163"/>
+      <c r="AH46" s="163"/>
+      <c r="AI46" s="163"/>
+      <c r="AJ46" s="163"/>
+      <c r="AK46" s="163"/>
+      <c r="AL46" s="163"/>
+      <c r="AM46" s="163"/>
+      <c r="AN46" s="163"/>
+      <c r="AO46" s="163"/>
+      <c r="AP46" s="163"/>
+      <c r="AQ46" s="163"/>
+      <c r="AR46" s="163"/>
+      <c r="AS46" s="163"/>
+      <c r="AT46" s="164"/>
     </row>
     <row r="47" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="90"/>
@@ -12448,27 +12460,27 @@
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
       <c r="Y47" s="87"/>
-      <c r="Z47" s="199"/>
-      <c r="AA47" s="200"/>
-      <c r="AB47" s="200"/>
-      <c r="AC47" s="200"/>
-      <c r="AD47" s="200"/>
-      <c r="AE47" s="200"/>
-      <c r="AF47" s="200"/>
-      <c r="AG47" s="200"/>
-      <c r="AH47" s="200"/>
-      <c r="AI47" s="200"/>
-      <c r="AJ47" s="200"/>
-      <c r="AK47" s="200"/>
-      <c r="AL47" s="200"/>
-      <c r="AM47" s="200"/>
-      <c r="AN47" s="200"/>
-      <c r="AO47" s="200"/>
-      <c r="AP47" s="200"/>
-      <c r="AQ47" s="200"/>
-      <c r="AR47" s="200"/>
-      <c r="AS47" s="200"/>
-      <c r="AT47" s="201"/>
+      <c r="Z47" s="195"/>
+      <c r="AA47" s="163"/>
+      <c r="AB47" s="163"/>
+      <c r="AC47" s="163"/>
+      <c r="AD47" s="163"/>
+      <c r="AE47" s="163"/>
+      <c r="AF47" s="163"/>
+      <c r="AG47" s="163"/>
+      <c r="AH47" s="163"/>
+      <c r="AI47" s="163"/>
+      <c r="AJ47" s="163"/>
+      <c r="AK47" s="163"/>
+      <c r="AL47" s="163"/>
+      <c r="AM47" s="163"/>
+      <c r="AN47" s="163"/>
+      <c r="AO47" s="163"/>
+      <c r="AP47" s="163"/>
+      <c r="AQ47" s="163"/>
+      <c r="AR47" s="163"/>
+      <c r="AS47" s="163"/>
+      <c r="AT47" s="164"/>
     </row>
     <row r="48" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="90"/>
@@ -12510,32 +12522,32 @@
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
       <c r="Y48" s="87"/>
-      <c r="Z48" s="199"/>
-      <c r="AA48" s="200"/>
-      <c r="AB48" s="200"/>
-      <c r="AC48" s="200"/>
-      <c r="AD48" s="200"/>
-      <c r="AE48" s="200"/>
-      <c r="AF48" s="200"/>
-      <c r="AG48" s="200"/>
-      <c r="AH48" s="200"/>
-      <c r="AI48" s="200"/>
-      <c r="AJ48" s="200"/>
-      <c r="AK48" s="200"/>
-      <c r="AL48" s="200"/>
-      <c r="AM48" s="200"/>
-      <c r="AN48" s="200"/>
-      <c r="AO48" s="200"/>
-      <c r="AP48" s="200"/>
-      <c r="AQ48" s="200"/>
-      <c r="AR48" s="200"/>
-      <c r="AS48" s="200"/>
-      <c r="AT48" s="201"/>
+      <c r="Z48" s="195"/>
+      <c r="AA48" s="163"/>
+      <c r="AB48" s="163"/>
+      <c r="AC48" s="163"/>
+      <c r="AD48" s="163"/>
+      <c r="AE48" s="163"/>
+      <c r="AF48" s="163"/>
+      <c r="AG48" s="163"/>
+      <c r="AH48" s="163"/>
+      <c r="AI48" s="163"/>
+      <c r="AJ48" s="163"/>
+      <c r="AK48" s="163"/>
+      <c r="AL48" s="163"/>
+      <c r="AM48" s="163"/>
+      <c r="AN48" s="163"/>
+      <c r="AO48" s="163"/>
+      <c r="AP48" s="163"/>
+      <c r="AQ48" s="163"/>
+      <c r="AR48" s="163"/>
+      <c r="AS48" s="163"/>
+      <c r="AT48" s="164"/>
     </row>
     <row r="49" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="100"/>
       <c r="B49" s="101"/>
-      <c r="C49" s="113"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="31"/>
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
@@ -12558,27 +12570,27 @@
       <c r="W49" s="43"/>
       <c r="X49" s="43"/>
       <c r="Y49" s="77"/>
-      <c r="Z49" s="202"/>
-      <c r="AA49" s="203"/>
-      <c r="AB49" s="203"/>
-      <c r="AC49" s="203"/>
-      <c r="AD49" s="203"/>
-      <c r="AE49" s="203"/>
-      <c r="AF49" s="203"/>
-      <c r="AG49" s="203"/>
-      <c r="AH49" s="203"/>
-      <c r="AI49" s="203"/>
-      <c r="AJ49" s="203"/>
-      <c r="AK49" s="203"/>
-      <c r="AL49" s="203"/>
-      <c r="AM49" s="203"/>
-      <c r="AN49" s="203"/>
-      <c r="AO49" s="203"/>
-      <c r="AP49" s="203"/>
-      <c r="AQ49" s="203"/>
-      <c r="AR49" s="203"/>
-      <c r="AS49" s="203"/>
-      <c r="AT49" s="204"/>
+      <c r="Z49" s="196"/>
+      <c r="AA49" s="165"/>
+      <c r="AB49" s="165"/>
+      <c r="AC49" s="165"/>
+      <c r="AD49" s="165"/>
+      <c r="AE49" s="165"/>
+      <c r="AF49" s="165"/>
+      <c r="AG49" s="165"/>
+      <c r="AH49" s="165"/>
+      <c r="AI49" s="165"/>
+      <c r="AJ49" s="165"/>
+      <c r="AK49" s="165"/>
+      <c r="AL49" s="165"/>
+      <c r="AM49" s="165"/>
+      <c r="AN49" s="165"/>
+      <c r="AO49" s="165"/>
+      <c r="AP49" s="165"/>
+      <c r="AQ49" s="165"/>
+      <c r="AR49" s="165"/>
+      <c r="AS49" s="165"/>
+      <c r="AT49" s="166"/>
     </row>
     <row r="50" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12650,46 +12662,46 @@
       <c r="H52" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="I52" s="208"/>
-      <c r="J52" s="208"/>
-      <c r="K52" s="208"/>
-      <c r="L52" s="208"/>
-      <c r="M52" s="208"/>
-      <c r="N52" s="208"/>
-      <c r="O52" s="208"/>
-      <c r="P52" s="208"/>
-      <c r="Q52" s="208"/>
-      <c r="R52" s="208"/>
-      <c r="S52" s="208"/>
-      <c r="T52" s="208"/>
-      <c r="U52" s="208"/>
-      <c r="V52" s="208"/>
-      <c r="W52" s="208"/>
+      <c r="I52" s="201"/>
+      <c r="J52" s="201"/>
+      <c r="K52" s="201"/>
+      <c r="L52" s="201"/>
+      <c r="M52" s="201"/>
+      <c r="N52" s="201"/>
+      <c r="O52" s="201"/>
+      <c r="P52" s="201"/>
+      <c r="Q52" s="201"/>
+      <c r="R52" s="201"/>
+      <c r="S52" s="201"/>
+      <c r="T52" s="201"/>
+      <c r="U52" s="201"/>
+      <c r="V52" s="201"/>
+      <c r="W52" s="201"/>
       <c r="X52" s="38" t="s">
         <v>14</v>
       </c>
       <c r="Y52" s="79"/>
-      <c r="Z52" s="205"/>
-      <c r="AA52" s="206"/>
-      <c r="AB52" s="206"/>
-      <c r="AC52" s="206"/>
-      <c r="AD52" s="206"/>
-      <c r="AE52" s="206"/>
-      <c r="AF52" s="206"/>
-      <c r="AG52" s="206"/>
-      <c r="AH52" s="206"/>
-      <c r="AI52" s="206"/>
-      <c r="AJ52" s="206"/>
-      <c r="AK52" s="206"/>
-      <c r="AL52" s="206"/>
-      <c r="AM52" s="206"/>
-      <c r="AN52" s="206"/>
-      <c r="AO52" s="206"/>
-      <c r="AP52" s="206"/>
-      <c r="AQ52" s="206"/>
-      <c r="AR52" s="206"/>
-      <c r="AS52" s="206"/>
-      <c r="AT52" s="207"/>
+      <c r="Z52" s="200"/>
+      <c r="AA52" s="161"/>
+      <c r="AB52" s="161"/>
+      <c r="AC52" s="161"/>
+      <c r="AD52" s="161"/>
+      <c r="AE52" s="161"/>
+      <c r="AF52" s="161"/>
+      <c r="AG52" s="161"/>
+      <c r="AH52" s="161"/>
+      <c r="AI52" s="161"/>
+      <c r="AJ52" s="161"/>
+      <c r="AK52" s="161"/>
+      <c r="AL52" s="161"/>
+      <c r="AM52" s="161"/>
+      <c r="AN52" s="161"/>
+      <c r="AO52" s="161"/>
+      <c r="AP52" s="161"/>
+      <c r="AQ52" s="161"/>
+      <c r="AR52" s="161"/>
+      <c r="AS52" s="161"/>
+      <c r="AT52" s="162"/>
     </row>
     <row r="53" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="90"/>
@@ -12706,46 +12718,46 @@
       <c r="H53" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I53" s="192"/>
-      <c r="J53" s="192"/>
-      <c r="K53" s="192"/>
-      <c r="L53" s="192"/>
-      <c r="M53" s="192"/>
-      <c r="N53" s="192"/>
-      <c r="O53" s="192"/>
-      <c r="P53" s="192"/>
-      <c r="Q53" s="192"/>
-      <c r="R53" s="192"/>
-      <c r="S53" s="192"/>
-      <c r="T53" s="192"/>
-      <c r="U53" s="192"/>
-      <c r="V53" s="192"/>
-      <c r="W53" s="192"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="193"/>
+      <c r="K53" s="193"/>
+      <c r="L53" s="193"/>
+      <c r="M53" s="193"/>
+      <c r="N53" s="193"/>
+      <c r="O53" s="193"/>
+      <c r="P53" s="193"/>
+      <c r="Q53" s="193"/>
+      <c r="R53" s="193"/>
+      <c r="S53" s="193"/>
+      <c r="T53" s="193"/>
+      <c r="U53" s="193"/>
+      <c r="V53" s="193"/>
+      <c r="W53" s="193"/>
       <c r="X53" s="48" t="s">
         <v>14</v>
       </c>
       <c r="Y53" s="80"/>
-      <c r="Z53" s="199"/>
-      <c r="AA53" s="200"/>
-      <c r="AB53" s="200"/>
-      <c r="AC53" s="200"/>
-      <c r="AD53" s="200"/>
-      <c r="AE53" s="200"/>
-      <c r="AF53" s="200"/>
-      <c r="AG53" s="200"/>
-      <c r="AH53" s="200"/>
-      <c r="AI53" s="200"/>
-      <c r="AJ53" s="200"/>
-      <c r="AK53" s="200"/>
-      <c r="AL53" s="200"/>
-      <c r="AM53" s="200"/>
-      <c r="AN53" s="200"/>
-      <c r="AO53" s="200"/>
-      <c r="AP53" s="200"/>
-      <c r="AQ53" s="200"/>
-      <c r="AR53" s="200"/>
-      <c r="AS53" s="200"/>
-      <c r="AT53" s="201"/>
+      <c r="Z53" s="195"/>
+      <c r="AA53" s="163"/>
+      <c r="AB53" s="163"/>
+      <c r="AC53" s="163"/>
+      <c r="AD53" s="163"/>
+      <c r="AE53" s="163"/>
+      <c r="AF53" s="163"/>
+      <c r="AG53" s="163"/>
+      <c r="AH53" s="163"/>
+      <c r="AI53" s="163"/>
+      <c r="AJ53" s="163"/>
+      <c r="AK53" s="163"/>
+      <c r="AL53" s="163"/>
+      <c r="AM53" s="163"/>
+      <c r="AN53" s="163"/>
+      <c r="AO53" s="163"/>
+      <c r="AP53" s="163"/>
+      <c r="AQ53" s="163"/>
+      <c r="AR53" s="163"/>
+      <c r="AS53" s="163"/>
+      <c r="AT53" s="164"/>
     </row>
     <row r="54" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="90"/>
@@ -12762,46 +12774,46 @@
       <c r="H54" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I54" s="192"/>
-      <c r="J54" s="192"/>
-      <c r="K54" s="192"/>
-      <c r="L54" s="192"/>
-      <c r="M54" s="192"/>
-      <c r="N54" s="192"/>
-      <c r="O54" s="192"/>
-      <c r="P54" s="192"/>
-      <c r="Q54" s="192"/>
-      <c r="R54" s="192"/>
-      <c r="S54" s="192"/>
-      <c r="T54" s="192"/>
-      <c r="U54" s="192"/>
-      <c r="V54" s="192"/>
-      <c r="W54" s="192"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="193"/>
+      <c r="K54" s="193"/>
+      <c r="L54" s="193"/>
+      <c r="M54" s="193"/>
+      <c r="N54" s="193"/>
+      <c r="O54" s="193"/>
+      <c r="P54" s="193"/>
+      <c r="Q54" s="193"/>
+      <c r="R54" s="193"/>
+      <c r="S54" s="193"/>
+      <c r="T54" s="193"/>
+      <c r="U54" s="193"/>
+      <c r="V54" s="193"/>
+      <c r="W54" s="193"/>
       <c r="X54" s="48" t="s">
         <v>14</v>
       </c>
       <c r="Y54" s="80"/>
-      <c r="Z54" s="202"/>
-      <c r="AA54" s="203"/>
-      <c r="AB54" s="203"/>
-      <c r="AC54" s="203"/>
-      <c r="AD54" s="203"/>
-      <c r="AE54" s="203"/>
-      <c r="AF54" s="203"/>
-      <c r="AG54" s="203"/>
-      <c r="AH54" s="203"/>
-      <c r="AI54" s="203"/>
-      <c r="AJ54" s="203"/>
-      <c r="AK54" s="203"/>
-      <c r="AL54" s="203"/>
-      <c r="AM54" s="203"/>
-      <c r="AN54" s="203"/>
-      <c r="AO54" s="203"/>
-      <c r="AP54" s="203"/>
-      <c r="AQ54" s="203"/>
-      <c r="AR54" s="203"/>
-      <c r="AS54" s="203"/>
-      <c r="AT54" s="204"/>
+      <c r="Z54" s="196"/>
+      <c r="AA54" s="165"/>
+      <c r="AB54" s="165"/>
+      <c r="AC54" s="165"/>
+      <c r="AD54" s="165"/>
+      <c r="AE54" s="165"/>
+      <c r="AF54" s="165"/>
+      <c r="AG54" s="165"/>
+      <c r="AH54" s="165"/>
+      <c r="AI54" s="165"/>
+      <c r="AJ54" s="165"/>
+      <c r="AK54" s="165"/>
+      <c r="AL54" s="165"/>
+      <c r="AM54" s="165"/>
+      <c r="AN54" s="165"/>
+      <c r="AO54" s="165"/>
+      <c r="AP54" s="165"/>
+      <c r="AQ54" s="165"/>
+      <c r="AR54" s="165"/>
+      <c r="AS54" s="165"/>
+      <c r="AT54" s="166"/>
     </row>
     <row r="55" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="102" t="s">
@@ -12821,45 +12833,45 @@
       <c r="I55" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J55" s="208"/>
-      <c r="K55" s="208"/>
-      <c r="L55" s="208"/>
-      <c r="M55" s="208"/>
-      <c r="N55" s="208"/>
-      <c r="O55" s="208"/>
-      <c r="P55" s="208"/>
-      <c r="Q55" s="208"/>
-      <c r="R55" s="208"/>
-      <c r="S55" s="208"/>
-      <c r="T55" s="208"/>
-      <c r="U55" s="208"/>
-      <c r="V55" s="208"/>
-      <c r="W55" s="208"/>
+      <c r="J55" s="201"/>
+      <c r="K55" s="201"/>
+      <c r="L55" s="201"/>
+      <c r="M55" s="201"/>
+      <c r="N55" s="201"/>
+      <c r="O55" s="201"/>
+      <c r="P55" s="201"/>
+      <c r="Q55" s="201"/>
+      <c r="R55" s="201"/>
+      <c r="S55" s="201"/>
+      <c r="T55" s="201"/>
+      <c r="U55" s="201"/>
+      <c r="V55" s="201"/>
+      <c r="W55" s="201"/>
       <c r="X55" s="38" t="s">
         <v>14</v>
       </c>
       <c r="Y55" s="79"/>
-      <c r="Z55" s="205"/>
-      <c r="AA55" s="206"/>
-      <c r="AB55" s="206"/>
-      <c r="AC55" s="206"/>
-      <c r="AD55" s="206"/>
-      <c r="AE55" s="206"/>
-      <c r="AF55" s="206"/>
-      <c r="AG55" s="206"/>
-      <c r="AH55" s="206"/>
-      <c r="AI55" s="206"/>
-      <c r="AJ55" s="206"/>
-      <c r="AK55" s="206"/>
-      <c r="AL55" s="206"/>
-      <c r="AM55" s="206"/>
-      <c r="AN55" s="206"/>
-      <c r="AO55" s="206"/>
-      <c r="AP55" s="206"/>
-      <c r="AQ55" s="206"/>
-      <c r="AR55" s="206"/>
-      <c r="AS55" s="206"/>
-      <c r="AT55" s="207"/>
+      <c r="Z55" s="200"/>
+      <c r="AA55" s="161"/>
+      <c r="AB55" s="161"/>
+      <c r="AC55" s="161"/>
+      <c r="AD55" s="161"/>
+      <c r="AE55" s="161"/>
+      <c r="AF55" s="161"/>
+      <c r="AG55" s="161"/>
+      <c r="AH55" s="161"/>
+      <c r="AI55" s="161"/>
+      <c r="AJ55" s="161"/>
+      <c r="AK55" s="161"/>
+      <c r="AL55" s="161"/>
+      <c r="AM55" s="161"/>
+      <c r="AN55" s="161"/>
+      <c r="AO55" s="161"/>
+      <c r="AP55" s="161"/>
+      <c r="AQ55" s="161"/>
+      <c r="AR55" s="161"/>
+      <c r="AS55" s="161"/>
+      <c r="AT55" s="162"/>
     </row>
     <row r="56" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="90"/>
@@ -12877,45 +12889,45 @@
       <c r="I56" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="192"/>
-      <c r="K56" s="192"/>
-      <c r="L56" s="192"/>
-      <c r="M56" s="192"/>
-      <c r="N56" s="192"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="192"/>
-      <c r="R56" s="192"/>
-      <c r="S56" s="192"/>
-      <c r="T56" s="192"/>
-      <c r="U56" s="192"/>
-      <c r="V56" s="192"/>
-      <c r="W56" s="192"/>
+      <c r="J56" s="193"/>
+      <c r="K56" s="193"/>
+      <c r="L56" s="193"/>
+      <c r="M56" s="193"/>
+      <c r="N56" s="193"/>
+      <c r="O56" s="193"/>
+      <c r="P56" s="193"/>
+      <c r="Q56" s="193"/>
+      <c r="R56" s="193"/>
+      <c r="S56" s="193"/>
+      <c r="T56" s="193"/>
+      <c r="U56" s="193"/>
+      <c r="V56" s="193"/>
+      <c r="W56" s="193"/>
       <c r="X56" s="48" t="s">
         <v>14</v>
       </c>
       <c r="Y56" s="80"/>
-      <c r="Z56" s="199"/>
-      <c r="AA56" s="200"/>
-      <c r="AB56" s="200"/>
-      <c r="AC56" s="200"/>
-      <c r="AD56" s="200"/>
-      <c r="AE56" s="200"/>
-      <c r="AF56" s="200"/>
-      <c r="AG56" s="200"/>
-      <c r="AH56" s="200"/>
-      <c r="AI56" s="200"/>
-      <c r="AJ56" s="200"/>
-      <c r="AK56" s="200"/>
-      <c r="AL56" s="200"/>
-      <c r="AM56" s="200"/>
-      <c r="AN56" s="200"/>
-      <c r="AO56" s="200"/>
-      <c r="AP56" s="200"/>
-      <c r="AQ56" s="200"/>
-      <c r="AR56" s="200"/>
-      <c r="AS56" s="200"/>
-      <c r="AT56" s="201"/>
+      <c r="Z56" s="195"/>
+      <c r="AA56" s="163"/>
+      <c r="AB56" s="163"/>
+      <c r="AC56" s="163"/>
+      <c r="AD56" s="163"/>
+      <c r="AE56" s="163"/>
+      <c r="AF56" s="163"/>
+      <c r="AG56" s="163"/>
+      <c r="AH56" s="163"/>
+      <c r="AI56" s="163"/>
+      <c r="AJ56" s="163"/>
+      <c r="AK56" s="163"/>
+      <c r="AL56" s="163"/>
+      <c r="AM56" s="163"/>
+      <c r="AN56" s="163"/>
+      <c r="AO56" s="163"/>
+      <c r="AP56" s="163"/>
+      <c r="AQ56" s="163"/>
+      <c r="AR56" s="163"/>
+      <c r="AS56" s="163"/>
+      <c r="AT56" s="164"/>
     </row>
     <row r="57" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="90"/>
@@ -12931,43 +12943,43 @@
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-      <c r="U57" s="122"/>
-      <c r="V57" s="122"/>
-      <c r="W57" s="122"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
+      <c r="R57" s="125"/>
+      <c r="S57" s="125"/>
+      <c r="T57" s="125"/>
+      <c r="U57" s="125"/>
+      <c r="V57" s="125"/>
+      <c r="W57" s="125"/>
       <c r="X57" s="48"/>
       <c r="Y57" s="80"/>
-      <c r="Z57" s="199"/>
-      <c r="AA57" s="200"/>
-      <c r="AB57" s="200"/>
-      <c r="AC57" s="200"/>
-      <c r="AD57" s="200"/>
-      <c r="AE57" s="200"/>
-      <c r="AF57" s="200"/>
-      <c r="AG57" s="200"/>
-      <c r="AH57" s="200"/>
-      <c r="AI57" s="200"/>
-      <c r="AJ57" s="200"/>
-      <c r="AK57" s="200"/>
-      <c r="AL57" s="200"/>
-      <c r="AM57" s="200"/>
-      <c r="AN57" s="200"/>
-      <c r="AO57" s="200"/>
-      <c r="AP57" s="200"/>
-      <c r="AQ57" s="200"/>
-      <c r="AR57" s="200"/>
-      <c r="AS57" s="200"/>
-      <c r="AT57" s="201"/>
+      <c r="Z57" s="195"/>
+      <c r="AA57" s="163"/>
+      <c r="AB57" s="163"/>
+      <c r="AC57" s="163"/>
+      <c r="AD57" s="163"/>
+      <c r="AE57" s="163"/>
+      <c r="AF57" s="163"/>
+      <c r="AG57" s="163"/>
+      <c r="AH57" s="163"/>
+      <c r="AI57" s="163"/>
+      <c r="AJ57" s="163"/>
+      <c r="AK57" s="163"/>
+      <c r="AL57" s="163"/>
+      <c r="AM57" s="163"/>
+      <c r="AN57" s="163"/>
+      <c r="AO57" s="163"/>
+      <c r="AP57" s="163"/>
+      <c r="AQ57" s="163"/>
+      <c r="AR57" s="163"/>
+      <c r="AS57" s="163"/>
+      <c r="AT57" s="164"/>
     </row>
     <row r="58" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="90"/>
@@ -13009,33 +13021,33 @@
         <v>296</v>
       </c>
       <c r="U58" s="49"/>
-      <c r="V58" s="192"/>
-      <c r="W58" s="192"/>
-      <c r="X58" s="192"/>
+      <c r="V58" s="193"/>
+      <c r="W58" s="193"/>
+      <c r="X58" s="193"/>
       <c r="Y58" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Z58" s="199"/>
-      <c r="AA58" s="200"/>
-      <c r="AB58" s="200"/>
-      <c r="AC58" s="200"/>
-      <c r="AD58" s="200"/>
-      <c r="AE58" s="200"/>
-      <c r="AF58" s="200"/>
-      <c r="AG58" s="200"/>
-      <c r="AH58" s="200"/>
-      <c r="AI58" s="200"/>
-      <c r="AJ58" s="200"/>
-      <c r="AK58" s="200"/>
-      <c r="AL58" s="200"/>
-      <c r="AM58" s="200"/>
-      <c r="AN58" s="200"/>
-      <c r="AO58" s="200"/>
-      <c r="AP58" s="200"/>
-      <c r="AQ58" s="200"/>
-      <c r="AR58" s="200"/>
-      <c r="AS58" s="200"/>
-      <c r="AT58" s="201"/>
+      <c r="Z58" s="195"/>
+      <c r="AA58" s="163"/>
+      <c r="AB58" s="163"/>
+      <c r="AC58" s="163"/>
+      <c r="AD58" s="163"/>
+      <c r="AE58" s="163"/>
+      <c r="AF58" s="163"/>
+      <c r="AG58" s="163"/>
+      <c r="AH58" s="163"/>
+      <c r="AI58" s="163"/>
+      <c r="AJ58" s="163"/>
+      <c r="AK58" s="163"/>
+      <c r="AL58" s="163"/>
+      <c r="AM58" s="163"/>
+      <c r="AN58" s="163"/>
+      <c r="AO58" s="163"/>
+      <c r="AP58" s="163"/>
+      <c r="AQ58" s="163"/>
+      <c r="AR58" s="163"/>
+      <c r="AS58" s="163"/>
+      <c r="AT58" s="164"/>
     </row>
     <row r="59" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="90"/>
@@ -13053,45 +13065,45 @@
       <c r="I59" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J59" s="192"/>
-      <c r="K59" s="192"/>
-      <c r="L59" s="192"/>
-      <c r="M59" s="192"/>
-      <c r="N59" s="192"/>
-      <c r="O59" s="192"/>
-      <c r="P59" s="192"/>
-      <c r="Q59" s="192"/>
-      <c r="R59" s="192"/>
-      <c r="S59" s="192"/>
-      <c r="T59" s="192"/>
-      <c r="U59" s="192"/>
-      <c r="V59" s="192"/>
-      <c r="W59" s="192"/>
+      <c r="J59" s="193"/>
+      <c r="K59" s="193"/>
+      <c r="L59" s="193"/>
+      <c r="M59" s="193"/>
+      <c r="N59" s="193"/>
+      <c r="O59" s="193"/>
+      <c r="P59" s="193"/>
+      <c r="Q59" s="193"/>
+      <c r="R59" s="193"/>
+      <c r="S59" s="193"/>
+      <c r="T59" s="193"/>
+      <c r="U59" s="193"/>
+      <c r="V59" s="193"/>
+      <c r="W59" s="193"/>
       <c r="X59" s="48" t="s">
         <v>14</v>
       </c>
       <c r="Y59" s="80"/>
-      <c r="Z59" s="199"/>
-      <c r="AA59" s="200"/>
-      <c r="AB59" s="200"/>
-      <c r="AC59" s="200"/>
-      <c r="AD59" s="200"/>
-      <c r="AE59" s="200"/>
-      <c r="AF59" s="200"/>
-      <c r="AG59" s="200"/>
-      <c r="AH59" s="200"/>
-      <c r="AI59" s="200"/>
-      <c r="AJ59" s="200"/>
-      <c r="AK59" s="200"/>
-      <c r="AL59" s="200"/>
-      <c r="AM59" s="200"/>
-      <c r="AN59" s="200"/>
-      <c r="AO59" s="200"/>
-      <c r="AP59" s="200"/>
-      <c r="AQ59" s="200"/>
-      <c r="AR59" s="200"/>
-      <c r="AS59" s="200"/>
-      <c r="AT59" s="201"/>
+      <c r="Z59" s="195"/>
+      <c r="AA59" s="163"/>
+      <c r="AB59" s="163"/>
+      <c r="AC59" s="163"/>
+      <c r="AD59" s="163"/>
+      <c r="AE59" s="163"/>
+      <c r="AF59" s="163"/>
+      <c r="AG59" s="163"/>
+      <c r="AH59" s="163"/>
+      <c r="AI59" s="163"/>
+      <c r="AJ59" s="163"/>
+      <c r="AK59" s="163"/>
+      <c r="AL59" s="163"/>
+      <c r="AM59" s="163"/>
+      <c r="AN59" s="163"/>
+      <c r="AO59" s="163"/>
+      <c r="AP59" s="163"/>
+      <c r="AQ59" s="163"/>
+      <c r="AR59" s="163"/>
+      <c r="AS59" s="163"/>
+      <c r="AT59" s="164"/>
     </row>
     <row r="60" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="90"/>
@@ -13141,27 +13153,27 @@
       <c r="W60" s="48"/>
       <c r="X60" s="48"/>
       <c r="Y60" s="80"/>
-      <c r="Z60" s="199"/>
-      <c r="AA60" s="200"/>
-      <c r="AB60" s="200"/>
-      <c r="AC60" s="200"/>
-      <c r="AD60" s="200"/>
-      <c r="AE60" s="200"/>
-      <c r="AF60" s="200"/>
-      <c r="AG60" s="200"/>
-      <c r="AH60" s="200"/>
-      <c r="AI60" s="200"/>
-      <c r="AJ60" s="200"/>
-      <c r="AK60" s="200"/>
-      <c r="AL60" s="200"/>
-      <c r="AM60" s="200"/>
-      <c r="AN60" s="200"/>
-      <c r="AO60" s="200"/>
-      <c r="AP60" s="200"/>
-      <c r="AQ60" s="200"/>
-      <c r="AR60" s="200"/>
-      <c r="AS60" s="200"/>
-      <c r="AT60" s="201"/>
+      <c r="Z60" s="195"/>
+      <c r="AA60" s="163"/>
+      <c r="AB60" s="163"/>
+      <c r="AC60" s="163"/>
+      <c r="AD60" s="163"/>
+      <c r="AE60" s="163"/>
+      <c r="AF60" s="163"/>
+      <c r="AG60" s="163"/>
+      <c r="AH60" s="163"/>
+      <c r="AI60" s="163"/>
+      <c r="AJ60" s="163"/>
+      <c r="AK60" s="163"/>
+      <c r="AL60" s="163"/>
+      <c r="AM60" s="163"/>
+      <c r="AN60" s="163"/>
+      <c r="AO60" s="163"/>
+      <c r="AP60" s="163"/>
+      <c r="AQ60" s="163"/>
+      <c r="AR60" s="163"/>
+      <c r="AS60" s="163"/>
+      <c r="AT60" s="164"/>
     </row>
     <row r="61" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="90"/>
@@ -13205,33 +13217,33 @@
       <c r="U61" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="V61" s="192"/>
-      <c r="W61" s="192"/>
-      <c r="X61" s="192"/>
+      <c r="V61" s="193"/>
+      <c r="W61" s="193"/>
+      <c r="X61" s="193"/>
       <c r="Y61" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Z61" s="199"/>
-      <c r="AA61" s="200"/>
-      <c r="AB61" s="200"/>
-      <c r="AC61" s="200"/>
-      <c r="AD61" s="200"/>
-      <c r="AE61" s="200"/>
-      <c r="AF61" s="200"/>
-      <c r="AG61" s="200"/>
-      <c r="AH61" s="200"/>
-      <c r="AI61" s="200"/>
-      <c r="AJ61" s="200"/>
-      <c r="AK61" s="200"/>
-      <c r="AL61" s="200"/>
-      <c r="AM61" s="200"/>
-      <c r="AN61" s="200"/>
-      <c r="AO61" s="200"/>
-      <c r="AP61" s="200"/>
-      <c r="AQ61" s="200"/>
-      <c r="AR61" s="200"/>
-      <c r="AS61" s="200"/>
-      <c r="AT61" s="201"/>
+      <c r="Z61" s="195"/>
+      <c r="AA61" s="163"/>
+      <c r="AB61" s="163"/>
+      <c r="AC61" s="163"/>
+      <c r="AD61" s="163"/>
+      <c r="AE61" s="163"/>
+      <c r="AF61" s="163"/>
+      <c r="AG61" s="163"/>
+      <c r="AH61" s="163"/>
+      <c r="AI61" s="163"/>
+      <c r="AJ61" s="163"/>
+      <c r="AK61" s="163"/>
+      <c r="AL61" s="163"/>
+      <c r="AM61" s="163"/>
+      <c r="AN61" s="163"/>
+      <c r="AO61" s="163"/>
+      <c r="AP61" s="163"/>
+      <c r="AQ61" s="163"/>
+      <c r="AR61" s="163"/>
+      <c r="AS61" s="163"/>
+      <c r="AT61" s="164"/>
     </row>
     <row r="62" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="90"/>
@@ -13247,43 +13259,43 @@
       <c r="G62" s="48"/>
       <c r="H62" s="48"/>
       <c r="I62" s="48"/>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="122"/>
-      <c r="M62" s="122"/>
-      <c r="N62" s="122"/>
-      <c r="O62" s="122"/>
-      <c r="P62" s="122"/>
-      <c r="Q62" s="122"/>
-      <c r="R62" s="122"/>
-      <c r="S62" s="122"/>
-      <c r="T62" s="122"/>
-      <c r="U62" s="122"/>
-      <c r="V62" s="122"/>
-      <c r="W62" s="122"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="125"/>
+      <c r="M62" s="125"/>
+      <c r="N62" s="125"/>
+      <c r="O62" s="125"/>
+      <c r="P62" s="125"/>
+      <c r="Q62" s="125"/>
+      <c r="R62" s="125"/>
+      <c r="S62" s="125"/>
+      <c r="T62" s="125"/>
+      <c r="U62" s="125"/>
+      <c r="V62" s="125"/>
+      <c r="W62" s="125"/>
       <c r="X62" s="48"/>
       <c r="Y62" s="80"/>
-      <c r="Z62" s="199"/>
-      <c r="AA62" s="200"/>
-      <c r="AB62" s="200"/>
-      <c r="AC62" s="200"/>
-      <c r="AD62" s="200"/>
-      <c r="AE62" s="200"/>
-      <c r="AF62" s="200"/>
-      <c r="AG62" s="200"/>
-      <c r="AH62" s="200"/>
-      <c r="AI62" s="200"/>
-      <c r="AJ62" s="200"/>
-      <c r="AK62" s="200"/>
-      <c r="AL62" s="200"/>
-      <c r="AM62" s="200"/>
-      <c r="AN62" s="200"/>
-      <c r="AO62" s="200"/>
-      <c r="AP62" s="200"/>
-      <c r="AQ62" s="200"/>
-      <c r="AR62" s="200"/>
-      <c r="AS62" s="200"/>
-      <c r="AT62" s="201"/>
+      <c r="Z62" s="195"/>
+      <c r="AA62" s="163"/>
+      <c r="AB62" s="163"/>
+      <c r="AC62" s="163"/>
+      <c r="AD62" s="163"/>
+      <c r="AE62" s="163"/>
+      <c r="AF62" s="163"/>
+      <c r="AG62" s="163"/>
+      <c r="AH62" s="163"/>
+      <c r="AI62" s="163"/>
+      <c r="AJ62" s="163"/>
+      <c r="AK62" s="163"/>
+      <c r="AL62" s="163"/>
+      <c r="AM62" s="163"/>
+      <c r="AN62" s="163"/>
+      <c r="AO62" s="163"/>
+      <c r="AP62" s="163"/>
+      <c r="AQ62" s="163"/>
+      <c r="AR62" s="163"/>
+      <c r="AS62" s="163"/>
+      <c r="AT62" s="164"/>
     </row>
     <row r="63" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="90"/>
@@ -13329,27 +13341,27 @@
       </c>
       <c r="X63" s="48"/>
       <c r="Y63" s="80"/>
-      <c r="Z63" s="199"/>
-      <c r="AA63" s="200"/>
-      <c r="AB63" s="200"/>
-      <c r="AC63" s="200"/>
-      <c r="AD63" s="200"/>
-      <c r="AE63" s="200"/>
-      <c r="AF63" s="200"/>
-      <c r="AG63" s="200"/>
-      <c r="AH63" s="200"/>
-      <c r="AI63" s="200"/>
-      <c r="AJ63" s="200"/>
-      <c r="AK63" s="200"/>
-      <c r="AL63" s="200"/>
-      <c r="AM63" s="200"/>
-      <c r="AN63" s="200"/>
-      <c r="AO63" s="200"/>
-      <c r="AP63" s="200"/>
-      <c r="AQ63" s="200"/>
-      <c r="AR63" s="200"/>
-      <c r="AS63" s="200"/>
-      <c r="AT63" s="201"/>
+      <c r="Z63" s="195"/>
+      <c r="AA63" s="163"/>
+      <c r="AB63" s="163"/>
+      <c r="AC63" s="163"/>
+      <c r="AD63" s="163"/>
+      <c r="AE63" s="163"/>
+      <c r="AF63" s="163"/>
+      <c r="AG63" s="163"/>
+      <c r="AH63" s="163"/>
+      <c r="AI63" s="163"/>
+      <c r="AJ63" s="163"/>
+      <c r="AK63" s="163"/>
+      <c r="AL63" s="163"/>
+      <c r="AM63" s="163"/>
+      <c r="AN63" s="163"/>
+      <c r="AO63" s="163"/>
+      <c r="AP63" s="163"/>
+      <c r="AQ63" s="163"/>
+      <c r="AR63" s="163"/>
+      <c r="AS63" s="163"/>
+      <c r="AT63" s="164"/>
     </row>
     <row r="64" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="100"/>
@@ -13367,48 +13379,48 @@
       <c r="I64" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="196"/>
-      <c r="K64" s="196"/>
-      <c r="L64" s="196"/>
-      <c r="M64" s="196"/>
-      <c r="N64" s="196"/>
-      <c r="O64" s="196"/>
-      <c r="P64" s="196"/>
-      <c r="Q64" s="196"/>
-      <c r="R64" s="196"/>
-      <c r="S64" s="196"/>
-      <c r="T64" s="196"/>
-      <c r="U64" s="196"/>
-      <c r="V64" s="196"/>
-      <c r="W64" s="196"/>
+      <c r="J64" s="194"/>
+      <c r="K64" s="194"/>
+      <c r="L64" s="194"/>
+      <c r="M64" s="194"/>
+      <c r="N64" s="194"/>
+      <c r="O64" s="194"/>
+      <c r="P64" s="194"/>
+      <c r="Q64" s="194"/>
+      <c r="R64" s="194"/>
+      <c r="S64" s="194"/>
+      <c r="T64" s="194"/>
+      <c r="U64" s="194"/>
+      <c r="V64" s="194"/>
+      <c r="W64" s="194"/>
       <c r="X64" s="48" t="s">
         <v>14</v>
       </c>
       <c r="Y64" s="80"/>
-      <c r="Z64" s="202"/>
-      <c r="AA64" s="203"/>
-      <c r="AB64" s="203"/>
-      <c r="AC64" s="203"/>
-      <c r="AD64" s="203"/>
-      <c r="AE64" s="203"/>
-      <c r="AF64" s="203"/>
-      <c r="AG64" s="203"/>
-      <c r="AH64" s="203"/>
-      <c r="AI64" s="203"/>
-      <c r="AJ64" s="203"/>
-      <c r="AK64" s="203"/>
-      <c r="AL64" s="203"/>
-      <c r="AM64" s="203"/>
-      <c r="AN64" s="203"/>
-      <c r="AO64" s="203"/>
-      <c r="AP64" s="203"/>
-      <c r="AQ64" s="203"/>
-      <c r="AR64" s="203"/>
-      <c r="AS64" s="203"/>
-      <c r="AT64" s="204"/>
+      <c r="Z64" s="196"/>
+      <c r="AA64" s="165"/>
+      <c r="AB64" s="165"/>
+      <c r="AC64" s="165"/>
+      <c r="AD64" s="165"/>
+      <c r="AE64" s="165"/>
+      <c r="AF64" s="165"/>
+      <c r="AG64" s="165"/>
+      <c r="AH64" s="165"/>
+      <c r="AI64" s="165"/>
+      <c r="AJ64" s="165"/>
+      <c r="AK64" s="165"/>
+      <c r="AL64" s="165"/>
+      <c r="AM64" s="165"/>
+      <c r="AN64" s="165"/>
+      <c r="AO64" s="165"/>
+      <c r="AP64" s="165"/>
+      <c r="AQ64" s="165"/>
+      <c r="AR64" s="165"/>
+      <c r="AS64" s="165"/>
+      <c r="AT64" s="166"/>
     </row>
     <row r="65" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="191" t="s">
+      <c r="A65" s="202" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="91"/>
@@ -13426,44 +13438,44 @@
       <c r="J65" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="K65" s="131"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="131"/>
-      <c r="P65" s="131"/>
-      <c r="Q65" s="131"/>
-      <c r="R65" s="131"/>
-      <c r="S65" s="131"/>
-      <c r="T65" s="131"/>
-      <c r="U65" s="131"/>
-      <c r="V65" s="131"/>
-      <c r="W65" s="131"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="134"/>
+      <c r="N65" s="134"/>
+      <c r="O65" s="134"/>
+      <c r="P65" s="134"/>
+      <c r="Q65" s="134"/>
+      <c r="R65" s="134"/>
+      <c r="S65" s="134"/>
+      <c r="T65" s="134"/>
+      <c r="U65" s="134"/>
+      <c r="V65" s="134"/>
+      <c r="W65" s="134"/>
       <c r="X65" s="38" t="s">
         <v>14</v>
       </c>
       <c r="Y65" s="79"/>
-      <c r="Z65" s="205"/>
-      <c r="AA65" s="206"/>
-      <c r="AB65" s="206"/>
-      <c r="AC65" s="206"/>
-      <c r="AD65" s="206"/>
-      <c r="AE65" s="206"/>
-      <c r="AF65" s="206"/>
-      <c r="AG65" s="206"/>
-      <c r="AH65" s="206"/>
-      <c r="AI65" s="206"/>
-      <c r="AJ65" s="206"/>
-      <c r="AK65" s="206"/>
-      <c r="AL65" s="206"/>
-      <c r="AM65" s="206"/>
-      <c r="AN65" s="206"/>
-      <c r="AO65" s="206"/>
-      <c r="AP65" s="206"/>
-      <c r="AQ65" s="206"/>
-      <c r="AR65" s="206"/>
-      <c r="AS65" s="206"/>
-      <c r="AT65" s="207"/>
+      <c r="Z65" s="200"/>
+      <c r="AA65" s="161"/>
+      <c r="AB65" s="161"/>
+      <c r="AC65" s="161"/>
+      <c r="AD65" s="161"/>
+      <c r="AE65" s="161"/>
+      <c r="AF65" s="161"/>
+      <c r="AG65" s="161"/>
+      <c r="AH65" s="161"/>
+      <c r="AI65" s="161"/>
+      <c r="AJ65" s="161"/>
+      <c r="AK65" s="161"/>
+      <c r="AL65" s="161"/>
+      <c r="AM65" s="161"/>
+      <c r="AN65" s="161"/>
+      <c r="AO65" s="161"/>
+      <c r="AP65" s="161"/>
+      <c r="AQ65" s="161"/>
+      <c r="AR65" s="161"/>
+      <c r="AS65" s="161"/>
+      <c r="AT65" s="162"/>
     </row>
     <row r="66" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="90"/>
@@ -13481,45 +13493,45 @@
       <c r="I66" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J66" s="192"/>
-      <c r="K66" s="192"/>
-      <c r="L66" s="192"/>
-      <c r="M66" s="192"/>
-      <c r="N66" s="192"/>
-      <c r="O66" s="192"/>
-      <c r="P66" s="192"/>
-      <c r="Q66" s="192"/>
-      <c r="R66" s="192"/>
-      <c r="S66" s="192"/>
-      <c r="T66" s="192"/>
-      <c r="U66" s="192"/>
-      <c r="V66" s="192"/>
-      <c r="W66" s="192"/>
+      <c r="J66" s="193"/>
+      <c r="K66" s="193"/>
+      <c r="L66" s="193"/>
+      <c r="M66" s="193"/>
+      <c r="N66" s="193"/>
+      <c r="O66" s="193"/>
+      <c r="P66" s="193"/>
+      <c r="Q66" s="193"/>
+      <c r="R66" s="193"/>
+      <c r="S66" s="193"/>
+      <c r="T66" s="193"/>
+      <c r="U66" s="193"/>
+      <c r="V66" s="193"/>
+      <c r="W66" s="193"/>
       <c r="X66" s="48" t="s">
         <v>14</v>
       </c>
       <c r="Y66" s="80"/>
-      <c r="Z66" s="199"/>
-      <c r="AA66" s="200"/>
-      <c r="AB66" s="200"/>
-      <c r="AC66" s="200"/>
-      <c r="AD66" s="200"/>
-      <c r="AE66" s="200"/>
-      <c r="AF66" s="200"/>
-      <c r="AG66" s="200"/>
-      <c r="AH66" s="200"/>
-      <c r="AI66" s="200"/>
-      <c r="AJ66" s="200"/>
-      <c r="AK66" s="200"/>
-      <c r="AL66" s="200"/>
-      <c r="AM66" s="200"/>
-      <c r="AN66" s="200"/>
-      <c r="AO66" s="200"/>
-      <c r="AP66" s="200"/>
-      <c r="AQ66" s="200"/>
-      <c r="AR66" s="200"/>
-      <c r="AS66" s="200"/>
-      <c r="AT66" s="201"/>
+      <c r="Z66" s="195"/>
+      <c r="AA66" s="163"/>
+      <c r="AB66" s="163"/>
+      <c r="AC66" s="163"/>
+      <c r="AD66" s="163"/>
+      <c r="AE66" s="163"/>
+      <c r="AF66" s="163"/>
+      <c r="AG66" s="163"/>
+      <c r="AH66" s="163"/>
+      <c r="AI66" s="163"/>
+      <c r="AJ66" s="163"/>
+      <c r="AK66" s="163"/>
+      <c r="AL66" s="163"/>
+      <c r="AM66" s="163"/>
+      <c r="AN66" s="163"/>
+      <c r="AO66" s="163"/>
+      <c r="AP66" s="163"/>
+      <c r="AQ66" s="163"/>
+      <c r="AR66" s="163"/>
+      <c r="AS66" s="163"/>
+      <c r="AT66" s="164"/>
     </row>
     <row r="67" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="90"/>
@@ -13538,44 +13550,44 @@
       <c r="J67" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="K67" s="192"/>
-      <c r="L67" s="192"/>
-      <c r="M67" s="192"/>
-      <c r="N67" s="192"/>
-      <c r="O67" s="192"/>
-      <c r="P67" s="192"/>
-      <c r="Q67" s="192"/>
-      <c r="R67" s="192"/>
-      <c r="S67" s="192"/>
-      <c r="T67" s="192"/>
-      <c r="U67" s="192"/>
-      <c r="V67" s="192"/>
-      <c r="W67" s="192"/>
+      <c r="K67" s="193"/>
+      <c r="L67" s="193"/>
+      <c r="M67" s="193"/>
+      <c r="N67" s="193"/>
+      <c r="O67" s="193"/>
+      <c r="P67" s="193"/>
+      <c r="Q67" s="193"/>
+      <c r="R67" s="193"/>
+      <c r="S67" s="193"/>
+      <c r="T67" s="193"/>
+      <c r="U67" s="193"/>
+      <c r="V67" s="193"/>
+      <c r="W67" s="193"/>
       <c r="X67" s="48" t="s">
         <v>14</v>
       </c>
       <c r="Y67" s="80"/>
-      <c r="Z67" s="199"/>
-      <c r="AA67" s="200"/>
-      <c r="AB67" s="200"/>
-      <c r="AC67" s="200"/>
-      <c r="AD67" s="200"/>
-      <c r="AE67" s="200"/>
-      <c r="AF67" s="200"/>
-      <c r="AG67" s="200"/>
-      <c r="AH67" s="200"/>
-      <c r="AI67" s="200"/>
-      <c r="AJ67" s="200"/>
-      <c r="AK67" s="200"/>
-      <c r="AL67" s="200"/>
-      <c r="AM67" s="200"/>
-      <c r="AN67" s="200"/>
-      <c r="AO67" s="200"/>
-      <c r="AP67" s="200"/>
-      <c r="AQ67" s="200"/>
-      <c r="AR67" s="200"/>
-      <c r="AS67" s="200"/>
-      <c r="AT67" s="201"/>
+      <c r="Z67" s="195"/>
+      <c r="AA67" s="163"/>
+      <c r="AB67" s="163"/>
+      <c r="AC67" s="163"/>
+      <c r="AD67" s="163"/>
+      <c r="AE67" s="163"/>
+      <c r="AF67" s="163"/>
+      <c r="AG67" s="163"/>
+      <c r="AH67" s="163"/>
+      <c r="AI67" s="163"/>
+      <c r="AJ67" s="163"/>
+      <c r="AK67" s="163"/>
+      <c r="AL67" s="163"/>
+      <c r="AM67" s="163"/>
+      <c r="AN67" s="163"/>
+      <c r="AO67" s="163"/>
+      <c r="AP67" s="163"/>
+      <c r="AQ67" s="163"/>
+      <c r="AR67" s="163"/>
+      <c r="AS67" s="163"/>
+      <c r="AT67" s="164"/>
     </row>
     <row r="68" spans="1:46" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="100"/>
@@ -13592,44 +13604,44 @@
       <c r="H68" s="43"/>
       <c r="I68" s="43"/>
       <c r="J68" s="76"/>
-      <c r="K68" s="134"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
-      <c r="N68" s="134"/>
-      <c r="O68" s="134"/>
-      <c r="P68" s="134"/>
-      <c r="Q68" s="134"/>
-      <c r="R68" s="134"/>
-      <c r="S68" s="134"/>
-      <c r="T68" s="134"/>
-      <c r="U68" s="134"/>
-      <c r="V68" s="134"/>
-      <c r="W68" s="134"/>
+      <c r="K68" s="137"/>
+      <c r="L68" s="137"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="137"/>
+      <c r="O68" s="137"/>
+      <c r="P68" s="137"/>
+      <c r="Q68" s="137"/>
+      <c r="R68" s="137"/>
+      <c r="S68" s="137"/>
+      <c r="T68" s="137"/>
+      <c r="U68" s="137"/>
+      <c r="V68" s="137"/>
+      <c r="W68" s="137"/>
       <c r="X68" s="43" t="s">
         <v>14</v>
       </c>
       <c r="Y68" s="77"/>
-      <c r="Z68" s="202"/>
-      <c r="AA68" s="203"/>
-      <c r="AB68" s="203"/>
-      <c r="AC68" s="203"/>
-      <c r="AD68" s="203"/>
-      <c r="AE68" s="203"/>
-      <c r="AF68" s="203"/>
-      <c r="AG68" s="203"/>
-      <c r="AH68" s="203"/>
-      <c r="AI68" s="203"/>
-      <c r="AJ68" s="203"/>
-      <c r="AK68" s="203"/>
-      <c r="AL68" s="203"/>
-      <c r="AM68" s="203"/>
-      <c r="AN68" s="203"/>
-      <c r="AO68" s="203"/>
-      <c r="AP68" s="203"/>
-      <c r="AQ68" s="203"/>
-      <c r="AR68" s="203"/>
-      <c r="AS68" s="203"/>
-      <c r="AT68" s="204"/>
+      <c r="Z68" s="196"/>
+      <c r="AA68" s="165"/>
+      <c r="AB68" s="165"/>
+      <c r="AC68" s="165"/>
+      <c r="AD68" s="165"/>
+      <c r="AE68" s="165"/>
+      <c r="AF68" s="165"/>
+      <c r="AG68" s="165"/>
+      <c r="AH68" s="165"/>
+      <c r="AI68" s="165"/>
+      <c r="AJ68" s="165"/>
+      <c r="AK68" s="165"/>
+      <c r="AL68" s="165"/>
+      <c r="AM68" s="165"/>
+      <c r="AN68" s="165"/>
+      <c r="AO68" s="165"/>
+      <c r="AP68" s="165"/>
+      <c r="AQ68" s="165"/>
+      <c r="AR68" s="165"/>
+      <c r="AS68" s="165"/>
+      <c r="AT68" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="52">
